--- a/output.xlsx
+++ b/output.xlsx
@@ -3,19 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3560" yWindow="500" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="查看销售金额2022.11-2023.1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_A" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_B" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_C" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_A" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_C" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工具sheet_总" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
   </externalReferences>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'查看销售金额2022.11-2023.1'!$A$1:$CI$193</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -132,7 +134,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -187,6 +189,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009c0006"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -229,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +395,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -833,16 +843,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:CI200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AO1" sqref="AO1"/>
-      <selection pane="bottomLeft" activeCell="U35" sqref="U35"/>
+      <selection pane="bottomLeft" activeCell="AV198" sqref="AV198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1341,7 +1351,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="42.5" customHeight="1" s="47">
+    <row r="2" hidden="1" ht="42.5" customHeight="1" s="47">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Index No.(Do NOT delete or alter)</t>
@@ -1781,7 +1791,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="1" s="47">
       <c r="A3" s="24" t="n">
         <v>1</v>
       </c>
@@ -2050,7 +2060,7 @@
       <c r="CH3" s="24" t="n"/>
       <c r="CI3" s="24" t="n"/>
     </row>
-    <row r="4">
+    <row r="4" hidden="1" s="47">
       <c r="A4" s="28" t="n">
         <v>2</v>
       </c>
@@ -2325,7 +2335,7 @@
       <c r="CH4" s="24" t="n"/>
       <c r="CI4" s="24" t="n"/>
     </row>
-    <row r="5">
+    <row r="5" hidden="1" s="47">
       <c r="A5" s="28" t="n">
         <v>3</v>
       </c>
@@ -2610,7 +2620,7 @@
       <c r="CH5" s="24" t="n"/>
       <c r="CI5" s="24" t="n"/>
     </row>
-    <row r="6">
+    <row r="6" hidden="1" s="47">
       <c r="A6" s="24" t="n">
         <v>4</v>
       </c>
@@ -2893,7 +2903,7 @@
       <c r="CH6" s="24" t="n"/>
       <c r="CI6" s="24" t="n"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1" s="47">
       <c r="A7" s="24" t="n">
         <v>5</v>
       </c>
@@ -3176,7 +3186,7 @@
       <c r="CH7" s="24" t="n"/>
       <c r="CI7" s="24" t="n"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1" s="47">
       <c r="A8" s="24" t="n">
         <v>6</v>
       </c>
@@ -3463,7 +3473,7 @@
       <c r="CH8" s="24" t="n"/>
       <c r="CI8" s="24" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1" s="47">
       <c r="A9" s="28" t="n">
         <v>7</v>
       </c>
@@ -3754,7 +3764,7 @@
       <c r="CH9" s="24" t="n"/>
       <c r="CI9" s="24" t="n"/>
     </row>
-    <row r="10">
+    <row r="10" hidden="1" s="47">
       <c r="A10" s="28" t="n">
         <v>8</v>
       </c>
@@ -4045,7 +4055,7 @@
       <c r="CH10" s="24" t="n"/>
       <c r="CI10" s="24" t="n"/>
     </row>
-    <row r="11">
+    <row r="11" hidden="1" s="47">
       <c r="A11" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增1</t>
@@ -4334,7 +4344,7 @@
       <c r="CH11" s="24" t="n"/>
       <c r="CI11" s="24" t="n"/>
     </row>
-    <row r="12">
+    <row r="12" hidden="1" s="47">
       <c r="A12" s="28" t="n">
         <v>9</v>
       </c>
@@ -4623,7 +4633,7 @@
       <c r="CH12" s="24" t="n"/>
       <c r="CI12" s="24" t="n"/>
     </row>
-    <row r="13">
+    <row r="13" hidden="1" s="47">
       <c r="A13" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增2</t>
@@ -4910,7 +4920,7 @@
       <c r="CH13" s="24" t="n"/>
       <c r="CI13" s="24" t="n"/>
     </row>
-    <row r="14">
+    <row r="14" hidden="1" s="47">
       <c r="A14" s="24" t="n">
         <v>10</v>
       </c>
@@ -5199,7 +5209,7 @@
       <c r="CH14" s="24" t="n"/>
       <c r="CI14" s="24" t="n"/>
     </row>
-    <row r="15" customFormat="1" s="38">
+    <row r="15" hidden="1" customFormat="1" s="38">
       <c r="A15" s="24" t="n">
         <v>11</v>
       </c>
@@ -5480,7 +5490,7 @@
       <c r="CH15" s="36" t="n"/>
       <c r="CI15" s="36" t="n"/>
     </row>
-    <row r="16">
+    <row r="16" hidden="1" s="47">
       <c r="A16" s="24" t="n">
         <v>12</v>
       </c>
@@ -5759,7 +5769,7 @@
       <c r="CH16" s="24" t="n"/>
       <c r="CI16" s="24" t="n"/>
     </row>
-    <row r="17">
+    <row r="17" hidden="1" s="47">
       <c r="A17" s="24" t="n">
         <v>13</v>
       </c>
@@ -6030,7 +6040,7 @@
       <c r="CH17" s="24" t="n"/>
       <c r="CI17" s="24" t="n"/>
     </row>
-    <row r="18" customFormat="1" s="38">
+    <row r="18" hidden="1" customFormat="1" s="38">
       <c r="A18" s="24" t="n">
         <v>14</v>
       </c>
@@ -6303,7 +6313,7 @@
       <c r="CH18" s="36" t="n"/>
       <c r="CI18" s="36" t="n"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1" s="47">
       <c r="A19" s="24" t="n">
         <v>15</v>
       </c>
@@ -6572,7 +6582,7 @@
       <c r="CH19" s="24" t="n"/>
       <c r="CI19" s="24" t="n"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1" s="47">
       <c r="A20" s="24" t="n">
         <v>16</v>
       </c>
@@ -6841,7 +6851,7 @@
       <c r="CH20" s="24" t="n"/>
       <c r="CI20" s="24" t="n"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1" s="47">
       <c r="A21" s="24" t="n">
         <v>17</v>
       </c>
@@ -7110,7 +7120,7 @@
       <c r="CH21" s="24" t="n"/>
       <c r="CI21" s="24" t="n"/>
     </row>
-    <row r="22">
+    <row r="22" hidden="1" s="47">
       <c r="A22" s="24" t="n">
         <v>18</v>
       </c>
@@ -11337,7 +11347,7 @@
       <c r="CH36" s="36" t="n"/>
       <c r="CI36" s="36" t="n"/>
     </row>
-    <row r="37">
+    <row r="37" hidden="1" s="47">
       <c r="A37" s="24" t="n">
         <v>33</v>
       </c>
@@ -11610,7 +11620,7 @@
       <c r="CH37" s="24" t="n"/>
       <c r="CI37" s="24" t="n"/>
     </row>
-    <row r="38">
+    <row r="38" hidden="1" s="47">
       <c r="A38" s="24" t="n">
         <v>34</v>
       </c>
@@ -11895,7 +11905,7 @@
       <c r="CH38" s="24" t="n"/>
       <c r="CI38" s="24" t="n"/>
     </row>
-    <row r="39" customFormat="1" s="38">
+    <row r="39" hidden="1" customFormat="1" s="38">
       <c r="A39" s="24" t="n">
         <v>35</v>
       </c>
@@ -12184,7 +12194,7 @@
       <c r="CH39" s="36" t="n"/>
       <c r="CI39" s="36" t="n"/>
     </row>
-    <row r="40" customFormat="1" s="38">
+    <row r="40" hidden="1" customFormat="1" s="38">
       <c r="A40" s="24" t="n">
         <v>36</v>
       </c>
@@ -12473,7 +12483,7 @@
       <c r="CH40" s="36" t="n"/>
       <c r="CI40" s="36" t="n"/>
     </row>
-    <row r="41" customFormat="1" s="38">
+    <row r="41" hidden="1" customFormat="1" s="38">
       <c r="A41" s="28" t="n">
         <v>37</v>
       </c>
@@ -12764,7 +12774,7 @@
       <c r="CH41" s="36" t="n"/>
       <c r="CI41" s="36" t="n"/>
     </row>
-    <row r="42">
+    <row r="42" hidden="1" s="47">
       <c r="A42" s="24" t="n">
         <v>38</v>
       </c>
@@ -13037,7 +13047,7 @@
       <c r="CH42" s="24" t="n"/>
       <c r="CI42" s="24" t="n"/>
     </row>
-    <row r="43">
+    <row r="43" hidden="1" s="47">
       <c r="A43" s="24" t="n">
         <v>39</v>
       </c>
@@ -13310,7 +13320,7 @@
       <c r="CH43" s="24" t="n"/>
       <c r="CI43" s="24" t="n"/>
     </row>
-    <row r="44" customFormat="1" s="38">
+    <row r="44" hidden="1" customFormat="1" s="38">
       <c r="A44" s="28" t="n">
         <v>40</v>
       </c>
@@ -13587,7 +13597,7 @@
       <c r="CH44" s="36" t="n"/>
       <c r="CI44" s="36" t="n"/>
     </row>
-    <row r="45">
+    <row r="45" hidden="1" s="47">
       <c r="A45" s="28" t="n">
         <v>41</v>
       </c>
@@ -13862,7 +13872,7 @@
       <c r="CH45" s="24" t="n"/>
       <c r="CI45" s="24" t="n"/>
     </row>
-    <row r="46">
+    <row r="46" hidden="1" s="47">
       <c r="A46" s="24" t="n">
         <v>42</v>
       </c>
@@ -14135,7 +14145,7 @@
       <c r="CH46" s="24" t="n"/>
       <c r="CI46" s="24" t="n"/>
     </row>
-    <row r="47">
+    <row r="47" hidden="1" s="47">
       <c r="A47" s="24" t="n">
         <v>43</v>
       </c>
@@ -14408,7 +14418,7 @@
       <c r="CH47" s="24" t="n"/>
       <c r="CI47" s="24" t="n"/>
     </row>
-    <row r="48">
+    <row r="48" hidden="1" s="47">
       <c r="A48" s="24" t="n">
         <v>44</v>
       </c>
@@ -14681,7 +14691,7 @@
       <c r="CH48" s="24" t="n"/>
       <c r="CI48" s="24" t="n"/>
     </row>
-    <row r="49" customFormat="1" s="38">
+    <row r="49" hidden="1" customFormat="1" s="38">
       <c r="A49" s="28" t="n">
         <v>45</v>
       </c>
@@ -14972,7 +14982,7 @@
       <c r="CH49" s="36" t="n"/>
       <c r="CI49" s="36" t="n"/>
     </row>
-    <row r="50">
+    <row r="50" hidden="1" s="47">
       <c r="A50" s="24" t="n">
         <v>46</v>
       </c>
@@ -15245,7 +15255,7 @@
       <c r="CH50" s="24" t="n"/>
       <c r="CI50" s="24" t="n"/>
     </row>
-    <row r="51" customFormat="1" s="38">
+    <row r="51" hidden="1" customFormat="1" s="38">
       <c r="A51" s="28" t="n">
         <v>47</v>
       </c>
@@ -15522,7 +15532,7 @@
       <c r="CH51" s="36" t="n"/>
       <c r="CI51" s="36" t="n"/>
     </row>
-    <row r="52">
+    <row r="52" hidden="1" s="47">
       <c r="A52" s="24" t="n">
         <v>48</v>
       </c>
@@ -15795,7 +15805,7 @@
       <c r="CH52" s="24" t="n"/>
       <c r="CI52" s="24" t="n"/>
     </row>
-    <row r="53">
+    <row r="53" hidden="1" s="47">
       <c r="A53" s="24" t="n">
         <v>49</v>
       </c>
@@ -16064,7 +16074,7 @@
       <c r="CH53" s="24" t="n"/>
       <c r="CI53" s="24" t="n"/>
     </row>
-    <row r="54">
+    <row r="54" hidden="1" s="47">
       <c r="A54" s="24" t="n">
         <v>50</v>
       </c>
@@ -16232,17 +16242,14 @@
       <c r="AQ54" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR54" s="42">
-        <f>VLOOKUP(R54,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS54" s="24">
-        <f>VLOOKUP(R54,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT54" s="24">
-        <f>VLOOKUP(R54,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR54" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU54" s="24" t="n">
         <v>0</v>
@@ -16334,7 +16341,7 @@
       <c r="CH54" s="24" t="n"/>
       <c r="CI54" s="24" t="n"/>
     </row>
-    <row r="55">
+    <row r="55" hidden="1" s="47">
       <c r="A55" s="24" t="n">
         <v>51</v>
       </c>
@@ -16502,17 +16509,14 @@
       <c r="AQ55" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR55" s="42">
-        <f>VLOOKUP(R55,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS55" s="24">
-        <f>VLOOKUP(R55,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT55" s="24">
-        <f>VLOOKUP(R55,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR55" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU55" s="24" t="n">
         <v>0</v>
@@ -16604,7 +16608,7 @@
       <c r="CH55" s="24" t="n"/>
       <c r="CI55" s="24" t="n"/>
     </row>
-    <row r="56">
+    <row r="56" hidden="1" s="47">
       <c r="A56" s="24" t="n">
         <v>52</v>
       </c>
@@ -16772,17 +16776,14 @@
       <c r="AQ56" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR56" s="42">
-        <f>VLOOKUP(R56,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS56" s="24">
-        <f>VLOOKUP(R56,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT56" s="24">
-        <f>VLOOKUP(R56,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR56" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU56" s="24" t="n">
         <v>0</v>
@@ -16874,7 +16875,7 @@
       <c r="CH56" s="24" t="n"/>
       <c r="CI56" s="24" t="n"/>
     </row>
-    <row r="57">
+    <row r="57" hidden="1" s="47">
       <c r="A57" s="24" t="n">
         <v>53</v>
       </c>
@@ -17044,17 +17045,14 @@
       <c r="AQ57" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR57" s="42">
-        <f>VLOOKUP(R57,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS57" s="24">
-        <f>VLOOKUP(R57,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT57" s="24">
-        <f>VLOOKUP(R57,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR57" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU57" s="24" t="n">
         <v>0</v>
@@ -17146,7 +17144,7 @@
       <c r="CH57" s="24" t="n"/>
       <c r="CI57" s="24" t="n"/>
     </row>
-    <row r="58">
+    <row r="58" hidden="1" s="47">
       <c r="A58" s="24" t="n">
         <v>54</v>
       </c>
@@ -17316,17 +17314,14 @@
       <c r="AQ58" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR58" s="42">
-        <f>VLOOKUP(R58,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS58" s="24">
-        <f>VLOOKUP(R58,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT58" s="24">
-        <f>VLOOKUP(R58,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR58" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU58" s="24" t="n">
         <v>0</v>
@@ -17418,7 +17413,7 @@
       <c r="CH58" s="24" t="n"/>
       <c r="CI58" s="24" t="n"/>
     </row>
-    <row r="59">
+    <row r="59" hidden="1" s="47">
       <c r="A59" s="24" t="n">
         <v>55</v>
       </c>
@@ -17588,17 +17583,14 @@
       <c r="AQ59" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR59" s="42">
-        <f>VLOOKUP(R59,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS59" s="24">
-        <f>VLOOKUP(R59,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT59" s="24">
-        <f>VLOOKUP(R59,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR59" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU59" s="24" t="n">
         <v>0</v>
@@ -17690,7 +17682,7 @@
       <c r="CH59" s="24" t="n"/>
       <c r="CI59" s="24" t="n"/>
     </row>
-    <row r="60">
+    <row r="60" hidden="1" s="47">
       <c r="A60" s="24" t="n">
         <v>56</v>
       </c>
@@ -17860,17 +17852,14 @@
       <c r="AQ60" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR60" s="42">
-        <f>VLOOKUP(R60,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS60" s="24">
-        <f>VLOOKUP(R60,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT60" s="24">
-        <f>VLOOKUP(R60,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR60" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT60" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU60" s="24" t="n">
         <v>0</v>
@@ -17962,7 +17951,7 @@
       <c r="CH60" s="24" t="n"/>
       <c r="CI60" s="24" t="n"/>
     </row>
-    <row r="61">
+    <row r="61" hidden="1" s="47">
       <c r="A61" s="24" t="n">
         <v>57</v>
       </c>
@@ -18132,17 +18121,14 @@
       <c r="AQ61" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR61" s="42">
-        <f>VLOOKUP(R61,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS61" s="24">
-        <f>VLOOKUP(R61,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT61" s="24">
-        <f>VLOOKUP(R61,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR61" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU61" s="24" t="n">
         <v>0</v>
@@ -18234,7 +18220,7 @@
       <c r="CH61" s="24" t="n"/>
       <c r="CI61" s="24" t="n"/>
     </row>
-    <row r="62">
+    <row r="62" hidden="1" s="47">
       <c r="A62" s="24" t="n">
         <v>58</v>
       </c>
@@ -18418,17 +18404,14 @@
       <c r="AQ62" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR62" s="42">
-        <f>VLOOKUP(R62,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS62" s="24">
-        <f>VLOOKUP(R62,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT62" s="24">
-        <f>VLOOKUP(R62,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR62" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS62" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT62" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU62" s="24" t="n">
         <v>0</v>
@@ -18520,7 +18503,7 @@
       <c r="CH62" s="24" t="n"/>
       <c r="CI62" s="24" t="n"/>
     </row>
-    <row r="63">
+    <row r="63" hidden="1" s="47">
       <c r="A63" s="24" t="n">
         <v>59</v>
       </c>
@@ -18704,17 +18687,14 @@
       <c r="AQ63" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR63" s="42">
-        <f>VLOOKUP(R63,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS63" s="24">
-        <f>VLOOKUP(R63,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT63" s="24">
-        <f>VLOOKUP(R63,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR63" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT63" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU63" s="24" t="n">
         <v>0</v>
@@ -18806,7 +18786,7 @@
       <c r="CH63" s="24" t="n"/>
       <c r="CI63" s="24" t="n"/>
     </row>
-    <row r="64">
+    <row r="64" hidden="1" s="47">
       <c r="A64" s="24" t="n">
         <v>60</v>
       </c>
@@ -18990,17 +18970,14 @@
       <c r="AQ64" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR64" s="42">
-        <f>VLOOKUP(R64,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS64" s="24">
-        <f>VLOOKUP(R64,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT64" s="24">
-        <f>VLOOKUP(R64,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR64" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU64" s="24" t="n">
         <v>0</v>
@@ -19092,7 +19069,7 @@
       <c r="CH64" s="24" t="n"/>
       <c r="CI64" s="24" t="n"/>
     </row>
-    <row r="65">
+    <row r="65" hidden="1" s="47">
       <c r="A65" s="24" t="n">
         <v>61</v>
       </c>
@@ -19280,15 +19257,15 @@
       <c r="AQ65" s="42" t="n">
         <v>0.7936</v>
       </c>
-      <c r="AR65" s="42">
+      <c r="AR65" s="49">
         <f>VLOOKUP(R65,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS65" s="24">
+      <c r="AS65" s="49">
         <f>VLOOKUP(R65,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT65" s="24">
+      <c r="AT65" s="49">
         <f>VLOOKUP(R65,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -19382,7 +19359,7 @@
       <c r="CH65" s="24" t="n"/>
       <c r="CI65" s="24" t="n"/>
     </row>
-    <row r="66">
+    <row r="66" hidden="1" s="47">
       <c r="A66" s="24" t="n">
         <v>62</v>
       </c>
@@ -19566,15 +19543,15 @@
       <c r="AQ66" s="42" t="n">
         <v>0.828</v>
       </c>
-      <c r="AR66" s="42">
+      <c r="AR66" s="49">
         <f>VLOOKUP(R66,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS66" s="24">
+      <c r="AS66" s="49">
         <f>VLOOKUP(R66,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT66" s="24">
+      <c r="AT66" s="49">
         <f>VLOOKUP(R66,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -19668,7 +19645,7 @@
       <c r="CH66" s="24" t="n"/>
       <c r="CI66" s="24" t="n"/>
     </row>
-    <row r="67">
+    <row r="67" hidden="1" s="47">
       <c r="A67" s="24" t="n">
         <v>63</v>
       </c>
@@ -19850,15 +19827,15 @@
       <c r="AQ67" s="42" t="n">
         <v>0.4032</v>
       </c>
-      <c r="AR67" s="42">
+      <c r="AR67" s="49">
         <f>VLOOKUP(R67,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS67" s="24">
+      <c r="AS67" s="49">
         <f>VLOOKUP(R67,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT67" s="24">
+      <c r="AT67" s="49">
         <f>VLOOKUP(R67,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -19952,7 +19929,7 @@
       <c r="CH67" s="24" t="n"/>
       <c r="CI67" s="24" t="n"/>
     </row>
-    <row r="68">
+    <row r="68" hidden="1" s="47">
       <c r="A68" s="24" t="n">
         <v>64</v>
       </c>
@@ -20124,17 +20101,14 @@
       <c r="AQ68" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR68" s="42">
-        <f>VLOOKUP(R68,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS68" s="24">
-        <f>VLOOKUP(R68,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT68" s="24">
-        <f>VLOOKUP(R68,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR68" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT68" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU68" s="24" t="n">
         <v>0</v>
@@ -20226,7 +20200,7 @@
       <c r="CH68" s="24" t="n"/>
       <c r="CI68" s="24" t="n"/>
     </row>
-    <row r="69">
+    <row r="69" hidden="1" s="47">
       <c r="A69" s="24" t="n">
         <v>65</v>
       </c>
@@ -20398,17 +20372,14 @@
       <c r="AQ69" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR69" s="42">
-        <f>VLOOKUP(R69,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS69" s="24">
-        <f>VLOOKUP(R69,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT69" s="24">
-        <f>VLOOKUP(R69,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR69" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT69" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU69" s="24" t="n">
         <v>0</v>
@@ -20500,7 +20471,7 @@
       <c r="CH69" s="24" t="n"/>
       <c r="CI69" s="24" t="n"/>
     </row>
-    <row r="70">
+    <row r="70" hidden="1" s="47">
       <c r="A70" s="24" t="n">
         <v>66</v>
       </c>
@@ -20688,15 +20659,15 @@
       <c r="AQ70" s="42" t="n">
         <v>0.264</v>
       </c>
-      <c r="AR70" s="42">
+      <c r="AR70" s="49">
         <f>VLOOKUP(R70,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS70" s="24">
+      <c r="AS70" s="49">
         <f>VLOOKUP(R70,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT70" s="24">
+      <c r="AT70" s="49">
         <f>VLOOKUP(R70,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -20790,7 +20761,7 @@
       <c r="CH70" s="24" t="n"/>
       <c r="CI70" s="24" t="n"/>
     </row>
-    <row r="71">
+    <row r="71" hidden="1" s="47">
       <c r="A71" s="24" t="n">
         <v>67</v>
       </c>
@@ -20974,17 +20945,14 @@
       <c r="AQ71" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR71" s="42">
-        <f>VLOOKUP(R71,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS71" s="24">
-        <f>VLOOKUP(R71,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT71" s="24">
-        <f>VLOOKUP(R71,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR71" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT71" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU71" s="24" t="n">
         <v>0</v>
@@ -21076,7 +21044,7 @@
       <c r="CH71" s="24" t="n"/>
       <c r="CI71" s="24" t="n"/>
     </row>
-    <row r="72">
+    <row r="72" hidden="1" s="47">
       <c r="A72" s="24" t="n">
         <v>68</v>
       </c>
@@ -21248,17 +21216,14 @@
       <c r="AQ72" s="42" t="n">
         <v>0.144</v>
       </c>
-      <c r="AR72" s="42">
-        <f>VLOOKUP(R72,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS72" s="24">
-        <f>VLOOKUP(R72,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT72" s="24">
-        <f>VLOOKUP(R72,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR72" s="42" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="AS72" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU72" s="24" t="n">
         <v>0</v>
@@ -21350,7 +21315,7 @@
       <c r="CH72" s="24" t="n"/>
       <c r="CI72" s="24" t="n"/>
     </row>
-    <row r="73">
+    <row r="73" hidden="1" s="47">
       <c r="A73" s="24" t="n">
         <v>69</v>
       </c>
@@ -21532,17 +21497,14 @@
       <c r="AQ73" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR73" s="42">
-        <f>VLOOKUP(R73,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS73" s="24">
-        <f>VLOOKUP(R73,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT73" s="24">
-        <f>VLOOKUP(R73,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR73" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT73" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU73" s="24" t="n">
         <v>0</v>
@@ -21634,7 +21596,7 @@
       <c r="CH73" s="24" t="n"/>
       <c r="CI73" s="24" t="n"/>
     </row>
-    <row r="74">
+    <row r="74" hidden="1" s="47">
       <c r="A74" s="24" t="n">
         <v>70</v>
       </c>
@@ -21806,17 +21768,14 @@
       <c r="AQ74" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR74" s="42">
-        <f>VLOOKUP(R74,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS74" s="24">
-        <f>VLOOKUP(R74,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT74" s="24">
-        <f>VLOOKUP(R74,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR74" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT74" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU74" s="24" t="n">
         <v>0</v>
@@ -21908,7 +21867,7 @@
       <c r="CH74" s="24" t="n"/>
       <c r="CI74" s="24" t="n"/>
     </row>
-    <row r="75">
+    <row r="75" hidden="1" s="47">
       <c r="A75" s="24" t="n">
         <v>71</v>
       </c>
@@ -22078,17 +22037,14 @@
       <c r="AQ75" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR75" s="42">
-        <f>VLOOKUP(R75,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS75" s="24">
-        <f>VLOOKUP(R75,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT75" s="24">
-        <f>VLOOKUP(R75,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR75" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT75" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU75" s="24" t="n">
         <v>0</v>
@@ -22180,7 +22136,7 @@
       <c r="CH75" s="24" t="n"/>
       <c r="CI75" s="24" t="n"/>
     </row>
-    <row r="76">
+    <row r="76" hidden="1" s="47">
       <c r="A76" s="24" t="n">
         <v>72</v>
       </c>
@@ -22352,17 +22308,14 @@
       <c r="AQ76" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR76" s="42">
-        <f>VLOOKUP(R76,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS76" s="24">
-        <f>VLOOKUP(R76,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT76" s="24">
-        <f>VLOOKUP(R76,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR76" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS76" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT76" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU76" s="24" t="n">
         <v>0</v>
@@ -22454,7 +22407,7 @@
       <c r="CH76" s="24" t="n"/>
       <c r="CI76" s="24" t="n"/>
     </row>
-    <row r="77" customFormat="1" s="31">
+    <row r="77" hidden="1" customFormat="1" s="31">
       <c r="A77" s="29" t="n">
         <v>73</v>
       </c>
@@ -22642,15 +22595,15 @@
       <c r="AQ77" s="42" t="n">
         <v>0.2664</v>
       </c>
-      <c r="AR77" s="42">
+      <c r="AR77" s="49">
         <f>VLOOKUP(R77,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS77" s="24">
+      <c r="AS77" s="49">
         <f>VLOOKUP(R77,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT77" s="24">
+      <c r="AT77" s="49">
         <f>VLOOKUP(R77,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -22744,7 +22697,7 @@
       <c r="CH77" s="29" t="n"/>
       <c r="CI77" s="29" t="n"/>
     </row>
-    <row r="78">
+    <row r="78" hidden="1" s="47">
       <c r="A78" s="24" t="n">
         <v>74</v>
       </c>
@@ -22928,17 +22881,14 @@
       <c r="AQ78" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR78" s="42">
-        <f>VLOOKUP(R78,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS78" s="24">
-        <f>VLOOKUP(R78,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT78" s="24">
-        <f>VLOOKUP(R78,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR78" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT78" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU78" s="24" t="n">
         <v>0</v>
@@ -23030,7 +22980,7 @@
       <c r="CH78" s="24" t="n"/>
       <c r="CI78" s="24" t="n"/>
     </row>
-    <row r="79">
+    <row r="79" hidden="1" s="47">
       <c r="A79" s="24" t="n">
         <v>75</v>
       </c>
@@ -23202,17 +23152,14 @@
       <c r="AQ79" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR79" s="42">
-        <f>VLOOKUP(R79,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS79" s="24">
-        <f>VLOOKUP(R79,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT79" s="24">
-        <f>VLOOKUP(R79,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR79" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT79" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU79" s="24" t="n">
         <v>0</v>
@@ -23304,7 +23251,7 @@
       <c r="CH79" s="24" t="n"/>
       <c r="CI79" s="24" t="n"/>
     </row>
-    <row r="80">
+    <row r="80" hidden="1" s="47">
       <c r="A80" s="24" t="n">
         <v>76</v>
       </c>
@@ -23476,17 +23423,14 @@
       <c r="AQ80" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR80" s="42">
-        <f>VLOOKUP(R80,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS80" s="24">
-        <f>VLOOKUP(R80,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT80" s="24">
-        <f>VLOOKUP(R80,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR80" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS80" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT80" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU80" s="24" t="n">
         <v>0</v>
@@ -23578,7 +23522,7 @@
       <c r="CH80" s="24" t="n"/>
       <c r="CI80" s="24" t="n"/>
     </row>
-    <row r="81">
+    <row r="81" hidden="1" s="47">
       <c r="A81" s="24" t="n">
         <v>77</v>
       </c>
@@ -23762,17 +23706,14 @@
       <c r="AQ81" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR81" s="42">
-        <f>VLOOKUP(R81,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS81" s="24">
-        <f>VLOOKUP(R81,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT81" s="24">
-        <f>VLOOKUP(R81,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR81" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS81" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT81" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU81" s="24" t="n">
         <v>0</v>
@@ -23864,7 +23805,7 @@
       <c r="CH81" s="24" t="n"/>
       <c r="CI81" s="24" t="n"/>
     </row>
-    <row r="82">
+    <row r="82" hidden="1" s="47">
       <c r="A82" s="24" t="n">
         <v>78</v>
       </c>
@@ -24044,17 +23985,14 @@
       <c r="AQ82" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR82" s="42">
-        <f>VLOOKUP(R82,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS82" s="24">
-        <f>VLOOKUP(R82,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT82" s="24">
-        <f>VLOOKUP(R82,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR82" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT82" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU82" s="24" t="n">
         <v>0</v>
@@ -24146,7 +24084,7 @@
       <c r="CH82" s="24" t="n"/>
       <c r="CI82" s="24" t="n"/>
     </row>
-    <row r="83">
+    <row r="83" hidden="1" s="47">
       <c r="A83" s="24" t="n">
         <v>79</v>
       </c>
@@ -24318,17 +24256,14 @@
       <c r="AQ83" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR83" s="42">
-        <f>VLOOKUP(R83,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS83" s="24">
-        <f>VLOOKUP(R83,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT83" s="24">
-        <f>VLOOKUP(R83,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR83" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS83" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT83" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU83" s="24" t="n">
         <v>0</v>
@@ -24420,7 +24355,7 @@
       <c r="CH83" s="24" t="n"/>
       <c r="CI83" s="24" t="n"/>
     </row>
-    <row r="84">
+    <row r="84" hidden="1" s="47">
       <c r="A84" s="24" t="n">
         <v>80</v>
       </c>
@@ -24590,17 +24525,14 @@
       <c r="AQ84" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR84" s="42">
-        <f>VLOOKUP(R84,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS84" s="24">
-        <f>VLOOKUP(R84,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT84" s="24">
-        <f>VLOOKUP(R84,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR84" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS84" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT84" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU84" s="24" t="n">
         <v>0</v>
@@ -24692,7 +24624,7 @@
       <c r="CH84" s="24" t="n"/>
       <c r="CI84" s="24" t="n"/>
     </row>
-    <row r="85">
+    <row r="85" hidden="1" s="47">
       <c r="A85" s="28" t="n">
         <v>81</v>
       </c>
@@ -24866,15 +24798,15 @@
       <c r="AQ85" s="42" t="n">
         <v>1.3104</v>
       </c>
-      <c r="AR85" s="42">
+      <c r="AR85" s="49">
         <f>VLOOKUP(R85,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS85" s="24">
+      <c r="AS85" s="49">
         <f>VLOOKUP(R85,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT85" s="24">
+      <c r="AT85" s="49">
         <f>VLOOKUP(R85,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -24968,7 +24900,7 @@
       <c r="CH85" s="24" t="n"/>
       <c r="CI85" s="24" t="n"/>
     </row>
-    <row r="86">
+    <row r="86" hidden="1" s="47">
       <c r="A86" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增</t>
@@ -25144,15 +25076,15 @@
       <c r="AQ86" s="42" t="n">
         <v>2.2464</v>
       </c>
-      <c r="AR86" s="42">
+      <c r="AR86" s="49">
         <f>VLOOKUP(R86,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS86" s="24">
+      <c r="AS86" s="49">
         <f>VLOOKUP(R86,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT86" s="24">
+      <c r="AT86" s="49">
         <f>VLOOKUP(R86,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -25246,7 +25178,7 @@
       <c r="CH86" s="24" t="n"/>
       <c r="CI86" s="24" t="n"/>
     </row>
-    <row r="87">
+    <row r="87" hidden="1" s="47">
       <c r="A87" s="24" t="n">
         <v>82</v>
       </c>
@@ -25418,17 +25350,14 @@
       <c r="AQ87" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR87" s="42">
-        <f>VLOOKUP(R87,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS87" s="24">
-        <f>VLOOKUP(R87,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT87" s="24">
-        <f>VLOOKUP(R87,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR87" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS87" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT87" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU87" s="24" t="n">
         <v>0</v>
@@ -25520,7 +25449,7 @@
       <c r="CH87" s="24" t="n"/>
       <c r="CI87" s="24" t="n"/>
     </row>
-    <row r="88">
+    <row r="88" hidden="1" s="47">
       <c r="A88" s="24" t="n">
         <v>83</v>
       </c>
@@ -25692,17 +25621,14 @@
       <c r="AQ88" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR88" s="42">
-        <f>VLOOKUP(R88,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS88" s="24">
-        <f>VLOOKUP(R88,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT88" s="24">
-        <f>VLOOKUP(R88,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR88" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS88" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT88" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU88" s="24" t="n">
         <v>0</v>
@@ -25794,7 +25720,7 @@
       <c r="CH88" s="24" t="n"/>
       <c r="CI88" s="24" t="n"/>
     </row>
-    <row r="89">
+    <row r="89" hidden="1" s="47">
       <c r="A89" s="24" t="n">
         <v>84</v>
       </c>
@@ -25966,17 +25892,14 @@
       <c r="AQ89" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR89" s="42">
-        <f>VLOOKUP(R89,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS89" s="24">
-        <f>VLOOKUP(R89,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT89" s="24">
-        <f>VLOOKUP(R89,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR89" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT89" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU89" s="24" t="n">
         <v>0</v>
@@ -26068,7 +25991,7 @@
       <c r="CH89" s="24" t="n"/>
       <c r="CI89" s="24" t="n"/>
     </row>
-    <row r="90">
+    <row r="90" hidden="1" s="47">
       <c r="A90" s="24" t="n">
         <v>85</v>
       </c>
@@ -26240,17 +26163,14 @@
       <c r="AQ90" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR90" s="42">
-        <f>VLOOKUP(R90,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS90" s="24">
-        <f>VLOOKUP(R90,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT90" s="24">
-        <f>VLOOKUP(R90,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR90" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS90" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT90" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU90" s="24" t="n">
         <v>0</v>
@@ -26342,7 +26262,7 @@
       <c r="CH90" s="24" t="n"/>
       <c r="CI90" s="24" t="n"/>
     </row>
-    <row r="91">
+    <row r="91" hidden="1" s="47">
       <c r="A91" s="24" t="n">
         <v>86</v>
       </c>
@@ -26514,17 +26434,14 @@
       <c r="AQ91" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR91" s="42">
-        <f>VLOOKUP(R91,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS91" s="24">
-        <f>VLOOKUP(R91,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT91" s="24">
-        <f>VLOOKUP(R91,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR91" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS91" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT91" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU91" s="24" t="n">
         <v>0</v>
@@ -26616,7 +26533,7 @@
       <c r="CH91" s="24" t="n"/>
       <c r="CI91" s="24" t="n"/>
     </row>
-    <row r="92">
+    <row r="92" hidden="1" s="47">
       <c r="A92" s="24" t="n">
         <v>87</v>
       </c>
@@ -26788,17 +26705,14 @@
       <c r="AQ92" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR92" s="42">
-        <f>VLOOKUP(R92,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS92" s="24">
-        <f>VLOOKUP(R92,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT92" s="24">
-        <f>VLOOKUP(R92,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR92" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS92" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT92" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU92" s="24" t="n">
         <v>0</v>
@@ -26890,7 +26804,7 @@
       <c r="CH92" s="24" t="n"/>
       <c r="CI92" s="24" t="n"/>
     </row>
-    <row r="93">
+    <row r="93" hidden="1" s="47">
       <c r="A93" s="24" t="n">
         <v>88</v>
       </c>
@@ -27062,17 +26976,14 @@
       <c r="AQ93" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR93" s="42">
-        <f>VLOOKUP(R93,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS93" s="24">
-        <f>VLOOKUP(R93,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT93" s="24">
-        <f>VLOOKUP(R93,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR93" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS93" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT93" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU93" s="24" t="n">
         <v>0</v>
@@ -27164,7 +27075,7 @@
       <c r="CH93" s="24" t="n"/>
       <c r="CI93" s="24" t="n"/>
     </row>
-    <row r="94">
+    <row r="94" hidden="1" s="47">
       <c r="A94" s="24" t="n">
         <v>89</v>
       </c>
@@ -27340,17 +27251,14 @@
       <c r="AQ94" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR94" s="42">
-        <f>VLOOKUP(R94,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS94" s="24">
-        <f>VLOOKUP(R94,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT94" s="24">
-        <f>VLOOKUP(R94,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR94" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS94" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT94" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU94" s="24" t="n">
         <v>0</v>
@@ -27442,7 +27350,7 @@
       <c r="CH94" s="24" t="n"/>
       <c r="CI94" s="24" t="n"/>
     </row>
-    <row r="95">
+    <row r="95" hidden="1" s="47">
       <c r="A95" s="24" t="n">
         <v>90</v>
       </c>
@@ -27626,17 +27534,14 @@
       <c r="AQ95" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR95" s="42">
-        <f>VLOOKUP(R95,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS95" s="24">
-        <f>VLOOKUP(R95,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT95" s="24">
-        <f>VLOOKUP(R95,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR95" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS95" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT95" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU95" s="24" t="n">
         <v>0</v>
@@ -27728,7 +27633,7 @@
       <c r="CH95" s="24" t="n"/>
       <c r="CI95" s="24" t="n"/>
     </row>
-    <row r="96">
+    <row r="96" hidden="1" s="47">
       <c r="A96" s="24" t="n">
         <v>91</v>
       </c>
@@ -27900,17 +27805,14 @@
       <c r="AQ96" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR96" s="42">
-        <f>VLOOKUP(R96,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS96" s="24">
-        <f>VLOOKUP(R96,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT96" s="24">
-        <f>VLOOKUP(R96,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR96" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS96" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT96" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU96" s="24" t="n">
         <v>0</v>
@@ -28002,7 +27904,7 @@
       <c r="CH96" s="24" t="n"/>
       <c r="CI96" s="24" t="n"/>
     </row>
-    <row r="97">
+    <row r="97" hidden="1" s="47">
       <c r="A97" s="24" t="n">
         <v>92</v>
       </c>
@@ -28172,17 +28074,14 @@
       <c r="AQ97" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR97" s="42">
-        <f>VLOOKUP(R97,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS97" s="24">
-        <f>VLOOKUP(R97,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT97" s="24">
-        <f>VLOOKUP(R97,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR97" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS97" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT97" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU97" s="24" t="n">
         <v>0</v>
@@ -28274,7 +28173,7 @@
       <c r="CH97" s="24" t="n"/>
       <c r="CI97" s="24" t="n"/>
     </row>
-    <row r="98">
+    <row r="98" hidden="1" s="47">
       <c r="A98" s="24" t="n">
         <v>93</v>
       </c>
@@ -28448,15 +28347,15 @@
       <c r="AQ98" s="42" t="n">
         <v>0.6552</v>
       </c>
-      <c r="AR98" s="42">
+      <c r="AR98" s="49">
         <f>VLOOKUP(R98,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS98" s="24">
+      <c r="AS98" s="49">
         <f>VLOOKUP(R98,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT98" s="24">
+      <c r="AT98" s="49">
         <f>VLOOKUP(R98,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -28550,7 +28449,7 @@
       <c r="CH98" s="24" t="n"/>
       <c r="CI98" s="24" t="n"/>
     </row>
-    <row r="99">
+    <row r="99" hidden="1" s="47">
       <c r="A99" s="24" t="n">
         <v>94</v>
       </c>
@@ -28722,17 +28621,14 @@
       <c r="AQ99" s="42" t="n">
         <v>2.1528</v>
       </c>
-      <c r="AR99" s="42">
-        <f>VLOOKUP(R99,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS99" s="24">
-        <f>VLOOKUP(R99,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT99" s="24">
-        <f>VLOOKUP(R99,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR99" s="42" t="n">
+        <v>2.2464</v>
+      </c>
+      <c r="AS99" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT99" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU99" s="24" t="n">
         <v>0</v>
@@ -28824,7 +28720,7 @@
       <c r="CH99" s="24" t="n"/>
       <c r="CI99" s="24" t="n"/>
     </row>
-    <row r="100">
+    <row r="100" hidden="1" s="47">
       <c r="A100" s="24" t="n">
         <v>95</v>
       </c>
@@ -28996,17 +28892,14 @@
       <c r="AQ100" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR100" s="42">
-        <f>VLOOKUP(R100,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS100" s="24">
-        <f>VLOOKUP(R100,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT100" s="24">
-        <f>VLOOKUP(R100,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR100" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS100" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT100" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU100" s="24" t="n">
         <v>0</v>
@@ -29098,7 +28991,7 @@
       <c r="CH100" s="24" t="n"/>
       <c r="CI100" s="24" t="n"/>
     </row>
-    <row r="101">
+    <row r="101" hidden="1" s="47">
       <c r="A101" s="24" t="n">
         <v>96</v>
       </c>
@@ -29270,17 +29163,14 @@
       <c r="AQ101" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR101" s="42">
-        <f>VLOOKUP(R101,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS101" s="24">
-        <f>VLOOKUP(R101,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT101" s="24">
-        <f>VLOOKUP(R101,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR101" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS101" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT101" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU101" s="24" t="n">
         <v>0</v>
@@ -29372,7 +29262,7 @@
       <c r="CH101" s="24" t="n"/>
       <c r="CI101" s="24" t="n"/>
     </row>
-    <row r="102">
+    <row r="102" hidden="1" s="47">
       <c r="A102" s="24" t="n">
         <v>97</v>
       </c>
@@ -29540,17 +29430,14 @@
       <c r="AQ102" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR102" s="42">
-        <f>VLOOKUP(R102,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS102" s="24">
-        <f>VLOOKUP(R102,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT102" s="24">
-        <f>VLOOKUP(R102,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR102" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS102" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT102" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU102" s="24" t="n">
         <v>0</v>
@@ -29642,7 +29529,7 @@
       <c r="CH102" s="24" t="n"/>
       <c r="CI102" s="24" t="n"/>
     </row>
-    <row r="103">
+    <row r="103" hidden="1" s="47">
       <c r="A103" s="24" t="n">
         <v>98</v>
       </c>
@@ -29812,17 +29699,14 @@
       <c r="AQ103" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR103" s="42">
-        <f>VLOOKUP(R103,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS103" s="24">
-        <f>VLOOKUP(R103,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT103" s="24">
-        <f>VLOOKUP(R103,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR103" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS103" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT103" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU103" s="24" t="n">
         <v>0</v>
@@ -29914,7 +29798,7 @@
       <c r="CH103" s="24" t="n"/>
       <c r="CI103" s="24" t="n"/>
     </row>
-    <row r="104" customFormat="1" s="38">
+    <row r="104" hidden="1" customFormat="1" s="38">
       <c r="A104" s="36" t="n">
         <v>99</v>
       </c>
@@ -30100,15 +29984,15 @@
       <c r="AQ104" s="42" t="n">
         <v>1.652</v>
       </c>
-      <c r="AR104" s="42">
+      <c r="AR104" s="49">
         <f>VLOOKUP(R104,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS104" s="24">
+      <c r="AS104" s="49">
         <f>VLOOKUP(R104,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT104" s="24">
+      <c r="AT104" s="49">
         <f>VLOOKUP(R104,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -30202,7 +30086,7 @@
       <c r="CH104" s="36" t="n"/>
       <c r="CI104" s="36" t="n"/>
     </row>
-    <row r="105">
+    <row r="105" hidden="1" s="47">
       <c r="A105" s="24" t="n">
         <v>100</v>
       </c>
@@ -30372,17 +30256,14 @@
       <c r="AQ105" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR105" s="42">
-        <f>VLOOKUP(R105,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS105" s="24">
-        <f>VLOOKUP(R105,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT105" s="24">
-        <f>VLOOKUP(R105,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR105" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS105" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT105" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU105" s="24" t="n">
         <v>0</v>
@@ -30474,7 +30355,7 @@
       <c r="CH105" s="24" t="n"/>
       <c r="CI105" s="24" t="n"/>
     </row>
-    <row r="106">
+    <row r="106" hidden="1" s="47">
       <c r="A106" s="24" t="n">
         <v>101</v>
       </c>
@@ -30646,17 +30527,14 @@
       <c r="AQ106" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR106" s="42">
-        <f>VLOOKUP(R106,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS106" s="24">
-        <f>VLOOKUP(R106,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT106" s="24">
-        <f>VLOOKUP(R106,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR106" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS106" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT106" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU106" s="24" t="n">
         <v>0</v>
@@ -30748,7 +30626,7 @@
       <c r="CH106" s="24" t="n"/>
       <c r="CI106" s="24" t="n"/>
     </row>
-    <row r="107">
+    <row r="107" hidden="1" s="47">
       <c r="A107" s="24" t="n">
         <v>102</v>
       </c>
@@ -30918,17 +30796,14 @@
       <c r="AQ107" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR107" s="42">
-        <f>VLOOKUP(R107,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS107" s="24">
-        <f>VLOOKUP(R107,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT107" s="24">
-        <f>VLOOKUP(R107,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR107" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS107" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT107" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU107" s="24" t="n">
         <v>0</v>
@@ -31020,7 +30895,7 @@
       <c r="CH107" s="24" t="n"/>
       <c r="CI107" s="24" t="n"/>
     </row>
-    <row r="108">
+    <row r="108" hidden="1" s="47">
       <c r="A108" s="24" t="n">
         <v>103</v>
       </c>
@@ -31202,17 +31077,14 @@
       <c r="AQ108" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR108" s="42">
-        <f>VLOOKUP(R108,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS108" s="24">
-        <f>VLOOKUP(R108,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT108" s="24">
-        <f>VLOOKUP(R108,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR108" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS108" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT108" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU108" s="24" t="n">
         <v>0</v>
@@ -31304,7 +31176,7 @@
       <c r="CH108" s="24" t="n"/>
       <c r="CI108" s="24" t="n"/>
     </row>
-    <row r="109">
+    <row r="109" hidden="1" s="47">
       <c r="A109" s="28" t="n">
         <v>104</v>
       </c>
@@ -31488,15 +31360,15 @@
       <c r="AQ109" s="42" t="n">
         <v>8</v>
       </c>
-      <c r="AR109" s="42">
+      <c r="AR109" s="49">
         <f>VLOOKUP(R109,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS109" s="24">
+      <c r="AS109" s="49">
         <f>VLOOKUP(R109,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT109" s="24">
+      <c r="AT109" s="49">
         <f>VLOOKUP(R109,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -31590,7 +31462,7 @@
       <c r="CH109" s="24" t="n"/>
       <c r="CI109" s="24" t="n"/>
     </row>
-    <row r="110">
+    <row r="110" hidden="1" s="47">
       <c r="A110" s="24" t="n">
         <v>105</v>
       </c>
@@ -31760,17 +31632,14 @@
       <c r="AQ110" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR110" s="42">
-        <f>VLOOKUP(R110,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS110" s="24">
-        <f>VLOOKUP(R110,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT110" s="24">
-        <f>VLOOKUP(R110,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR110" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS110" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT110" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU110" s="24" t="n">
         <v>0</v>
@@ -31862,7 +31731,7 @@
       <c r="CH110" s="24" t="n"/>
       <c r="CI110" s="24" t="n"/>
     </row>
-    <row r="111">
+    <row r="111" hidden="1" s="47">
       <c r="A111" s="24" t="n">
         <v>106</v>
       </c>
@@ -32032,17 +31901,14 @@
       <c r="AQ111" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR111" s="42">
-        <f>VLOOKUP(R111,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS111" s="24">
-        <f>VLOOKUP(R111,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT111" s="24">
-        <f>VLOOKUP(R111,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR111" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS111" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT111" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU111" s="24" t="n">
         <v>0</v>
@@ -32134,7 +32000,7 @@
       <c r="CH111" s="24" t="n"/>
       <c r="CI111" s="24" t="n"/>
     </row>
-    <row r="112" customFormat="1" s="38">
+    <row r="112" hidden="1" customFormat="1" s="38">
       <c r="A112" s="36" t="n">
         <v>107</v>
       </c>
@@ -32316,17 +32182,14 @@
       <c r="AQ112" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR112" s="42">
-        <f>VLOOKUP(R112,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS112" s="24">
-        <f>VLOOKUP(R112,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT112" s="24">
-        <f>VLOOKUP(R112,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR112" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS112" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT112" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU112" s="24" t="n">
         <v>0</v>
@@ -32418,7 +32281,7 @@
       <c r="CH112" s="36" t="n"/>
       <c r="CI112" s="36" t="n"/>
     </row>
-    <row r="113">
+    <row r="113" hidden="1" s="47">
       <c r="A113" s="24" t="n">
         <v>108</v>
       </c>
@@ -32588,17 +32451,14 @@
       <c r="AQ113" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR113" s="42">
-        <f>VLOOKUP(R113,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS113" s="24">
-        <f>VLOOKUP(R113,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT113" s="24">
-        <f>VLOOKUP(R113,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR113" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS113" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT113" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU113" s="24" t="n">
         <v>0</v>
@@ -32690,7 +32550,7 @@
       <c r="CH113" s="24" t="n"/>
       <c r="CI113" s="24" t="n"/>
     </row>
-    <row r="114">
+    <row r="114" hidden="1" s="47">
       <c r="A114" s="24" t="n">
         <v>109</v>
       </c>
@@ -32862,17 +32722,14 @@
       <c r="AQ114" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR114" s="42">
-        <f>VLOOKUP(R114,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS114" s="24">
-        <f>VLOOKUP(R114,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT114" s="24">
-        <f>VLOOKUP(R114,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR114" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS114" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT114" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU114" s="24" t="n">
         <v>0</v>
@@ -32964,7 +32821,7 @@
       <c r="CH114" s="24" t="n"/>
       <c r="CI114" s="24" t="n"/>
     </row>
-    <row r="115" customFormat="1" s="38">
+    <row r="115" hidden="1" customFormat="1" s="38">
       <c r="A115" s="36" t="n">
         <v>110</v>
       </c>
@@ -33134,17 +32991,14 @@
       <c r="AQ115" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR115" s="42">
-        <f>VLOOKUP(R115,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS115" s="24">
-        <f>VLOOKUP(R115,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT115" s="24">
-        <f>VLOOKUP(R115,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR115" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS115" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT115" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU115" s="24" t="n">
         <v>0</v>
@@ -33236,7 +33090,7 @@
       <c r="CH115" s="36" t="n"/>
       <c r="CI115" s="36" t="n"/>
     </row>
-    <row r="116">
+    <row r="116" hidden="1" s="47">
       <c r="A116" s="24" t="n">
         <v>111</v>
       </c>
@@ -33406,17 +33260,14 @@
       <c r="AQ116" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR116" s="42">
-        <f>VLOOKUP(R116,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS116" s="24">
-        <f>VLOOKUP(R116,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT116" s="24">
-        <f>VLOOKUP(R116,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR116" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS116" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT116" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU116" s="24" t="n">
         <v>0</v>
@@ -33508,7 +33359,7 @@
       <c r="CH116" s="24" t="n"/>
       <c r="CI116" s="24" t="n"/>
     </row>
-    <row r="117" customFormat="1" s="38">
+    <row r="117" hidden="1" customFormat="1" s="38">
       <c r="A117" s="36" t="n">
         <v>112</v>
       </c>
@@ -33690,17 +33541,14 @@
       <c r="AQ117" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR117" s="42">
-        <f>VLOOKUP(R117,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS117" s="24">
-        <f>VLOOKUP(R117,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT117" s="24">
-        <f>VLOOKUP(R117,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR117" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS117" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT117" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU117" s="24" t="n">
         <v>0</v>
@@ -33792,7 +33640,7 @@
       <c r="CH117" s="36" t="n"/>
       <c r="CI117" s="36" t="n"/>
     </row>
-    <row r="118">
+    <row r="118" hidden="1" s="47">
       <c r="A118" s="24" t="n">
         <v>113</v>
       </c>
@@ -33964,17 +33812,14 @@
       <c r="AQ118" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR118" s="42">
-        <f>VLOOKUP(R118,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS118" s="24">
-        <f>VLOOKUP(R118,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT118" s="24">
-        <f>VLOOKUP(R118,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR118" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS118" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT118" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU118" s="24" t="n">
         <v>0</v>
@@ -34066,7 +33911,7 @@
       <c r="CH118" s="24" t="n"/>
       <c r="CI118" s="24" t="n"/>
     </row>
-    <row r="119">
+    <row r="119" hidden="1" s="47">
       <c r="A119" s="24" t="n">
         <v>114</v>
       </c>
@@ -34238,17 +34083,14 @@
       <c r="AQ119" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR119" s="42">
-        <f>VLOOKUP(R119,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS119" s="24">
-        <f>VLOOKUP(R119,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT119" s="24">
-        <f>VLOOKUP(R119,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR119" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS119" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT119" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU119" s="24" t="n">
         <v>0</v>
@@ -34340,7 +34182,7 @@
       <c r="CH119" s="24" t="n"/>
       <c r="CI119" s="24" t="n"/>
     </row>
-    <row r="120">
+    <row r="120" hidden="1" s="47">
       <c r="A120" s="24" t="n">
         <v>115</v>
       </c>
@@ -34512,17 +34354,14 @@
       <c r="AQ120" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR120" s="42">
-        <f>VLOOKUP(R120,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS120" s="24">
-        <f>VLOOKUP(R120,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT120" s="24">
-        <f>VLOOKUP(R120,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR120" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS120" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT120" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU120" s="24" t="n">
         <v>0</v>
@@ -34614,7 +34453,7 @@
       <c r="CH120" s="24" t="n"/>
       <c r="CI120" s="24" t="n"/>
     </row>
-    <row r="121">
+    <row r="121" hidden="1" s="47">
       <c r="A121" s="24" t="n">
         <v>116</v>
       </c>
@@ -34784,17 +34623,14 @@
       <c r="AQ121" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR121" s="42">
-        <f>VLOOKUP(R121,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS121" s="24">
-        <f>VLOOKUP(R121,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT121" s="24">
-        <f>VLOOKUP(R121,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR121" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS121" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT121" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU121" s="24" t="n">
         <v>0</v>
@@ -34886,7 +34722,7 @@
       <c r="CH121" s="24" t="n"/>
       <c r="CI121" s="24" t="n"/>
     </row>
-    <row r="122">
+    <row r="122" hidden="1" s="47">
       <c r="A122" s="24" t="n">
         <v>117</v>
       </c>
@@ -35058,17 +34894,14 @@
       <c r="AQ122" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR122" s="42">
-        <f>VLOOKUP(R122,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS122" s="24">
-        <f>VLOOKUP(R122,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT122" s="24">
-        <f>VLOOKUP(R122,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR122" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS122" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT122" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU122" s="24" t="n">
         <v>0</v>
@@ -35160,7 +34993,7 @@
       <c r="CH122" s="24" t="n"/>
       <c r="CI122" s="24" t="n"/>
     </row>
-    <row r="123">
+    <row r="123" hidden="1" s="47">
       <c r="A123" s="24" t="n">
         <v>118</v>
       </c>
@@ -35332,17 +35165,14 @@
       <c r="AQ123" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR123" s="42">
-        <f>VLOOKUP(R123,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS123" s="24">
-        <f>VLOOKUP(R123,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT123" s="24">
-        <f>VLOOKUP(R123,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR123" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS123" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT123" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU123" s="24" t="n">
         <v>0</v>
@@ -35434,7 +35264,7 @@
       <c r="CH123" s="24" t="n"/>
       <c r="CI123" s="24" t="n"/>
     </row>
-    <row r="124">
+    <row r="124" hidden="1" s="47">
       <c r="A124" s="24" t="n">
         <v>119</v>
       </c>
@@ -35604,17 +35434,14 @@
       <c r="AQ124" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR124" s="42">
-        <f>VLOOKUP(R124,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS124" s="24">
-        <f>VLOOKUP(R124,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT124" s="24">
-        <f>VLOOKUP(R124,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR124" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS124" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT124" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU124" s="24" t="n">
         <v>0</v>
@@ -35706,7 +35533,7 @@
       <c r="CH124" s="24" t="n"/>
       <c r="CI124" s="24" t="n"/>
     </row>
-    <row r="125" customFormat="1" s="38">
+    <row r="125" hidden="1" customFormat="1" s="38">
       <c r="A125" s="36" t="n">
         <v>120</v>
       </c>
@@ -35880,17 +35707,15 @@
       <c r="AQ125" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR125" s="42">
+      <c r="AR125" s="49">
         <f>VLOOKUP(R125,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS125" s="24">
-        <f>VLOOKUP(R125,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT125" s="24">
-        <f>VLOOKUP(R125,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AS125" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT125" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU125" s="24" t="n">
         <v>1.6</v>
@@ -35982,7 +35807,7 @@
       <c r="CH125" s="36" t="n"/>
       <c r="CI125" s="36" t="n"/>
     </row>
-    <row r="126" customFormat="1" s="38">
+    <row r="126" hidden="1" customFormat="1" s="38">
       <c r="A126" s="36" t="n">
         <v>121</v>
       </c>
@@ -36152,15 +35977,14 @@
       <c r="AQ126" s="42" t="n">
         <v>0.9408</v>
       </c>
-      <c r="AR126" s="42">
-        <f>VLOOKUP(R126,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS126" s="24">
+      <c r="AR126" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS126" s="49">
         <f>VLOOKUP(R126,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT126" s="24">
+      <c r="AT126" s="49">
         <f>VLOOKUP(R126,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -36254,7 +36078,7 @@
       <c r="CH126" s="36" t="n"/>
       <c r="CI126" s="36" t="n"/>
     </row>
-    <row r="127">
+    <row r="127" hidden="1" s="47">
       <c r="A127" s="24" t="n">
         <v>122</v>
       </c>
@@ -36424,17 +36248,14 @@
       <c r="AQ127" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR127" s="42">
-        <f>VLOOKUP(R127,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS127" s="24">
-        <f>VLOOKUP(R127,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT127" s="24">
-        <f>VLOOKUP(R127,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR127" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS127" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT127" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU127" s="24" t="n">
         <v>0</v>
@@ -36526,7 +36347,7 @@
       <c r="CH127" s="24" t="n"/>
       <c r="CI127" s="24" t="n"/>
     </row>
-    <row r="128">
+    <row r="128" hidden="1" s="47">
       <c r="A128" s="24" t="n">
         <v>123</v>
       </c>
@@ -36696,17 +36517,14 @@
       <c r="AQ128" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR128" s="42">
-        <f>VLOOKUP(R128,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS128" s="24">
-        <f>VLOOKUP(R128,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT128" s="24">
-        <f>VLOOKUP(R128,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR128" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS128" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT128" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU128" s="24" t="n">
         <v>0</v>
@@ -36798,7 +36616,7 @@
       <c r="CH128" s="24" t="n"/>
       <c r="CI128" s="24" t="n"/>
     </row>
-    <row r="129">
+    <row r="129" hidden="1" s="47">
       <c r="A129" s="24" t="n">
         <v>124</v>
       </c>
@@ -36966,17 +36784,14 @@
       <c r="AQ129" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR129" s="42">
-        <f>VLOOKUP(R129,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS129" s="24">
-        <f>VLOOKUP(R129,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT129" s="24">
-        <f>VLOOKUP(R129,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR129" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS129" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT129" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU129" s="24" t="n">
         <v>0</v>
@@ -37068,7 +36883,7 @@
       <c r="CH129" s="24" t="n"/>
       <c r="CI129" s="24" t="n"/>
     </row>
-    <row r="130" customFormat="1" s="38">
+    <row r="130" hidden="1" customFormat="1" s="38">
       <c r="A130" s="36" t="n">
         <v>125</v>
       </c>
@@ -37238,17 +37053,14 @@
       <c r="AQ130" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR130" s="42">
-        <f>VLOOKUP(R130,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS130" s="24">
-        <f>VLOOKUP(R130,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT130" s="24">
-        <f>VLOOKUP(R130,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR130" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS130" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT130" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU130" s="24" t="n">
         <v>0</v>
@@ -37340,7 +37152,7 @@
       <c r="CH130" s="36" t="n"/>
       <c r="CI130" s="36" t="n"/>
     </row>
-    <row r="131">
+    <row r="131" hidden="1" s="47">
       <c r="A131" s="24" t="n">
         <v>126</v>
       </c>
@@ -37514,15 +37326,15 @@
       <c r="AQ131" s="42" t="n">
         <v>1.16</v>
       </c>
-      <c r="AR131" s="42">
+      <c r="AR131" s="49">
         <f>VLOOKUP(R131,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS131" s="24">
+      <c r="AS131" s="49">
         <f>VLOOKUP(R131,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT131" s="24">
+      <c r="AT131" s="49">
         <f>VLOOKUP(R131,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -37616,7 +37428,7 @@
       <c r="CH131" s="24" t="n"/>
       <c r="CI131" s="24" t="n"/>
     </row>
-    <row r="132">
+    <row r="132" hidden="1" s="47">
       <c r="A132" s="24" t="n">
         <v>127</v>
       </c>
@@ -37786,17 +37598,14 @@
       <c r="AQ132" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR132" s="42">
-        <f>VLOOKUP(R132,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS132" s="24">
-        <f>VLOOKUP(R132,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT132" s="24">
-        <f>VLOOKUP(R132,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR132" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS132" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT132" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU132" s="24" t="n">
         <v>0</v>
@@ -37888,7 +37697,7 @@
       <c r="CH132" s="24" t="n"/>
       <c r="CI132" s="24" t="n"/>
     </row>
-    <row r="133">
+    <row r="133" hidden="1" s="47">
       <c r="A133" s="24" t="n">
         <v>128</v>
       </c>
@@ -38058,17 +37867,14 @@
       <c r="AQ133" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR133" s="42">
-        <f>VLOOKUP(R133,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS133" s="24">
-        <f>VLOOKUP(R133,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT133" s="24">
-        <f>VLOOKUP(R133,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR133" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS133" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT133" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU133" s="24" t="n">
         <v>0</v>
@@ -38160,7 +37966,7 @@
       <c r="CH133" s="24" t="n"/>
       <c r="CI133" s="24" t="n"/>
     </row>
-    <row r="134">
+    <row r="134" hidden="1" s="47">
       <c r="A134" s="24" t="n">
         <v>129</v>
       </c>
@@ -38330,17 +38136,14 @@
       <c r="AQ134" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR134" s="42">
-        <f>VLOOKUP(R134,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS134" s="24">
-        <f>VLOOKUP(R134,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT134" s="24">
-        <f>VLOOKUP(R134,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR134" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS134" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT134" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU134" s="24" t="n">
         <v>0</v>
@@ -38432,7 +38235,7 @@
       <c r="CH134" s="24" t="n"/>
       <c r="CI134" s="24" t="n"/>
     </row>
-    <row r="135">
+    <row r="135" hidden="1" s="47">
       <c r="A135" s="24" t="n">
         <v>130</v>
       </c>
@@ -38602,17 +38405,14 @@
       <c r="AQ135" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR135" s="42">
-        <f>VLOOKUP(R135,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS135" s="24">
-        <f>VLOOKUP(R135,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT135" s="24">
-        <f>VLOOKUP(R135,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR135" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS135" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT135" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU135" s="24" t="n">
         <v>0</v>
@@ -38704,7 +38504,7 @@
       <c r="CH135" s="24" t="n"/>
       <c r="CI135" s="24" t="n"/>
     </row>
-    <row r="136">
+    <row r="136" hidden="1" s="47">
       <c r="A136" s="24" t="n">
         <v>131</v>
       </c>
@@ -38872,17 +38672,14 @@
       <c r="AQ136" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR136" s="42">
-        <f>VLOOKUP(R136,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS136" s="24">
-        <f>VLOOKUP(R136,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT136" s="24">
-        <f>VLOOKUP(R136,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR136" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS136" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT136" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU136" s="24" t="n">
         <v>0</v>
@@ -38974,7 +38771,7 @@
       <c r="CH136" s="24" t="n"/>
       <c r="CI136" s="24" t="n"/>
     </row>
-    <row r="137">
+    <row r="137" hidden="1" s="47">
       <c r="A137" s="24" t="n">
         <v>132</v>
       </c>
@@ -39152,15 +38949,15 @@
       <c r="AQ137" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="AR137" s="42">
+      <c r="AR137" s="49">
         <f>VLOOKUP(R137,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS137" s="24">
+      <c r="AS137" s="49">
         <f>VLOOKUP(R137,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT137" s="24">
+      <c r="AT137" s="49">
         <f>VLOOKUP(R137,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -39254,7 +39051,7 @@
       <c r="CH137" s="24" t="n"/>
       <c r="CI137" s="24" t="n"/>
     </row>
-    <row r="138">
+    <row r="138" hidden="1" s="47">
       <c r="A138" s="24" t="n">
         <v>133</v>
       </c>
@@ -39428,17 +39225,14 @@
       <c r="AQ138" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR138" s="42">
-        <f>VLOOKUP(R138,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS138" s="24">
-        <f>VLOOKUP(R138,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT138" s="24">
-        <f>VLOOKUP(R138,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR138" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS138" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT138" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU138" s="24" t="n">
         <v>0</v>
@@ -39530,7 +39324,7 @@
       <c r="CH138" s="24" t="n"/>
       <c r="CI138" s="24" t="n"/>
     </row>
-    <row r="139">
+    <row r="139" hidden="1" s="47">
       <c r="A139" s="24" t="n">
         <v>134</v>
       </c>
@@ -39700,17 +39494,14 @@
       <c r="AQ139" s="42" t="n">
         <v>0.24</v>
       </c>
-      <c r="AR139" s="42">
-        <f>VLOOKUP(R139,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS139" s="24">
-        <f>VLOOKUP(R139,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT139" s="24">
-        <f>VLOOKUP(R139,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR139" s="42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AS139" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT139" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU139" s="24" t="n">
         <v>0</v>
@@ -39802,7 +39593,7 @@
       <c r="CH139" s="24" t="n"/>
       <c r="CI139" s="24" t="n"/>
     </row>
-    <row r="140">
+    <row r="140" hidden="1" s="47">
       <c r="A140" s="24" t="n">
         <v>135</v>
       </c>
@@ -39972,17 +39763,14 @@
       <c r="AQ140" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR140" s="42">
-        <f>VLOOKUP(R140,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS140" s="24">
-        <f>VLOOKUP(R140,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT140" s="24">
-        <f>VLOOKUP(R140,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR140" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS140" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT140" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU140" s="24" t="n">
         <v>0</v>
@@ -40074,7 +39862,7 @@
       <c r="CH140" s="24" t="n"/>
       <c r="CI140" s="24" t="n"/>
     </row>
-    <row r="141">
+    <row r="141" hidden="1" s="47">
       <c r="A141" s="24" t="n">
         <v>136</v>
       </c>
@@ -40248,17 +40036,14 @@
       <c r="AQ141" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR141" s="42">
-        <f>VLOOKUP(R141,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS141" s="24">
-        <f>VLOOKUP(R141,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT141" s="24">
-        <f>VLOOKUP(R141,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR141" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS141" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT141" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU141" s="24" t="n">
         <v>0</v>
@@ -40350,7 +40135,7 @@
       <c r="CH141" s="24" t="n"/>
       <c r="CI141" s="24" t="n"/>
     </row>
-    <row r="142">
+    <row r="142" hidden="1" s="47">
       <c r="A142" s="24" t="n">
         <v>137</v>
       </c>
@@ -40520,17 +40305,14 @@
       <c r="AQ142" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR142" s="42">
-        <f>VLOOKUP(R142,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS142" s="24">
-        <f>VLOOKUP(R142,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT142" s="24">
-        <f>VLOOKUP(R142,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR142" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS142" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT142" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU142" s="24" t="n">
         <v>0</v>
@@ -40622,7 +40404,7 @@
       <c r="CH142" s="24" t="n"/>
       <c r="CI142" s="24" t="n"/>
     </row>
-    <row r="143">
+    <row r="143" hidden="1" s="47">
       <c r="A143" s="24" t="n">
         <v>138</v>
       </c>
@@ -40796,17 +40578,14 @@
       <c r="AQ143" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR143" s="42">
-        <f>VLOOKUP(R143,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS143" s="24">
-        <f>VLOOKUP(R143,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT143" s="24">
-        <f>VLOOKUP(R143,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR143" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS143" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT143" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU143" s="24" t="n">
         <v>0</v>
@@ -40898,7 +40677,7 @@
       <c r="CH143" s="24" t="n"/>
       <c r="CI143" s="24" t="n"/>
     </row>
-    <row r="144">
+    <row r="144" hidden="1" s="47">
       <c r="A144" s="24" t="n">
         <v>139</v>
       </c>
@@ -41068,17 +40847,14 @@
       <c r="AQ144" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR144" s="42">
-        <f>VLOOKUP(R144,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS144" s="24">
-        <f>VLOOKUP(R144,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT144" s="24">
-        <f>VLOOKUP(R144,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR144" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS144" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT144" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU144" s="24" t="n">
         <v>0</v>
@@ -41170,7 +40946,7 @@
       <c r="CH144" s="24" t="n"/>
       <c r="CI144" s="24" t="n"/>
     </row>
-    <row r="145" customFormat="1" s="38">
+    <row r="145" hidden="1" customFormat="1" s="38">
       <c r="A145" s="36" t="n">
         <v>140</v>
       </c>
@@ -41340,15 +41116,15 @@
       <c r="AQ145" s="42" t="n">
         <v>8.064</v>
       </c>
-      <c r="AR145" s="42">
+      <c r="AR145" s="49">
         <f>VLOOKUP(R145,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS145" s="24">
+      <c r="AS145" s="49">
         <f>VLOOKUP(R145,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT145" s="24">
+      <c r="AT145" s="49">
         <f>VLOOKUP(R145,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -41442,7 +41218,7 @@
       <c r="CH145" s="36" t="n"/>
       <c r="CI145" s="36" t="n"/>
     </row>
-    <row r="146">
+    <row r="146" hidden="1" s="47">
       <c r="A146" s="24" t="n">
         <v>141</v>
       </c>
@@ -41612,17 +41388,14 @@
       <c r="AQ146" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR146" s="42">
-        <f>VLOOKUP(R146,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS146" s="24">
-        <f>VLOOKUP(R146,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT146" s="24">
-        <f>VLOOKUP(R146,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR146" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS146" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT146" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU146" s="24" t="n">
         <v>0</v>
@@ -41714,7 +41487,7 @@
       <c r="CH146" s="24" t="n"/>
       <c r="CI146" s="24" t="n"/>
     </row>
-    <row r="147">
+    <row r="147" hidden="1" s="47">
       <c r="A147" s="24" t="n">
         <v>142</v>
       </c>
@@ -41892,15 +41665,15 @@
       <c r="AQ147" s="42" t="n">
         <v>0.024</v>
       </c>
-      <c r="AR147" s="42">
+      <c r="AR147" s="49">
         <f>VLOOKUP(R147,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS147" s="24">
+      <c r="AS147" s="49">
         <f>VLOOKUP(R147,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT147" s="24">
+      <c r="AT147" s="49">
         <f>VLOOKUP(R147,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -41994,7 +41767,7 @@
       <c r="CH147" s="24" t="n"/>
       <c r="CI147" s="24" t="n"/>
     </row>
-    <row r="148">
+    <row r="148" hidden="1" s="47">
       <c r="A148" s="24" t="n">
         <v>143</v>
       </c>
@@ -42164,17 +41937,14 @@
       <c r="AQ148" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR148" s="42">
-        <f>VLOOKUP(R148,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS148" s="24">
-        <f>VLOOKUP(R148,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT148" s="24">
-        <f>VLOOKUP(R148,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR148" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS148" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT148" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU148" s="24" t="n">
         <v>0</v>
@@ -42266,7 +42036,7 @@
       <c r="CH148" s="24" t="n"/>
       <c r="CI148" s="24" t="n"/>
     </row>
-    <row r="149">
+    <row r="149" hidden="1" s="47">
       <c r="A149" s="24" t="n">
         <v>144</v>
       </c>
@@ -42436,17 +42206,14 @@
       <c r="AQ149" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR149" s="42">
-        <f>VLOOKUP(R149,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS149" s="24">
-        <f>VLOOKUP(R149,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT149" s="24">
-        <f>VLOOKUP(R149,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR149" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS149" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT149" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU149" s="24" t="n">
         <v>0</v>
@@ -42538,7 +42305,7 @@
       <c r="CH149" s="24" t="n"/>
       <c r="CI149" s="24" t="n"/>
     </row>
-    <row r="150">
+    <row r="150" hidden="1" s="47">
       <c r="A150" s="24" t="n">
         <v>145</v>
       </c>
@@ -42708,17 +42475,14 @@
       <c r="AQ150" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR150" s="42">
-        <f>VLOOKUP(R150,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS150" s="24">
-        <f>VLOOKUP(R150,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT150" s="24">
-        <f>VLOOKUP(R150,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR150" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS150" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT150" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU150" s="24" t="n">
         <v>0</v>
@@ -42810,7 +42574,7 @@
       <c r="CH150" s="24" t="n"/>
       <c r="CI150" s="24" t="n"/>
     </row>
-    <row r="151">
+    <row r="151" hidden="1" s="47">
       <c r="A151" s="24" t="n">
         <v>146</v>
       </c>
@@ -42980,17 +42744,14 @@
       <c r="AQ151" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR151" s="42">
-        <f>VLOOKUP(R151,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS151" s="24">
-        <f>VLOOKUP(R151,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT151" s="24">
-        <f>VLOOKUP(R151,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR151" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS151" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT151" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU151" s="24" t="n">
         <v>0</v>
@@ -43082,7 +42843,7 @@
       <c r="CH151" s="24" t="n"/>
       <c r="CI151" s="24" t="n"/>
     </row>
-    <row r="152">
+    <row r="152" hidden="1" s="47">
       <c r="A152" s="24" t="n">
         <v>147</v>
       </c>
@@ -43252,17 +43013,14 @@
       <c r="AQ152" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR152" s="42">
-        <f>VLOOKUP(R152,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS152" s="24">
-        <f>VLOOKUP(R152,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT152" s="24">
-        <f>VLOOKUP(R152,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR152" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS152" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT152" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU152" s="24" t="n">
         <v>0</v>
@@ -43354,7 +43112,7 @@
       <c r="CH152" s="24" t="n"/>
       <c r="CI152" s="24" t="n"/>
     </row>
-    <row r="153">
+    <row r="153" hidden="1" s="47">
       <c r="A153" s="24" t="n">
         <v>148</v>
       </c>
@@ -43524,17 +43282,14 @@
       <c r="AQ153" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR153" s="42">
-        <f>VLOOKUP(R153,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS153" s="24">
-        <f>VLOOKUP(R153,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT153" s="24">
-        <f>VLOOKUP(R153,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR153" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS153" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT153" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU153" s="24" t="n">
         <v>0</v>
@@ -43626,7 +43381,7 @@
       <c r="CH153" s="24" t="n"/>
       <c r="CI153" s="24" t="n"/>
     </row>
-    <row r="154">
+    <row r="154" hidden="1" s="47">
       <c r="A154" s="24" t="n">
         <v>149</v>
       </c>
@@ -43796,17 +43551,14 @@
       <c r="AQ154" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR154" s="42">
-        <f>VLOOKUP(R154,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS154" s="24">
-        <f>VLOOKUP(R154,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT154" s="24">
-        <f>VLOOKUP(R154,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR154" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS154" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT154" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU154" s="24" t="n">
         <v>0</v>
@@ -43898,7 +43650,7 @@
       <c r="CH154" s="24" t="n"/>
       <c r="CI154" s="24" t="n"/>
     </row>
-    <row r="155">
+    <row r="155" hidden="1" s="47">
       <c r="A155" s="24" t="n">
         <v>150</v>
       </c>
@@ -44068,17 +43820,14 @@
       <c r="AQ155" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR155" s="42">
-        <f>VLOOKUP(R155,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS155" s="24">
-        <f>VLOOKUP(R155,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT155" s="24">
-        <f>VLOOKUP(R155,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR155" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS155" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT155" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU155" s="24" t="n">
         <v>0</v>
@@ -44170,7 +43919,7 @@
       <c r="CH155" s="24" t="n"/>
       <c r="CI155" s="24" t="n"/>
     </row>
-    <row r="156">
+    <row r="156" hidden="1" s="47">
       <c r="A156" s="24" t="n">
         <v>151</v>
       </c>
@@ -44338,17 +44087,14 @@
       <c r="AQ156" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR156" s="42">
-        <f>VLOOKUP(R156,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS156" s="24">
-        <f>VLOOKUP(R156,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT156" s="24">
-        <f>VLOOKUP(R156,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR156" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS156" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT156" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU156" s="24" t="n">
         <v>0</v>
@@ -44440,7 +44186,7 @@
       <c r="CH156" s="24" t="n"/>
       <c r="CI156" s="24" t="n"/>
     </row>
-    <row r="157">
+    <row r="157" hidden="1" s="47">
       <c r="A157" s="24" t="n">
         <v>152</v>
       </c>
@@ -44608,17 +44354,14 @@
       <c r="AQ157" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR157" s="42">
-        <f>VLOOKUP(R157,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS157" s="24">
-        <f>VLOOKUP(R157,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT157" s="24">
-        <f>VLOOKUP(R157,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR157" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS157" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT157" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU157" s="24" t="n">
         <v>0</v>
@@ -44710,7 +44453,7 @@
       <c r="CH157" s="24" t="n"/>
       <c r="CI157" s="24" t="n"/>
     </row>
-    <row r="158">
+    <row r="158" hidden="1" s="47">
       <c r="A158" s="24" t="n">
         <v>153</v>
       </c>
@@ -44878,17 +44621,14 @@
       <c r="AQ158" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR158" s="42">
-        <f>VLOOKUP(R158,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS158" s="24">
-        <f>VLOOKUP(R158,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT158" s="24">
-        <f>VLOOKUP(R158,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR158" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS158" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT158" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU158" s="24" t="n">
         <v>0</v>
@@ -44980,7 +44720,7 @@
       <c r="CH158" s="24" t="n"/>
       <c r="CI158" s="24" t="n"/>
     </row>
-    <row r="159">
+    <row r="159" hidden="1" s="47">
       <c r="A159" s="24" t="n">
         <v>154</v>
       </c>
@@ -45148,17 +44888,14 @@
       <c r="AQ159" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR159" s="42">
-        <f>VLOOKUP(R159,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS159" s="24">
-        <f>VLOOKUP(R159,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT159" s="24">
-        <f>VLOOKUP(R159,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR159" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS159" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT159" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU159" s="24" t="n">
         <v>0</v>
@@ -45250,7 +44987,7 @@
       <c r="CH159" s="24" t="n"/>
       <c r="CI159" s="24" t="n"/>
     </row>
-    <row r="160">
+    <row r="160" hidden="1" s="47">
       <c r="A160" s="24" t="n">
         <v>155</v>
       </c>
@@ -45418,17 +45155,14 @@
       <c r="AQ160" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR160" s="42">
-        <f>VLOOKUP(R160,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS160" s="24">
-        <f>VLOOKUP(R160,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT160" s="24">
-        <f>VLOOKUP(R160,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR160" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS160" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT160" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU160" s="24" t="n">
         <v>0</v>
@@ -45520,7 +45254,7 @@
       <c r="CH160" s="24" t="n"/>
       <c r="CI160" s="24" t="n"/>
     </row>
-    <row r="161">
+    <row r="161" hidden="1" s="47">
       <c r="A161" s="24" t="n">
         <v>156</v>
       </c>
@@ -45688,17 +45422,14 @@
       <c r="AQ161" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR161" s="42">
-        <f>VLOOKUP(R161,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS161" s="24">
-        <f>VLOOKUP(R161,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT161" s="24">
-        <f>VLOOKUP(R161,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR161" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS161" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT161" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU161" s="24" t="n">
         <v>0</v>
@@ -45790,7 +45521,7 @@
       <c r="CH161" s="24" t="n"/>
       <c r="CI161" s="24" t="n"/>
     </row>
-    <row r="162">
+    <row r="162" hidden="1" s="47">
       <c r="A162" s="24" t="n">
         <v>157</v>
       </c>
@@ -45958,17 +45689,14 @@
       <c r="AQ162" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR162" s="42">
-        <f>VLOOKUP(R162,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS162" s="24">
-        <f>VLOOKUP(R162,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT162" s="24">
-        <f>VLOOKUP(R162,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR162" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS162" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT162" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU162" s="24" t="n">
         <v>0</v>
@@ -46060,7 +45788,7 @@
       <c r="CH162" s="24" t="n"/>
       <c r="CI162" s="24" t="n"/>
     </row>
-    <row r="163">
+    <row r="163" hidden="1" s="47">
       <c r="A163" s="24" t="n">
         <v>158</v>
       </c>
@@ -46228,17 +45956,14 @@
       <c r="AQ163" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR163" s="42">
-        <f>VLOOKUP(R163,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS163" s="24">
-        <f>VLOOKUP(R163,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT163" s="24">
-        <f>VLOOKUP(R163,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR163" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS163" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT163" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU163" s="24" t="n">
         <v>0</v>
@@ -46330,7 +46055,7 @@
       <c r="CH163" s="24" t="n"/>
       <c r="CI163" s="24" t="n"/>
     </row>
-    <row r="164">
+    <row r="164" hidden="1" s="47">
       <c r="A164" s="24" t="n">
         <v>159</v>
       </c>
@@ -46498,17 +46223,14 @@
       <c r="AQ164" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR164" s="42">
-        <f>VLOOKUP(R164,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS164" s="24">
-        <f>VLOOKUP(R164,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT164" s="24">
-        <f>VLOOKUP(R164,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR164" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS164" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT164" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU164" s="24" t="n">
         <v>0</v>
@@ -46600,7 +46322,7 @@
       <c r="CH164" s="24" t="n"/>
       <c r="CI164" s="24" t="n"/>
     </row>
-    <row r="165">
+    <row r="165" hidden="1" s="47">
       <c r="A165" s="24" t="n">
         <v>160</v>
       </c>
@@ -46768,17 +46490,14 @@
       <c r="AQ165" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR165" s="42">
-        <f>VLOOKUP(R165,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS165" s="24">
-        <f>VLOOKUP(R165,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT165" s="24">
-        <f>VLOOKUP(R165,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR165" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS165" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT165" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU165" s="24" t="n">
         <v>0</v>
@@ -46870,7 +46589,7 @@
       <c r="CH165" s="24" t="n"/>
       <c r="CI165" s="24" t="n"/>
     </row>
-    <row r="166">
+    <row r="166" hidden="1" s="47">
       <c r="A166" s="24" t="n">
         <v>161</v>
       </c>
@@ -47038,17 +46757,14 @@
       <c r="AQ166" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR166" s="42">
-        <f>VLOOKUP(R166,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS166" s="24">
-        <f>VLOOKUP(R166,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT166" s="24">
-        <f>VLOOKUP(R166,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR166" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS166" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT166" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU166" s="24" t="n">
         <v>0</v>
@@ -47140,7 +46856,7 @@
       <c r="CH166" s="24" t="n"/>
       <c r="CI166" s="24" t="n"/>
     </row>
-    <row r="167">
+    <row r="167" hidden="1" s="47">
       <c r="A167" s="24" t="n">
         <v>162</v>
       </c>
@@ -47308,17 +47024,14 @@
       <c r="AQ167" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR167" s="42">
-        <f>VLOOKUP(R167,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS167" s="24">
-        <f>VLOOKUP(R167,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT167" s="24">
-        <f>VLOOKUP(R167,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR167" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS167" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT167" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU167" s="24" t="n">
         <v>0</v>
@@ -47410,7 +47123,7 @@
       <c r="CH167" s="24" t="n"/>
       <c r="CI167" s="24" t="n"/>
     </row>
-    <row r="168">
+    <row r="168" hidden="1" s="47">
       <c r="A168" s="24" t="n">
         <v>163</v>
       </c>
@@ -47578,17 +47291,14 @@
       <c r="AQ168" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR168" s="42">
-        <f>VLOOKUP(R168,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS168" s="24">
-        <f>VLOOKUP(R168,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT168" s="24">
-        <f>VLOOKUP(R168,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR168" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS168" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT168" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU168" s="24" t="n">
         <v>0</v>
@@ -47680,7 +47390,7 @@
       <c r="CH168" s="24" t="n"/>
       <c r="CI168" s="24" t="n"/>
     </row>
-    <row r="169">
+    <row r="169" hidden="1" s="47">
       <c r="A169" s="24" t="n">
         <v>164</v>
       </c>
@@ -47852,17 +47562,14 @@
       <c r="AQ169" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR169" s="42">
-        <f>VLOOKUP(R169,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS169" s="24">
-        <f>VLOOKUP(R169,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT169" s="24">
-        <f>VLOOKUP(R169,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR169" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS169" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT169" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU169" s="24" t="n">
         <v>0</v>
@@ -47954,7 +47661,7 @@
       <c r="CH169" s="24" t="n"/>
       <c r="CI169" s="24" t="n"/>
     </row>
-    <row r="170">
+    <row r="170" hidden="1" s="47">
       <c r="A170" s="24" t="n">
         <v>165</v>
       </c>
@@ -48134,17 +47841,14 @@
       <c r="AQ170" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR170" s="42">
-        <f>VLOOKUP(R170,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS170" s="24">
-        <f>VLOOKUP(R170,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT170" s="24">
-        <f>VLOOKUP(R170,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR170" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS170" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT170" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU170" s="24" t="n">
         <v>0</v>
@@ -48236,7 +47940,7 @@
       <c r="CH170" s="24" t="n"/>
       <c r="CI170" s="24" t="n"/>
     </row>
-    <row r="171">
+    <row r="171" hidden="1" s="47">
       <c r="A171" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增1</t>
@@ -48420,17 +48124,14 @@
       <c r="AQ171" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR171" s="42">
-        <f>VLOOKUP(R171,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS171" s="24">
-        <f>VLOOKUP(R171,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT171" s="24">
-        <f>VLOOKUP(R171,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR171" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS171" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT171" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AU171" s="24" t="n">
         <v>0</v>
@@ -48522,7 +48223,7 @@
       <c r="CH171" s="24" t="n"/>
       <c r="CI171" s="24" t="n"/>
     </row>
-    <row r="172">
+    <row r="172" hidden="1" s="47">
       <c r="A172" s="28" t="inlineStr">
         <is>
           <t>客户发展部新增2</t>
@@ -48809,7 +48510,7 @@
       <c r="CH172" s="24" t="n"/>
       <c r="CI172" s="24" t="n"/>
     </row>
-    <row r="173" customFormat="1" s="31">
+    <row r="173" hidden="1" customFormat="1" s="31">
       <c r="A173" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增3</t>
@@ -48995,17 +48696,14 @@
       <c r="AQ173" s="43" t="n">
         <v>0.25</v>
       </c>
-      <c r="AR173" s="43">
-        <f>VLOOKUP(R173,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS173" s="29">
-        <f>VLOOKUP(R173,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT173" s="29">
-        <f>VLOOKUP(R173,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR173" s="43" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AS173" s="29" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AT173" s="29" t="n">
+        <v>0.47</v>
       </c>
       <c r="AU173" s="29" t="n">
         <v>0.55</v>
@@ -49097,7 +48795,7 @@
       <c r="CH173" s="29" t="n"/>
       <c r="CI173" s="29" t="n"/>
     </row>
-    <row r="174" customFormat="1" s="31">
+    <row r="174" hidden="1" customFormat="1" s="31">
       <c r="A174" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增4</t>
@@ -49281,17 +48979,14 @@
       <c r="AQ174" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR174" s="43">
-        <f>VLOOKUP(R174,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS174" s="29">
-        <f>VLOOKUP(R174,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT174" s="29">
-        <f>VLOOKUP(R174,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR174" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS174" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT174" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU174" s="29" t="n">
         <v>0</v>
@@ -49383,7 +49078,7 @@
       <c r="CH174" s="29" t="n"/>
       <c r="CI174" s="29" t="n"/>
     </row>
-    <row r="175" customFormat="1" s="31">
+    <row r="175" hidden="1" customFormat="1" s="31">
       <c r="A175" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增5</t>
@@ -49567,17 +49262,14 @@
       <c r="AQ175" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR175" s="43">
-        <f>VLOOKUP(R175,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS175" s="29">
-        <f>VLOOKUP(R175,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT175" s="29">
-        <f>VLOOKUP(R175,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR175" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS175" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT175" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU175" s="29" t="n">
         <v>0</v>
@@ -49669,7 +49361,7 @@
       <c r="CH175" s="29" t="n"/>
       <c r="CI175" s="29" t="n"/>
     </row>
-    <row r="176" customFormat="1" s="31">
+    <row r="176" hidden="1" customFormat="1" s="31">
       <c r="A176" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增6</t>
@@ -49853,17 +49545,14 @@
       <c r="AQ176" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR176" s="43">
-        <f>VLOOKUP(R176,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS176" s="29">
-        <f>VLOOKUP(R176,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT176" s="29">
-        <f>VLOOKUP(R176,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR176" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS176" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT176" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU176" s="29" t="n">
         <v>0</v>
@@ -49955,7 +49644,7 @@
       <c r="CH176" s="29" t="n"/>
       <c r="CI176" s="29" t="n"/>
     </row>
-    <row r="177" customFormat="1" s="31">
+    <row r="177" hidden="1" customFormat="1" s="31">
       <c r="A177" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增7</t>
@@ -50137,17 +49826,14 @@
       <c r="AQ177" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR177" s="43">
-        <f>VLOOKUP(R177,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS177" s="29">
-        <f>VLOOKUP(R177,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT177" s="29">
-        <f>VLOOKUP(R177,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR177" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS177" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT177" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU177" s="29" t="n">
         <v>0</v>
@@ -50239,7 +49925,7 @@
       <c r="CH177" s="29" t="n"/>
       <c r="CI177" s="29" t="n"/>
     </row>
-    <row r="178" customFormat="1" s="31">
+    <row r="178" hidden="1" customFormat="1" s="31">
       <c r="A178" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增8</t>
@@ -50421,17 +50107,14 @@
       <c r="AQ178" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR178" s="43">
-        <f>VLOOKUP(R178,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS178" s="29">
-        <f>VLOOKUP(R178,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT178" s="29">
-        <f>VLOOKUP(R178,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR178" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS178" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT178" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU178" s="29" t="n">
         <v>0</v>
@@ -50523,7 +50206,7 @@
       <c r="CH178" s="29" t="n"/>
       <c r="CI178" s="29" t="n"/>
     </row>
-    <row r="179" customFormat="1" s="31">
+    <row r="179" hidden="1" customFormat="1" s="31">
       <c r="A179" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增9</t>
@@ -50705,17 +50388,14 @@
       <c r="AQ179" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR179" s="43">
-        <f>VLOOKUP(R179,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS179" s="29">
-        <f>VLOOKUP(R179,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT179" s="29">
-        <f>VLOOKUP(R179,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR179" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS179" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT179" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU179" s="29" t="n">
         <v>0</v>
@@ -50807,7 +50487,7 @@
       <c r="CH179" s="29" t="n"/>
       <c r="CI179" s="29" t="n"/>
     </row>
-    <row r="180" customFormat="1" s="31">
+    <row r="180" hidden="1" customFormat="1" s="31">
       <c r="A180" s="32" t="inlineStr">
         <is>
           <t>客户发展部新增10</t>
@@ -50991,17 +50671,14 @@
       <c r="AQ180" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR180" s="43">
-        <f>VLOOKUP(R180,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS180" s="29">
-        <f>VLOOKUP(R180,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT180" s="29">
-        <f>VLOOKUP(R180,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR180" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS180" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT180" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU180" s="29" t="n">
         <v>0.1</v>
@@ -51093,7 +50770,7 @@
       <c r="CH180" s="29" t="n"/>
       <c r="CI180" s="29" t="n"/>
     </row>
-    <row r="181" customFormat="1" s="31">
+    <row r="181" hidden="1" customFormat="1" s="31">
       <c r="A181" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增11</t>
@@ -51277,17 +50954,14 @@
       <c r="AQ181" s="43" t="n">
         <v>0.08</v>
       </c>
-      <c r="AR181" s="43">
-        <f>VLOOKUP(R181,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS181" s="29">
-        <f>VLOOKUP(R181,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT181" s="29">
-        <f>VLOOKUP(R181,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR181" s="43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS181" s="29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT181" s="29" t="n">
+        <v>0.3</v>
       </c>
       <c r="AU181" s="29" t="n">
         <v>0.4</v>
@@ -51379,7 +51053,7 @@
       <c r="CH181" s="29" t="n"/>
       <c r="CI181" s="29" t="n"/>
     </row>
-    <row r="182" customFormat="1" s="31">
+    <row r="182" hidden="1" customFormat="1" s="31">
       <c r="A182" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增12</t>
@@ -51561,17 +51235,14 @@
       <c r="AQ182" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR182" s="43">
-        <f>VLOOKUP(R182,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS182" s="29">
-        <f>VLOOKUP(R182,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT182" s="29">
-        <f>VLOOKUP(R182,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR182" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS182" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT182" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU182" s="29" t="n">
         <v>0</v>
@@ -51663,7 +51334,7 @@
       <c r="CH182" s="29" t="n"/>
       <c r="CI182" s="29" t="n"/>
     </row>
-    <row r="183" customFormat="1" s="39">
+    <row r="183" hidden="1" customFormat="1" s="39">
       <c r="A183" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增13</t>
@@ -51851,17 +51522,14 @@
       <c r="AQ183" s="43" t="n">
         <v>0.08</v>
       </c>
-      <c r="AR183" s="43">
-        <f>VLOOKUP(R183,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS183" s="29">
-        <f>VLOOKUP(R183,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT183" s="29">
-        <f>VLOOKUP(R183,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR183" s="43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS183" s="29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT183" s="29" t="n">
+        <v>0.3</v>
       </c>
       <c r="AU183" s="29" t="n">
         <v>0.4</v>
@@ -51953,7 +51621,7 @@
       <c r="CH183" s="37" t="n"/>
       <c r="CI183" s="37" t="n"/>
     </row>
-    <row r="184" customFormat="1" s="39">
+    <row r="184" hidden="1" customFormat="1" s="39">
       <c r="A184" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增14</t>
@@ -52135,17 +51803,14 @@
       <c r="AQ184" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR184" s="43">
-        <f>VLOOKUP(R184,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS184" s="29">
-        <f>VLOOKUP(R184,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT184" s="29">
-        <f>VLOOKUP(R184,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR184" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS184" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT184" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU184" s="29" t="n">
         <v>0</v>
@@ -52237,7 +51902,7 @@
       <c r="CH184" s="37" t="n"/>
       <c r="CI184" s="37" t="n"/>
     </row>
-    <row r="185" customFormat="1" s="31">
+    <row r="185" hidden="1" customFormat="1" s="31">
       <c r="A185" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增15</t>
@@ -52419,17 +52084,14 @@
       <c r="AQ185" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR185" s="43">
-        <f>VLOOKUP(R185,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS185" s="29">
-        <f>VLOOKUP(R185,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT185" s="29">
-        <f>VLOOKUP(R185,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR185" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS185" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT185" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU185" s="29" t="n">
         <v>0</v>
@@ -52521,7 +52183,7 @@
       <c r="CH185" s="29" t="n"/>
       <c r="CI185" s="29" t="n"/>
     </row>
-    <row r="186" customFormat="1" s="31">
+    <row r="186" hidden="1" customFormat="1" s="31">
       <c r="A186" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增16</t>
@@ -52703,17 +52365,14 @@
       <c r="AQ186" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="AR186" s="43">
-        <f>VLOOKUP(R186,'工具sheet_A'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AS186" s="29">
-        <f>VLOOKUP(R186,'工具sheet_B'!B:F,4,0)</f>
-        <v/>
-      </c>
-      <c r="AT186" s="29">
-        <f>VLOOKUP(R186,'工具sheet_C'!B:F,4,0)</f>
-        <v/>
+      <c r="AR186" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS186" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT186" s="29" t="n">
+        <v>0</v>
       </c>
       <c r="AU186" s="29" t="n">
         <v>0</v>
@@ -52805,7 +52464,7 @@
       <c r="CH186" s="29" t="n"/>
       <c r="CI186" s="29" t="n"/>
     </row>
-    <row r="187">
+    <row r="187" hidden="1" s="47">
       <c r="A187" s="24" t="n">
         <v>505</v>
       </c>
@@ -53076,7 +52735,7 @@
       <c r="CH187" s="24" t="n"/>
       <c r="CI187" s="24" t="n"/>
     </row>
-    <row r="188">
+    <row r="188" hidden="1" s="47">
       <c r="A188" s="24" t="n">
         <v>506</v>
       </c>
@@ -53347,7 +53006,7 @@
       <c r="CH188" s="24" t="n"/>
       <c r="CI188" s="24" t="n"/>
     </row>
-    <row r="189">
+    <row r="189" hidden="1" s="47">
       <c r="A189" s="28" t="n">
         <v>507</v>
       </c>
@@ -53620,7 +53279,7 @@
       <c r="CH189" s="24" t="n"/>
       <c r="CI189" s="24" t="n"/>
     </row>
-    <row r="190">
+    <row r="190" hidden="1" s="47">
       <c r="A190" s="28" t="n">
         <v>508</v>
       </c>
@@ -53889,7 +53548,7 @@
       <c r="CH190" s="24" t="n"/>
       <c r="CI190" s="24" t="n"/>
     </row>
-    <row r="191">
+    <row r="191" hidden="1" s="47">
       <c r="A191" s="28" t="n">
         <v>509</v>
       </c>
@@ -54168,7 +53827,7 @@
       <c r="CH191" s="24" t="n"/>
       <c r="CI191" s="24" t="n"/>
     </row>
-    <row r="192">
+    <row r="192" hidden="1" s="47">
       <c r="A192" s="28" t="n">
         <v>510</v>
       </c>
@@ -54449,7 +54108,7 @@
       <c r="CH192" s="24" t="n"/>
       <c r="CI192" s="24" t="n"/>
     </row>
-    <row r="193">
+    <row r="193" hidden="1" s="47">
       <c r="A193" s="24" t="n">
         <v>511</v>
       </c>
@@ -54866,6 +54525,13 @@
       <c r="AX200" s="35" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI193">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="宁波拓普集团股份有限公司"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="S1">
     <cfRule type="duplicateValues" priority="29" dxfId="0"/>
   </conditionalFormatting>
@@ -54911,7 +54577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54937,7 +54603,7 @@
       </c>
       <c r="E1" s="48" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>summp</t>
         </is>
       </c>
       <c r="F1" s="48" t="inlineStr">
@@ -54964,7 +54630,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2880</v>
+        <v>0.288</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7700006983</v>
@@ -54972,383 +54638,383 @@
     </row>
     <row r="3">
       <c r="A3" s="48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>P/C/1083849-00-E/BH45-01LM018/0122</t>
+          <t>S/C/1096215-00-C/#/#</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>1083849-00-E</t>
+          <t>1096215-00-C</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2720</v>
+        <v>1.624</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7700006983</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>P/C/1083849-00-E/BH45-01LM018/0122</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>1083849-00-E</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2800</v>
+        <v>10.5</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7700006983</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>S/C/1096215-00-C/#/#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>1096215-00-C</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>16240</v>
+        <v>10.5</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>7700015506</v>
+        <v>7700015582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>S/C/1096215-00-C/#/#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>1096215-00-C</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>18480</v>
+        <v>0.288</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>7700015506</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>S/C/1096215-00-C/#/#</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>1096215-00-C</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>13160</v>
+        <v>0.8384</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>7700015506</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-M</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>105000</v>
+        <v>0.864</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>7700013617</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-M</t>
+          <t>1540065-00-C</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>105000</v>
+        <v>1.2024</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>7700015582</v>
+        <v>7700011829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-M</t>
+          <t>1547595-A0-F</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>94800</v>
+        <v>2.4336</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>7700013617</v>
+        <v>7700010069</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-M</t>
+          <t>1547595-A2-F</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>94800</v>
+        <v>3.744</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>7700015582</v>
+        <v>7700010069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-M</t>
+          <t>1547595-A2-F</t>
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>38400</v>
+        <v>3.744</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>7700013617</v>
+        <v>7700015845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-M</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>38400</v>
+        <v>0.2352</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>7700015582</v>
+        <v>7700003372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1631640-00-A/#/#</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-N</t>
+          <t>1631640-00-A</t>
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>26400</v>
+        <v>2.016</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>7700013617</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1657594-00-A/#/#</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-N</t>
+          <t>1657603-02-E</t>
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>90000</v>
+        <v>2.8512</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>7700013617</v>
+        <v>7700015578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1693247-20-C/#/#</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1693247-27-D</t>
         </is>
       </c>
       <c r="D16" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>2880</v>
+        <v>0.5387999999999999</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>7700002394</v>
+        <v>7700016103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1693247-20-C/#/#</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1693247-47-D</t>
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>3840</v>
+        <v>0.8138</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>7700002394</v>
+        <v>7700016103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1716767-00-A/#/#</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1716767-00-A</t>
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1920</v>
+        <v>5.572</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7700002394</v>
@@ -55356,1009 +55022,49 @@
     </row>
     <row r="19">
       <c r="A19" s="48" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>S/C/1739701-00-B/#/#</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1739701-50-B</t>
         </is>
       </c>
       <c r="D19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>8384</v>
+        <v>0.0288</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>7700006983</v>
+        <v>7700016554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1752119-03-B</t>
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>6720</v>
+        <v>0.7488</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>7700006983</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="48" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>1455773-00-F</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>1455773-00-F</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>6656</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>7700006983</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="48" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>8640</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="48" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>6840</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="48" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>1478201-00-B</t>
-        </is>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>4680</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="48" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>1540065-00-C</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>12024</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>7700011829</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="48" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>1540065-00-C</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>11664</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>7700011829</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="48" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>1540065-00-C</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>9360</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>7700011829</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="48" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A0-F</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>24336</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="48" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A0-F</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>20592</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="48" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A0-F</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>23400</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="48" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>37440</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="48" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>37440</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>7700015845</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="48" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>35568</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="48" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>35568</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>7700015845</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="48" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>41184</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>7700010069</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="48" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
-        </is>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>1547595-A2-F</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>41184</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>7700015845</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="48" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>2352</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>7700003372</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="48" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>3696</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>7700003372</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="48" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="C39" s="0" t="inlineStr">
-        <is>
-          <t>1592843-00-A</t>
-        </is>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>7700003372</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="48" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1631640-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C40" s="0" t="inlineStr">
-        <is>
-          <t>1631640-00-A</t>
-        </is>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>20160</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>7700015506</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="48" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1631640-00-B/#/#</t>
-        </is>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>1631640-00-B</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>24864</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>7700015506</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="48" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1631640-00-B/#/#</t>
-        </is>
-      </c>
-      <c r="C42" s="0" t="inlineStr">
-        <is>
-          <t>1631640-00-B</t>
-        </is>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>13440</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>7700015506</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="48" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1657594-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>1657603-02-E</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>28512</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>7700015578</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="48" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1657594-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>1657603-02-E</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>11520</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>7700015578</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="48" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1657594-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>1657603-02-E</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>12096</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>7700015578</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="48" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C46" s="0" t="inlineStr">
-        <is>
-          <t>1693247-27-D</t>
-        </is>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>5388</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="48" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>1693247-27-D</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>3111</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="48" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C48" s="0" t="inlineStr">
-        <is>
-          <t>1693247-27-D</t>
-        </is>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>707</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>1693247-47-D</t>
-        </is>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>8138</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="48" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C50" s="0" t="inlineStr">
-        <is>
-          <t>1693247-47-D</t>
-        </is>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>4920</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="48" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1693247-20-C/#/#</t>
-        </is>
-      </c>
-      <c r="C51" s="0" t="inlineStr">
-        <is>
-          <t>1693247-47-D</t>
-        </is>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>4570</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>7700016103</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="48" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1716767-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C52" s="0" t="inlineStr">
-        <is>
-          <t>1716767-00-A</t>
-        </is>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>55720</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="48" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1716767-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C53" s="0" t="inlineStr">
-        <is>
-          <t>1716767-00-A</t>
-        </is>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>100800</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="48" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1716767-00-A/#/#</t>
-        </is>
-      </c>
-      <c r="C54" s="0" t="inlineStr">
-        <is>
-          <t>1716767-00-A</t>
-        </is>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>62440</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>7700002394</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="48" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1739701-00-B/#/#</t>
-        </is>
-      </c>
-      <c r="C55" s="0" t="inlineStr">
-        <is>
-          <t>1739701-50-B</t>
-        </is>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>288</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>7700016554</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="48" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1739701-00-B/#/#</t>
-        </is>
-      </c>
-      <c r="C56" s="0" t="inlineStr">
-        <is>
-          <t>1739701-50-B</t>
-        </is>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>372</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>7700016554</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="48" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" s="0" t="inlineStr">
-        <is>
-          <t>S/C/1739701-00-B/#/#</t>
-        </is>
-      </c>
-      <c r="C57" s="0" t="inlineStr">
-        <is>
-          <t>1739701-50-B</t>
-        </is>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>392</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>7700016554</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="48" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
-        </is>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>1752119-03-B</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>7488</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>7700013721</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="48" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" s="0" t="inlineStr">
-        <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
-        </is>
-      </c>
-      <c r="C59" s="0" t="inlineStr">
-        <is>
-          <t>1752119-03-B</t>
-        </is>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>6552</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>7700013721</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="48" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" s="0" t="inlineStr">
-        <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
-        </is>
-      </c>
-      <c r="C60" s="0" t="inlineStr">
-        <is>
-          <t>1752119-03-B</t>
-        </is>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>7488</v>
-      </c>
-      <c r="F60" s="0" t="n">
         <v>7700013721</v>
       </c>
     </row>
@@ -56373,7 +55079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56399,7 +55105,7 @@
       </c>
       <c r="E1" s="48" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>summp</t>
         </is>
       </c>
       <c r="F1" s="48" t="inlineStr">
@@ -56410,7 +55116,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -56423,10 +55129,10 @@
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2880</v>
+        <v>0.272</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7700006983</v>
@@ -56434,7 +55140,7 @@
     </row>
     <row r="3">
       <c r="A3" s="48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -56447,10 +55153,10 @@
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>16240</v>
+        <v>1.848</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7700015506</v>
@@ -56458,7 +55164,7 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -56471,10 +55177,10 @@
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>105000</v>
+        <v>9.48</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7700013617</v>
@@ -56482,7 +55188,7 @@
     </row>
     <row r="5">
       <c r="A5" s="48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -56495,10 +55201,10 @@
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>105000</v>
+        <v>9.48</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7700015582</v>
@@ -56506,7 +55212,7 @@
     </row>
     <row r="6">
       <c r="A6" s="48" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -56515,118 +55221,118 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1108202-00-N</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2880</v>
+        <v>2.64</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>7700002394</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>8384</v>
+        <v>0.384</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>7700006983</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>8640</v>
+        <v>0.672</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>7700002394</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>1540065-00-C</t>
+          <t>1478201-00-B</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>12024</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>7700011829</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>1547595-A0-F</t>
+          <t>1540065-00-C</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>24336</v>
+        <v>1.1664</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>7700010069</v>
+        <v>7700011829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -56635,14 +55341,14 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>1547595-A2-F</t>
+          <t>1547595-A0-F</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>37440</v>
+        <v>2.0592</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7700010069</v>
@@ -56650,7 +55356,7 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -56663,114 +55369,114 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>37440</v>
+        <v>3.5568</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>7700015845</v>
+        <v>7700010069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>1547595-A2-F</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2352</v>
+        <v>3.5568</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>7700003372</v>
+        <v>7700015845</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>S/C/1631640-00-A/#/#</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>1631640-00-A</t>
+          <t>1592843-00-A</t>
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>20160</v>
+        <v>0.3696</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>7700015506</v>
+        <v>7700003372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>S/C/1657594-00-A/#/#</t>
+          <t>S/C/1631640-00-B/#/#</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>1657603-02-E</t>
+          <t>1631640-00-B</t>
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>28512</v>
+        <v>2.4864</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>7700015578</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>S/C/1693247-20-C/#/#</t>
+          <t>S/C/1657594-00-A/#/#</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>1693247-27-D</t>
+          <t>1657603-02-E</t>
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>5388</v>
+        <v>1.152</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>7700016103</v>
+        <v>7700015578</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -56779,14 +55485,14 @@
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>1693247-47-D</t>
+          <t>1693247-27-D</t>
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>8138</v>
+        <v>0.3111</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7700016103</v>
@@ -56794,73 +55500,97 @@
     </row>
     <row r="18">
       <c r="A18" s="48" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>S/C/1716767-00-A/#/#</t>
+          <t>S/C/1693247-20-C/#/#</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>1716767-00-A</t>
+          <t>1693247-47-D</t>
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>55720</v>
+        <v>0.492</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>7700002394</v>
+        <v>7700016103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>S/C/1739701-00-B/#/#</t>
+          <t>S/C/1716767-00-A/#/#</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>1739701-50-B</t>
+          <t>1716767-00-A</t>
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>288</v>
+        <v>10.08</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>7700016554</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
+          <t>S/C/1739701-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.0372</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>7700016554</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="48" t="n">
+        <v>57</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
           <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
         </is>
       </c>
-      <c r="C20" s="0" t="inlineStr">
+      <c r="C21" s="0" t="inlineStr">
         <is>
           <t>1752119-03-B</t>
         </is>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>7488</v>
-      </c>
-      <c r="F20" s="0" t="n">
+      <c r="D21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.6552</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>7700013721</v>
       </c>
     </row>
@@ -56901,7 +55631,7 @@
       </c>
       <c r="E1" s="48" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>summp</t>
         </is>
       </c>
       <c r="F1" s="48" t="inlineStr">
@@ -56912,7 +55642,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -56925,10 +55655,10 @@
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2720</v>
+        <v>0.28</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7700006983</v>
@@ -56936,7 +55666,7 @@
     </row>
     <row r="3">
       <c r="A3" s="48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -56949,10 +55679,10 @@
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>18480</v>
+        <v>1.316</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>7700015506</v>
@@ -56960,7 +55690,7 @@
     </row>
     <row r="4">
       <c r="A4" s="48" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -56973,10 +55703,10 @@
         </is>
       </c>
       <c r="D4" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>94800</v>
+        <v>3.84</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7700013617</v>
@@ -56984,7 +55714,7 @@
     </row>
     <row r="5">
       <c r="A5" s="48" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
@@ -56997,10 +55727,10 @@
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>94800</v>
+        <v>3.84</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7700015582</v>
@@ -57008,7 +55738,7 @@
     </row>
     <row r="6">
       <c r="A6" s="48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -57021,10 +55751,10 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>26400</v>
+        <v>9</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>7700013617</v>
@@ -57032,7 +55762,7 @@
     </row>
     <row r="7">
       <c r="A7" s="48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -57045,10 +55775,10 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3840</v>
+        <v>0.192</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>7700002394</v>
@@ -57056,7 +55786,7 @@
     </row>
     <row r="8">
       <c r="A8" s="48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -57069,10 +55799,10 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>6720</v>
+        <v>0.6656</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7700006983</v>
@@ -57080,7 +55810,7 @@
     </row>
     <row r="9">
       <c r="A9" s="48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -57093,10 +55823,10 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>6840</v>
+        <v>0.468</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7700002394</v>
@@ -57104,7 +55834,7 @@
     </row>
     <row r="10">
       <c r="A10" s="48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -57117,10 +55847,10 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>11664</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7700011829</v>
@@ -57128,7 +55858,7 @@
     </row>
     <row r="11">
       <c r="A11" s="48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -57141,10 +55871,10 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>20592</v>
+        <v>2.34</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7700010069</v>
@@ -57152,7 +55882,7 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -57165,10 +55895,10 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>35568</v>
+        <v>4.1184</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7700010069</v>
@@ -57176,7 +55906,7 @@
     </row>
     <row r="13">
       <c r="A13" s="48" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -57189,10 +55919,10 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>35568</v>
+        <v>4.1184</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7700015845</v>
@@ -57200,7 +55930,7 @@
     </row>
     <row r="14">
       <c r="A14" s="48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -57213,10 +55943,10 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>3696</v>
+        <v>0.2016</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>7700003372</v>
@@ -57224,7 +55954,7 @@
     </row>
     <row r="15">
       <c r="A15" s="48" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -57237,10 +55967,10 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>24864</v>
+        <v>1.344</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>7700015506</v>
@@ -57248,7 +55978,7 @@
     </row>
     <row r="16">
       <c r="A16" s="48" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -57261,10 +55991,10 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>11520</v>
+        <v>1.2096</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>7700015578</v>
@@ -57272,7 +56002,7 @@
     </row>
     <row r="17">
       <c r="A17" s="48" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -57285,10 +56015,10 @@
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>3111</v>
+        <v>0.0707</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>7700016103</v>
@@ -57296,7 +56026,7 @@
     </row>
     <row r="18">
       <c r="A18" s="48" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -57309,10 +56039,10 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>4920</v>
+        <v>0.457</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>7700016103</v>
@@ -57320,7 +56050,7 @@
     </row>
     <row r="19">
       <c r="A19" s="48" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -57333,10 +56063,10 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>100800</v>
+        <v>6.244</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7700002394</v>
@@ -57344,7 +56074,7 @@
     </row>
     <row r="20">
       <c r="A20" s="48" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -57357,10 +56087,10 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>372</v>
+        <v>0.0392</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7700016554</v>
@@ -57368,7 +56098,7 @@
     </row>
     <row r="21">
       <c r="A21" s="48" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -57381,10 +56111,10 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>6552</v>
+        <v>0.7488</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7700013721</v>
@@ -57401,7 +56131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57427,7 +56157,7 @@
       </c>
       <c r="E1" s="48" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>summp</t>
         </is>
       </c>
       <c r="F1" s="48" t="inlineStr">
@@ -57438,7 +56168,7 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -57451,10 +56181,10 @@
         </is>
       </c>
       <c r="D2" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>2800</v>
+        <v>0.288</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>7700006983</v>
@@ -57462,457 +56192,1393 @@
     </row>
     <row r="3">
       <c r="A3" s="48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>S/C/1096215-00-C/#/#</t>
+          <t>P/C/1083849-00-E/BH45-01LM018/0122</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>1096215-00-C</t>
+          <t>1083849-00-E</t>
         </is>
       </c>
       <c r="D3" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>13160</v>
+        <v>0.272</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7700015506</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="48" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>P/C/1083849-00-E/BH45-01LM018/0122</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-M</t>
+          <t>1083849-00-E</t>
         </is>
       </c>
       <c r="D4" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>38400</v>
+        <v>0.28</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7700013617</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1096215-00-C/#/#</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-M</t>
+          <t>1096215-00-C</t>
         </is>
       </c>
       <c r="D5" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>38400</v>
+        <v>1.624</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>7700015582</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="48" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1096215-00-C/#/#</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>1108202-00-N</t>
+          <t>1096215-00-C</t>
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>90000</v>
+        <v>1.848</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>7700013617</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="48" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>S/C/1108202-10-M/#/#</t>
+          <t>S/C/1096215-00-C/#/#</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>1108202-01-M</t>
+          <t>1096215-00-C</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1920</v>
+        <v>1.316</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>7700002394</v>
+        <v>7700015506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="48" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>1455773-00-F</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>6656</v>
+        <v>10.5</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>7700006983</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="48" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>1478201-00-B</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>4680</v>
+        <v>10.5</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>7700002394</v>
+        <v>7700015582</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="48" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>P/M/1540065-00-C/0127-0100008#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>1540065-00-C</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>9360</v>
+        <v>9.48</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>7700011829</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="48" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>1547595-A0-F</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>23400</v>
+        <v>9.48</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>7700010069</v>
+        <v>7700015582</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="48" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>1547595-A2-F</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>41184</v>
+        <v>3.84</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>7700010069</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="48" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>P/M/1547595-A2-F/0127-0100086#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>1547595-A2-F</t>
+          <t>1108202-00-M</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>41184</v>
+        <v>3.84</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>7700015845</v>
+        <v>7700015582</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="48" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>1592843-00-A</t>
+          <t>1108202-00-N</t>
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>2016</v>
+        <v>2.64</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>7700003372</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="48" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>S/C/1631640-00-B/#/#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>1631640-00-B</t>
+          <t>1108202-00-N</t>
         </is>
       </c>
       <c r="D15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>13440</v>
+        <v>9</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>7700015506</v>
+        <v>7700013617</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="48" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>S/C/1657594-00-A/#/#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>1657603-02-E</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>12096</v>
+        <v>0.288</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>7700015578</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="48" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>S/C/1693247-20-C/#/#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>1693247-27-D</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>707</v>
+        <v>0.384</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>7700016103</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="48" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>S/C/1693247-20-C/#/#</t>
+          <t>S/C/1108202-10-M/#/#</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>1693247-47-D</t>
+          <t>1108202-01-M</t>
         </is>
       </c>
       <c r="D18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>4570</v>
+        <v>0.192</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>7700016103</v>
+        <v>7700002394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="48" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>S/C/1716767-00-A/#/#</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>1716767-00-A</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>62440</v>
+        <v>0.8384</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>7700002394</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="48" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>S/C/1739701-00-B/#/#</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>1739701-50-B</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>392</v>
+        <v>0.672</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>7700016554</v>
+        <v>7700006983</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="48" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>1752119-03-B</t>
+          <t>1455773-00-F</t>
         </is>
       </c>
       <c r="D21" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>7488</v>
+        <v>0.6656</v>
       </c>
       <c r="F21" s="0" t="n">
+        <v>7700006983</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="48" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="48" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="48" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>1478201-00-B</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="48" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>1540065-00-C</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1.2024</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>7700011829</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="48" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>1540065-00-C</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1.1664</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>7700011829</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="48" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1540065-00-C/0127-0100008#</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>1540065-00-C</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>7700011829</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="48" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>1547595-A0-F</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2.4336</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="48" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>1547595-A0-F</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2.0592</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="48" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>1547595-A0-F</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="48" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="48" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>3.744</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>7700015845</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="48" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3.5568</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="48" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>3.5568</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>7700015845</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="48" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>4.1184</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>7700010069</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="48" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>P/M/1547595-A2-F/0127-0100086#</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>1547595-A2-F</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>4.1184</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>7700015845</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="48" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.2352</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>7700003372</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="48" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.3696</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>7700003372</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="48" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>1592843-00-A</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.2016</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>7700003372</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="48" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1631640-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>1631640-00-A</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>7700015506</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="48" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1631640-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>1631640-00-B</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>2.4864</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>7700015506</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="48" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1631640-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>1631640-00-B</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>7700015506</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="48" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1657594-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>1657603-02-E</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>2.8512</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>7700015578</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="48" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1657594-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>1657603-02-E</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>7700015578</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="48" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1657594-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>1657603-02-E</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1.2096</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>7700015578</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="48" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>1693247-27-D</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.5387999999999999</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="48" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>1693247-27-D</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.3111</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>1693247-27-D</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.0707</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>1693247-47-D</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.8138</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>1693247-47-D</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="48" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1693247-20-C/#/#</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>1693247-47-D</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>7700016103</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="48" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1716767-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>1716767-00-A</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>5.572</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="48" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1716767-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>1716767-00-A</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="48" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1716767-00-A/#/#</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>1716767-00-A</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>6.244</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>7700002394</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="48" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1739701-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>7700016554</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="48" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1739701-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0.0372</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>7700016554</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="48" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>S/C/1739701-00-B/#/#</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>7700016554</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="48" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>1752119-03-B</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.7488</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>7700013721</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="48" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>1752119-03-B</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.6552</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>7700013721</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="48" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>P-Octo2/M/1752119-03-B/0127-0100079/Octo2</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>1752119-03-B</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0.7488</v>
+      </c>
+      <c r="F60" s="0" t="n">
         <v>7700013721</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -134,7 +134,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -194,6 +194,11 @@
         <fgColor rgb="009c0006"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -236,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,7 +401,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,60 +868,54 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col hidden="1" width="31.83203125" customWidth="1" style="27" min="1" max="1"/>
-    <col hidden="1" width="18.1640625" customWidth="1" style="27" min="2" max="2"/>
-    <col hidden="1" width="17.1640625" customWidth="1" style="27" min="3" max="4"/>
-    <col hidden="1" width="15.1640625" customWidth="1" style="27" min="5" max="5"/>
-    <col width="30.83203125" bestFit="1" customWidth="1" style="27" min="6" max="6"/>
-    <col hidden="1" width="17.1640625" customWidth="1" style="27" min="7" max="7"/>
-    <col hidden="1" width="43.83203125" customWidth="1" style="27" min="8" max="8"/>
-    <col width="34.6640625" customWidth="1" style="27" min="9" max="9"/>
-    <col hidden="1" width="15.33203125" customWidth="1" style="27" min="10" max="10"/>
-    <col hidden="1" width="34.6640625" customWidth="1" style="27" min="11" max="11"/>
-    <col hidden="1" width="15.1640625" customWidth="1" style="27" min="12" max="12"/>
-    <col hidden="1" width="21.5" customWidth="1" style="27" min="13" max="13"/>
-    <col width="33.6640625" customWidth="1" style="27" min="14" max="14"/>
-    <col hidden="1" width="25.83203125" customWidth="1" style="27" min="15" max="15"/>
-    <col hidden="1" width="17.83203125" customWidth="1" style="27" min="16" max="16"/>
-    <col hidden="1" width="17.1640625" customWidth="1" style="27" min="17" max="17"/>
-    <col width="61.5" customWidth="1" style="27" min="18" max="18"/>
-    <col hidden="1" width="26.1640625" customWidth="1" style="27" min="19" max="19"/>
-    <col hidden="1" width="57.83203125" customWidth="1" style="27" min="20" max="20"/>
-    <col width="62.5" customWidth="1" style="27" min="21" max="21"/>
-    <col hidden="1" width="32.6640625" customWidth="1" style="27" min="22" max="22"/>
-    <col hidden="1" width="5.83203125" customWidth="1" style="27" min="23" max="23"/>
-    <col hidden="1" width="22.5" customWidth="1" style="27" min="24" max="24"/>
-    <col hidden="1" width="36" customWidth="1" style="27" min="25" max="25"/>
-    <col hidden="1" width="19.33203125" customWidth="1" style="27" min="26" max="26"/>
-    <col hidden="1" width="19.1640625" customWidth="1" style="27" min="27" max="27"/>
-    <col hidden="1" width="74.83203125" customWidth="1" style="27" min="28" max="28"/>
-    <col hidden="1" width="17.1640625" customWidth="1" style="27" min="29" max="29"/>
-    <col hidden="1" width="19.5" customWidth="1" style="27" min="30" max="30"/>
-    <col hidden="1" width="23.1640625" customWidth="1" style="27" min="31" max="31"/>
-    <col hidden="1" width="23.6640625" customWidth="1" style="27" min="32" max="32"/>
-    <col hidden="1" width="13.1640625" customWidth="1" style="33" min="33" max="33"/>
-    <col hidden="1" width="15.1640625" customWidth="1" style="33" min="34" max="34"/>
-    <col hidden="1" width="20.5" customWidth="1" style="27" min="35" max="35"/>
-    <col hidden="1" width="26.33203125" customWidth="1" style="27" min="36" max="36"/>
-    <col hidden="1" width="22.33203125" customWidth="1" style="27" min="37" max="41"/>
-    <col hidden="1" width="13.1640625" customWidth="1" style="27" min="42" max="42"/>
-    <col hidden="1" width="8.83203125" customWidth="1" style="44" min="43" max="43"/>
-    <col width="8.83203125" customWidth="1" style="44" min="44" max="45"/>
-    <col width="8.83203125" customWidth="1" style="27" min="46" max="49"/>
-    <col width="11.83203125" customWidth="1" style="27" min="50" max="50"/>
-    <col width="8.83203125" customWidth="1" style="27" min="51" max="57"/>
-    <col width="8.83203125" customWidth="1" style="38" min="58" max="58"/>
-    <col width="11.5" customWidth="1" style="38" min="59" max="59"/>
-    <col width="12.83203125" customWidth="1" style="38" min="60" max="60"/>
-    <col width="8.83203125" customWidth="1" style="27" min="61" max="69"/>
-    <col width="11.1640625" customWidth="1" style="27" min="70" max="73"/>
-    <col width="11.1640625" customWidth="1" style="34" min="74" max="75"/>
-    <col width="17.1640625" bestFit="1" customWidth="1" style="34" min="76" max="76"/>
-    <col width="17.1640625" bestFit="1" customWidth="1" style="27" min="77" max="87"/>
-    <col width="8.83203125" customWidth="1" style="27" min="88" max="16384"/>
+    <col hidden="1" outlineLevel="1" width="31.83203125" customWidth="1" style="27" min="1" max="5"/>
+    <col hidden="1" outlineLevel="1" width="13" customWidth="1" style="47" min="7" max="8"/>
+    <col hidden="1" outlineLevel="1" width="13" customWidth="1" style="47" min="10" max="13"/>
+    <col hidden="1" outlineLevel="1" width="13" customWidth="1" style="47" min="15" max="17"/>
+    <col hidden="1" outlineLevel="1" width="13" customWidth="1" style="47" min="19" max="20"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="23" max="23"/>
+    <col hidden="1" outlineLevel="1" width="13" customWidth="1" style="47" min="25" max="26"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="27" max="27"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="28" max="28"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="29" max="29"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="30" max="30"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="31" max="31"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="32" max="32"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="33" max="33"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="34" max="34"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="35" max="35"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="36" max="36"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="37" max="37"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="38" max="38"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="39" max="39"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="40" max="40"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="41" max="41"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="42" max="42"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="43" max="43"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="47" max="47"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="48" max="48"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="49" max="49"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="50" max="50"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="51" max="51"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="52" max="52"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="53" max="53"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="54" max="54"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="55" max="55"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="56" max="56"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="57" max="57"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="58" max="58"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="59" max="59"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="60" max="60"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="71" max="71"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="72" max="72"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="73" max="73"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="74" max="74"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="75" max="75"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="76" max="76"/>
+    <col hidden="1" width="13" customWidth="1" style="47" min="77" max="77"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.5" customFormat="1" customHeight="1" s="18">
+    <row r="1" outlineLevel="1" ht="42.5" customFormat="1" customHeight="1" s="18">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>序号（此列不能删除修改）蓝色底纹是修改过部分</t>
@@ -1351,7 +1356,7 @@
         </is>
       </c>
     </row>
-    <row r="2" hidden="1" ht="42.5" customHeight="1" s="47">
+    <row r="2" hidden="1" outlineLevel="1" ht="42.5" customHeight="1" s="47">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Index No.(Do NOT delete or alter)</t>
@@ -1791,7 +1796,7 @@
         </is>
       </c>
     </row>
-    <row r="3" hidden="1" s="47">
+    <row r="3" hidden="1" outlineLevel="1" s="47">
       <c r="A3" s="24" t="n">
         <v>1</v>
       </c>
@@ -2060,7 +2065,7 @@
       <c r="CH3" s="24" t="n"/>
       <c r="CI3" s="24" t="n"/>
     </row>
-    <row r="4" hidden="1" s="47">
+    <row r="4" hidden="1" outlineLevel="1" s="47">
       <c r="A4" s="28" t="n">
         <v>2</v>
       </c>
@@ -2335,7 +2340,7 @@
       <c r="CH4" s="24" t="n"/>
       <c r="CI4" s="24" t="n"/>
     </row>
-    <row r="5" hidden="1" s="47">
+    <row r="5" hidden="1" outlineLevel="1" s="47">
       <c r="A5" s="28" t="n">
         <v>3</v>
       </c>
@@ -2620,7 +2625,7 @@
       <c r="CH5" s="24" t="n"/>
       <c r="CI5" s="24" t="n"/>
     </row>
-    <row r="6" hidden="1" s="47">
+    <row r="6" hidden="1" outlineLevel="1" s="47">
       <c r="A6" s="24" t="n">
         <v>4</v>
       </c>
@@ -2903,7 +2908,7 @@
       <c r="CH6" s="24" t="n"/>
       <c r="CI6" s="24" t="n"/>
     </row>
-    <row r="7" hidden="1" s="47">
+    <row r="7" hidden="1" outlineLevel="1" s="47">
       <c r="A7" s="24" t="n">
         <v>5</v>
       </c>
@@ -3186,7 +3191,7 @@
       <c r="CH7" s="24" t="n"/>
       <c r="CI7" s="24" t="n"/>
     </row>
-    <row r="8" hidden="1" s="47">
+    <row r="8" hidden="1" outlineLevel="1" s="47">
       <c r="A8" s="24" t="n">
         <v>6</v>
       </c>
@@ -3473,7 +3478,7 @@
       <c r="CH8" s="24" t="n"/>
       <c r="CI8" s="24" t="n"/>
     </row>
-    <row r="9" hidden="1" s="47">
+    <row r="9" hidden="1" outlineLevel="1" s="47">
       <c r="A9" s="28" t="n">
         <v>7</v>
       </c>
@@ -3764,7 +3769,7 @@
       <c r="CH9" s="24" t="n"/>
       <c r="CI9" s="24" t="n"/>
     </row>
-    <row r="10" hidden="1" s="47">
+    <row r="10" hidden="1" outlineLevel="1" s="47">
       <c r="A10" s="28" t="n">
         <v>8</v>
       </c>
@@ -4055,7 +4060,7 @@
       <c r="CH10" s="24" t="n"/>
       <c r="CI10" s="24" t="n"/>
     </row>
-    <row r="11" hidden="1" s="47">
+    <row r="11" hidden="1" outlineLevel="1" s="47">
       <c r="A11" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增1</t>
@@ -4344,7 +4349,7 @@
       <c r="CH11" s="24" t="n"/>
       <c r="CI11" s="24" t="n"/>
     </row>
-    <row r="12" hidden="1" s="47">
+    <row r="12" hidden="1" outlineLevel="1" s="47">
       <c r="A12" s="28" t="n">
         <v>9</v>
       </c>
@@ -4633,7 +4638,7 @@
       <c r="CH12" s="24" t="n"/>
       <c r="CI12" s="24" t="n"/>
     </row>
-    <row r="13" hidden="1" s="47">
+    <row r="13" hidden="1" outlineLevel="1" s="47">
       <c r="A13" s="24" t="inlineStr">
         <is>
           <t>发展部模具拆分新增2</t>
@@ -4920,7 +4925,7 @@
       <c r="CH13" s="24" t="n"/>
       <c r="CI13" s="24" t="n"/>
     </row>
-    <row r="14" hidden="1" s="47">
+    <row r="14" hidden="1" outlineLevel="1" s="47">
       <c r="A14" s="24" t="n">
         <v>10</v>
       </c>
@@ -5209,7 +5214,7 @@
       <c r="CH14" s="24" t="n"/>
       <c r="CI14" s="24" t="n"/>
     </row>
-    <row r="15" hidden="1" customFormat="1" s="38">
+    <row r="15" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A15" s="24" t="n">
         <v>11</v>
       </c>
@@ -5490,7 +5495,7 @@
       <c r="CH15" s="36" t="n"/>
       <c r="CI15" s="36" t="n"/>
     </row>
-    <row r="16" hidden="1" s="47">
+    <row r="16" hidden="1" outlineLevel="1" s="47">
       <c r="A16" s="24" t="n">
         <v>12</v>
       </c>
@@ -5769,7 +5774,7 @@
       <c r="CH16" s="24" t="n"/>
       <c r="CI16" s="24" t="n"/>
     </row>
-    <row r="17" hidden="1" s="47">
+    <row r="17" hidden="1" outlineLevel="1" s="47">
       <c r="A17" s="24" t="n">
         <v>13</v>
       </c>
@@ -6040,7 +6045,7 @@
       <c r="CH17" s="24" t="n"/>
       <c r="CI17" s="24" t="n"/>
     </row>
-    <row r="18" hidden="1" customFormat="1" s="38">
+    <row r="18" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A18" s="24" t="n">
         <v>14</v>
       </c>
@@ -6313,7 +6318,7 @@
       <c r="CH18" s="36" t="n"/>
       <c r="CI18" s="36" t="n"/>
     </row>
-    <row r="19" hidden="1" s="47">
+    <row r="19" hidden="1" outlineLevel="1" s="47">
       <c r="A19" s="24" t="n">
         <v>15</v>
       </c>
@@ -6582,7 +6587,7 @@
       <c r="CH19" s="24" t="n"/>
       <c r="CI19" s="24" t="n"/>
     </row>
-    <row r="20" hidden="1" s="47">
+    <row r="20" hidden="1" outlineLevel="1" s="47">
       <c r="A20" s="24" t="n">
         <v>16</v>
       </c>
@@ -6851,7 +6856,7 @@
       <c r="CH20" s="24" t="n"/>
       <c r="CI20" s="24" t="n"/>
     </row>
-    <row r="21" hidden="1" s="47">
+    <row r="21" hidden="1" outlineLevel="1" s="47">
       <c r="A21" s="24" t="n">
         <v>17</v>
       </c>
@@ -7120,7 +7125,7 @@
       <c r="CH21" s="24" t="n"/>
       <c r="CI21" s="24" t="n"/>
     </row>
-    <row r="22" hidden="1" s="47">
+    <row r="22" hidden="1" outlineLevel="1" s="47">
       <c r="A22" s="24" t="n">
         <v>18</v>
       </c>
@@ -7389,7 +7394,7 @@
       <c r="CH22" s="24" t="n"/>
       <c r="CI22" s="24" t="n"/>
     </row>
-    <row r="23">
+    <row r="23" hidden="1" outlineLevel="1" s="47">
       <c r="A23" s="24" t="n">
         <v>19</v>
       </c>
@@ -7672,7 +7677,7 @@
       <c r="CH23" s="24" t="n"/>
       <c r="CI23" s="24" t="n"/>
     </row>
-    <row r="24">
+    <row r="24" hidden="1" outlineLevel="1" s="47">
       <c r="A24" s="24" t="n">
         <v>20</v>
       </c>
@@ -7945,7 +7950,7 @@
       <c r="CH24" s="24" t="n"/>
       <c r="CI24" s="24" t="n"/>
     </row>
-    <row r="25">
+    <row r="25" hidden="1" outlineLevel="1" s="47">
       <c r="A25" s="24" t="n">
         <v>21</v>
       </c>
@@ -8218,7 +8223,7 @@
       <c r="CH25" s="24" t="n"/>
       <c r="CI25" s="24" t="n"/>
     </row>
-    <row r="26" customFormat="1" s="38">
+    <row r="26" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A26" s="28" t="n">
         <v>22</v>
       </c>
@@ -8507,7 +8512,7 @@
       <c r="CH26" s="36" t="n"/>
       <c r="CI26" s="36" t="n"/>
     </row>
-    <row r="27" customFormat="1" s="38">
+    <row r="27" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A27" s="28" t="n">
         <v>23</v>
       </c>
@@ -8790,7 +8795,7 @@
       <c r="CH27" s="36" t="n"/>
       <c r="CI27" s="36" t="n"/>
     </row>
-    <row r="28" customFormat="1" s="38">
+    <row r="28" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A28" s="28" t="n">
         <v>24</v>
       </c>
@@ -9075,7 +9080,7 @@
       <c r="CH28" s="36" t="n"/>
       <c r="CI28" s="36" t="n"/>
     </row>
-    <row r="29" customFormat="1" s="38">
+    <row r="29" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A29" s="28" t="n">
         <v>25</v>
       </c>
@@ -9366,7 +9371,7 @@
       <c r="CH29" s="36" t="n"/>
       <c r="CI29" s="36" t="n"/>
     </row>
-    <row r="30" customFormat="1" s="38">
+    <row r="30" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A30" s="28" t="n">
         <v>26</v>
       </c>
@@ -9649,7 +9654,7 @@
       <c r="CH30" s="36" t="n"/>
       <c r="CI30" s="36" t="n"/>
     </row>
-    <row r="31" customFormat="1" s="38">
+    <row r="31" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A31" s="28" t="n">
         <v>27</v>
       </c>
@@ -9932,7 +9937,7 @@
       <c r="CH31" s="36" t="n"/>
       <c r="CI31" s="36" t="n"/>
     </row>
-    <row r="32" customFormat="1" s="38">
+    <row r="32" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A32" s="28" t="n">
         <v>28</v>
       </c>
@@ -10215,7 +10220,7 @@
       <c r="CH32" s="36" t="n"/>
       <c r="CI32" s="36" t="n"/>
     </row>
-    <row r="33" customFormat="1" s="38">
+    <row r="33" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A33" s="28" t="n">
         <v>29</v>
       </c>
@@ -10498,7 +10503,7 @@
       <c r="CH33" s="36" t="n"/>
       <c r="CI33" s="36" t="n"/>
     </row>
-    <row r="34" customFormat="1" s="38">
+    <row r="34" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A34" s="28" t="n">
         <v>30</v>
       </c>
@@ -10781,7 +10786,7 @@
       <c r="CH34" s="36" t="n"/>
       <c r="CI34" s="36" t="n"/>
     </row>
-    <row r="35" customFormat="1" s="38">
+    <row r="35" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A35" s="28" t="n">
         <v>31</v>
       </c>
@@ -11064,7 +11069,7 @@
       <c r="CH35" s="36" t="n"/>
       <c r="CI35" s="36" t="n"/>
     </row>
-    <row r="36" customFormat="1" s="38">
+    <row r="36" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A36" s="28" t="n">
         <v>32</v>
       </c>
@@ -11347,7 +11352,7 @@
       <c r="CH36" s="36" t="n"/>
       <c r="CI36" s="36" t="n"/>
     </row>
-    <row r="37" hidden="1" s="47">
+    <row r="37" hidden="1" outlineLevel="1" s="47">
       <c r="A37" s="24" t="n">
         <v>33</v>
       </c>
@@ -11620,7 +11625,7 @@
       <c r="CH37" s="24" t="n"/>
       <c r="CI37" s="24" t="n"/>
     </row>
-    <row r="38" hidden="1" s="47">
+    <row r="38" hidden="1" outlineLevel="1" s="47">
       <c r="A38" s="24" t="n">
         <v>34</v>
       </c>
@@ -11905,7 +11910,7 @@
       <c r="CH38" s="24" t="n"/>
       <c r="CI38" s="24" t="n"/>
     </row>
-    <row r="39" hidden="1" customFormat="1" s="38">
+    <row r="39" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A39" s="24" t="n">
         <v>35</v>
       </c>
@@ -12194,7 +12199,7 @@
       <c r="CH39" s="36" t="n"/>
       <c r="CI39" s="36" t="n"/>
     </row>
-    <row r="40" hidden="1" customFormat="1" s="38">
+    <row r="40" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A40" s="24" t="n">
         <v>36</v>
       </c>
@@ -12483,7 +12488,7 @@
       <c r="CH40" s="36" t="n"/>
       <c r="CI40" s="36" t="n"/>
     </row>
-    <row r="41" hidden="1" customFormat="1" s="38">
+    <row r="41" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A41" s="28" t="n">
         <v>37</v>
       </c>
@@ -12774,7 +12779,7 @@
       <c r="CH41" s="36" t="n"/>
       <c r="CI41" s="36" t="n"/>
     </row>
-    <row r="42" hidden="1" s="47">
+    <row r="42" hidden="1" outlineLevel="1" s="47">
       <c r="A42" s="24" t="n">
         <v>38</v>
       </c>
@@ -13047,7 +13052,7 @@
       <c r="CH42" s="24" t="n"/>
       <c r="CI42" s="24" t="n"/>
     </row>
-    <row r="43" hidden="1" s="47">
+    <row r="43" hidden="1" outlineLevel="1" s="47">
       <c r="A43" s="24" t="n">
         <v>39</v>
       </c>
@@ -13320,7 +13325,7 @@
       <c r="CH43" s="24" t="n"/>
       <c r="CI43" s="24" t="n"/>
     </row>
-    <row r="44" hidden="1" customFormat="1" s="38">
+    <row r="44" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A44" s="28" t="n">
         <v>40</v>
       </c>
@@ -13597,7 +13602,7 @@
       <c r="CH44" s="36" t="n"/>
       <c r="CI44" s="36" t="n"/>
     </row>
-    <row r="45" hidden="1" s="47">
+    <row r="45" hidden="1" outlineLevel="1" s="47">
       <c r="A45" s="28" t="n">
         <v>41</v>
       </c>
@@ -13872,7 +13877,7 @@
       <c r="CH45" s="24" t="n"/>
       <c r="CI45" s="24" t="n"/>
     </row>
-    <row r="46" hidden="1" s="47">
+    <row r="46" hidden="1" outlineLevel="1" s="47">
       <c r="A46" s="24" t="n">
         <v>42</v>
       </c>
@@ -14145,7 +14150,7 @@
       <c r="CH46" s="24" t="n"/>
       <c r="CI46" s="24" t="n"/>
     </row>
-    <row r="47" hidden="1" s="47">
+    <row r="47" hidden="1" outlineLevel="1" s="47">
       <c r="A47" s="24" t="n">
         <v>43</v>
       </c>
@@ -14418,7 +14423,7 @@
       <c r="CH47" s="24" t="n"/>
       <c r="CI47" s="24" t="n"/>
     </row>
-    <row r="48" hidden="1" s="47">
+    <row r="48" hidden="1" outlineLevel="1" s="47">
       <c r="A48" s="24" t="n">
         <v>44</v>
       </c>
@@ -14691,7 +14696,7 @@
       <c r="CH48" s="24" t="n"/>
       <c r="CI48" s="24" t="n"/>
     </row>
-    <row r="49" hidden="1" customFormat="1" s="38">
+    <row r="49" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A49" s="28" t="n">
         <v>45</v>
       </c>
@@ -14982,7 +14987,7 @@
       <c r="CH49" s="36" t="n"/>
       <c r="CI49" s="36" t="n"/>
     </row>
-    <row r="50" hidden="1" s="47">
+    <row r="50" hidden="1" outlineLevel="1" s="47">
       <c r="A50" s="24" t="n">
         <v>46</v>
       </c>
@@ -15255,7 +15260,7 @@
       <c r="CH50" s="24" t="n"/>
       <c r="CI50" s="24" t="n"/>
     </row>
-    <row r="51" hidden="1" customFormat="1" s="38">
+    <row r="51" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A51" s="28" t="n">
         <v>47</v>
       </c>
@@ -15532,7 +15537,7 @@
       <c r="CH51" s="36" t="n"/>
       <c r="CI51" s="36" t="n"/>
     </row>
-    <row r="52" hidden="1" s="47">
+    <row r="52" hidden="1" outlineLevel="1" s="47">
       <c r="A52" s="24" t="n">
         <v>48</v>
       </c>
@@ -15805,7 +15810,7 @@
       <c r="CH52" s="24" t="n"/>
       <c r="CI52" s="24" t="n"/>
     </row>
-    <row r="53" hidden="1" s="47">
+    <row r="53" hidden="1" outlineLevel="1" s="47">
       <c r="A53" s="24" t="n">
         <v>49</v>
       </c>
@@ -16074,7 +16079,7 @@
       <c r="CH53" s="24" t="n"/>
       <c r="CI53" s="24" t="n"/>
     </row>
-    <row r="54" hidden="1" s="47">
+    <row r="54" hidden="1" outlineLevel="1" s="47">
       <c r="A54" s="24" t="n">
         <v>50</v>
       </c>
@@ -16341,7 +16346,7 @@
       <c r="CH54" s="24" t="n"/>
       <c r="CI54" s="24" t="n"/>
     </row>
-    <row r="55" hidden="1" s="47">
+    <row r="55" hidden="1" outlineLevel="1" s="47">
       <c r="A55" s="24" t="n">
         <v>51</v>
       </c>
@@ -16608,7 +16613,7 @@
       <c r="CH55" s="24" t="n"/>
       <c r="CI55" s="24" t="n"/>
     </row>
-    <row r="56" hidden="1" s="47">
+    <row r="56" hidden="1" outlineLevel="1" s="47">
       <c r="A56" s="24" t="n">
         <v>52</v>
       </c>
@@ -16875,7 +16880,7 @@
       <c r="CH56" s="24" t="n"/>
       <c r="CI56" s="24" t="n"/>
     </row>
-    <row r="57" hidden="1" s="47">
+    <row r="57" hidden="1" outlineLevel="1" s="47">
       <c r="A57" s="24" t="n">
         <v>53</v>
       </c>
@@ -17144,7 +17149,7 @@
       <c r="CH57" s="24" t="n"/>
       <c r="CI57" s="24" t="n"/>
     </row>
-    <row r="58" hidden="1" s="47">
+    <row r="58" hidden="1" outlineLevel="1" s="47">
       <c r="A58" s="24" t="n">
         <v>54</v>
       </c>
@@ -17413,7 +17418,7 @@
       <c r="CH58" s="24" t="n"/>
       <c r="CI58" s="24" t="n"/>
     </row>
-    <row r="59" hidden="1" s="47">
+    <row r="59" hidden="1" outlineLevel="1" s="47">
       <c r="A59" s="24" t="n">
         <v>55</v>
       </c>
@@ -17682,7 +17687,7 @@
       <c r="CH59" s="24" t="n"/>
       <c r="CI59" s="24" t="n"/>
     </row>
-    <row r="60" hidden="1" s="47">
+    <row r="60" hidden="1" outlineLevel="1" s="47">
       <c r="A60" s="24" t="n">
         <v>56</v>
       </c>
@@ -17951,7 +17956,7 @@
       <c r="CH60" s="24" t="n"/>
       <c r="CI60" s="24" t="n"/>
     </row>
-    <row r="61" hidden="1" s="47">
+    <row r="61" hidden="1" outlineLevel="1" s="47">
       <c r="A61" s="24" t="n">
         <v>57</v>
       </c>
@@ -18220,7 +18225,7 @@
       <c r="CH61" s="24" t="n"/>
       <c r="CI61" s="24" t="n"/>
     </row>
-    <row r="62" hidden="1" s="47">
+    <row r="62" hidden="1" outlineLevel="1" s="47">
       <c r="A62" s="24" t="n">
         <v>58</v>
       </c>
@@ -18503,7 +18508,7 @@
       <c r="CH62" s="24" t="n"/>
       <c r="CI62" s="24" t="n"/>
     </row>
-    <row r="63" hidden="1" s="47">
+    <row r="63" hidden="1" outlineLevel="1" s="47">
       <c r="A63" s="24" t="n">
         <v>59</v>
       </c>
@@ -18786,7 +18791,7 @@
       <c r="CH63" s="24" t="n"/>
       <c r="CI63" s="24" t="n"/>
     </row>
-    <row r="64" hidden="1" s="47">
+    <row r="64" hidden="1" outlineLevel="1" s="47">
       <c r="A64" s="24" t="n">
         <v>60</v>
       </c>
@@ -19069,7 +19074,7 @@
       <c r="CH64" s="24" t="n"/>
       <c r="CI64" s="24" t="n"/>
     </row>
-    <row r="65" hidden="1" s="47">
+    <row r="65" outlineLevel="1" s="47">
       <c r="A65" s="24" t="n">
         <v>61</v>
       </c>
@@ -19179,7 +19184,7 @@
       <c r="W65" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X65" s="24" t="inlineStr">
+      <c r="X65" s="49" t="inlineStr">
         <is>
           <t>1455773-00-F</t>
         </is>
@@ -19257,15 +19262,15 @@
       <c r="AQ65" s="42" t="n">
         <v>0.7936</v>
       </c>
-      <c r="AR65" s="49">
+      <c r="AR65" s="50">
         <f>VLOOKUP(R65,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS65" s="49">
+      <c r="AS65" s="50">
         <f>VLOOKUP(R65,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT65" s="49">
+      <c r="AT65" s="50">
         <f>VLOOKUP(R65,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -19359,7 +19364,7 @@
       <c r="CH65" s="24" t="n"/>
       <c r="CI65" s="24" t="n"/>
     </row>
-    <row r="66" hidden="1" s="47">
+    <row r="66" outlineLevel="1" s="47">
       <c r="A66" s="24" t="n">
         <v>62</v>
       </c>
@@ -19467,7 +19472,7 @@
       <c r="W66" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X66" s="24" t="inlineStr">
+      <c r="X66" s="49" t="inlineStr">
         <is>
           <t>1478201-00-B</t>
         </is>
@@ -19543,15 +19548,15 @@
       <c r="AQ66" s="42" t="n">
         <v>0.828</v>
       </c>
-      <c r="AR66" s="49">
+      <c r="AR66" s="50">
         <f>VLOOKUP(R66,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS66" s="49">
+      <c r="AS66" s="50">
         <f>VLOOKUP(R66,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT66" s="49">
+      <c r="AT66" s="50">
         <f>VLOOKUP(R66,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -19645,7 +19650,7 @@
       <c r="CH66" s="24" t="n"/>
       <c r="CI66" s="24" t="n"/>
     </row>
-    <row r="67" hidden="1" s="47">
+    <row r="67" outlineLevel="1" s="47">
       <c r="A67" s="24" t="n">
         <v>63</v>
       </c>
@@ -19751,7 +19756,7 @@
       <c r="W67" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X67" s="24" t="inlineStr">
+      <c r="X67" s="49" t="inlineStr">
         <is>
           <t>1592843-00-A</t>
         </is>
@@ -19827,15 +19832,15 @@
       <c r="AQ67" s="42" t="n">
         <v>0.4032</v>
       </c>
-      <c r="AR67" s="49">
+      <c r="AR67" s="50">
         <f>VLOOKUP(R67,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS67" s="49">
+      <c r="AS67" s="50">
         <f>VLOOKUP(R67,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT67" s="49">
+      <c r="AT67" s="50">
         <f>VLOOKUP(R67,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -19929,7 +19934,7 @@
       <c r="CH67" s="24" t="n"/>
       <c r="CI67" s="24" t="n"/>
     </row>
-    <row r="68" hidden="1" s="47">
+    <row r="68" hidden="1" outlineLevel="1" s="47">
       <c r="A68" s="24" t="n">
         <v>64</v>
       </c>
@@ -20200,7 +20205,7 @@
       <c r="CH68" s="24" t="n"/>
       <c r="CI68" s="24" t="n"/>
     </row>
-    <row r="69" hidden="1" s="47">
+    <row r="69" hidden="1" outlineLevel="1" s="47">
       <c r="A69" s="24" t="n">
         <v>65</v>
       </c>
@@ -20471,7 +20476,7 @@
       <c r="CH69" s="24" t="n"/>
       <c r="CI69" s="24" t="n"/>
     </row>
-    <row r="70" hidden="1" s="47">
+    <row r="70" outlineLevel="1" s="47">
       <c r="A70" s="24" t="n">
         <v>66</v>
       </c>
@@ -20581,7 +20586,7 @@
       <c r="W70" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X70" s="24" t="inlineStr">
+      <c r="X70" s="49" t="inlineStr">
         <is>
           <t>1083849-00-E</t>
         </is>
@@ -20659,15 +20664,15 @@
       <c r="AQ70" s="42" t="n">
         <v>0.264</v>
       </c>
-      <c r="AR70" s="49">
+      <c r="AR70" s="50">
         <f>VLOOKUP(R70,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS70" s="49">
+      <c r="AS70" s="50">
         <f>VLOOKUP(R70,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT70" s="49">
+      <c r="AT70" s="50">
         <f>VLOOKUP(R70,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -20761,7 +20766,7 @@
       <c r="CH70" s="24" t="n"/>
       <c r="CI70" s="24" t="n"/>
     </row>
-    <row r="71" hidden="1" s="47">
+    <row r="71" hidden="1" outlineLevel="1" s="47">
       <c r="A71" s="24" t="n">
         <v>67</v>
       </c>
@@ -21044,7 +21049,7 @@
       <c r="CH71" s="24" t="n"/>
       <c r="CI71" s="24" t="n"/>
     </row>
-    <row r="72" hidden="1" s="47">
+    <row r="72" hidden="1" outlineLevel="1" s="47">
       <c r="A72" s="24" t="n">
         <v>68</v>
       </c>
@@ -21315,7 +21320,7 @@
       <c r="CH72" s="24" t="n"/>
       <c r="CI72" s="24" t="n"/>
     </row>
-    <row r="73" hidden="1" s="47">
+    <row r="73" hidden="1" outlineLevel="1" s="47">
       <c r="A73" s="24" t="n">
         <v>69</v>
       </c>
@@ -21596,7 +21601,7 @@
       <c r="CH73" s="24" t="n"/>
       <c r="CI73" s="24" t="n"/>
     </row>
-    <row r="74" hidden="1" s="47">
+    <row r="74" hidden="1" outlineLevel="1" s="47">
       <c r="A74" s="24" t="n">
         <v>70</v>
       </c>
@@ -21867,7 +21872,7 @@
       <c r="CH74" s="24" t="n"/>
       <c r="CI74" s="24" t="n"/>
     </row>
-    <row r="75" hidden="1" s="47">
+    <row r="75" hidden="1" outlineLevel="1" s="47">
       <c r="A75" s="24" t="n">
         <v>71</v>
       </c>
@@ -22136,7 +22141,7 @@
       <c r="CH75" s="24" t="n"/>
       <c r="CI75" s="24" t="n"/>
     </row>
-    <row r="76" hidden="1" s="47">
+    <row r="76" hidden="1" outlineLevel="1" s="47">
       <c r="A76" s="24" t="n">
         <v>72</v>
       </c>
@@ -22407,7 +22412,7 @@
       <c r="CH76" s="24" t="n"/>
       <c r="CI76" s="24" t="n"/>
     </row>
-    <row r="77" hidden="1" customFormat="1" s="31">
+    <row r="77" outlineLevel="1" customFormat="1" s="31">
       <c r="A77" s="29" t="n">
         <v>73</v>
       </c>
@@ -22517,7 +22522,7 @@
       <c r="W77" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="X77" s="24" t="inlineStr">
+      <c r="X77" s="49" t="inlineStr">
         <is>
           <t>1540065-00-C</t>
         </is>
@@ -22595,15 +22600,15 @@
       <c r="AQ77" s="42" t="n">
         <v>0.2664</v>
       </c>
-      <c r="AR77" s="49">
+      <c r="AR77" s="50">
         <f>VLOOKUP(R77,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS77" s="49">
+      <c r="AS77" s="50">
         <f>VLOOKUP(R77,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT77" s="49">
+      <c r="AT77" s="50">
         <f>VLOOKUP(R77,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -22697,7 +22702,7 @@
       <c r="CH77" s="29" t="n"/>
       <c r="CI77" s="29" t="n"/>
     </row>
-    <row r="78" hidden="1" s="47">
+    <row r="78" hidden="1" outlineLevel="1" s="47">
       <c r="A78" s="24" t="n">
         <v>74</v>
       </c>
@@ -22980,7 +22985,7 @@
       <c r="CH78" s="24" t="n"/>
       <c r="CI78" s="24" t="n"/>
     </row>
-    <row r="79" hidden="1" s="47">
+    <row r="79" hidden="1" outlineLevel="1" s="47">
       <c r="A79" s="24" t="n">
         <v>75</v>
       </c>
@@ -23251,7 +23256,7 @@
       <c r="CH79" s="24" t="n"/>
       <c r="CI79" s="24" t="n"/>
     </row>
-    <row r="80" hidden="1" s="47">
+    <row r="80" hidden="1" outlineLevel="1" s="47">
       <c r="A80" s="24" t="n">
         <v>76</v>
       </c>
@@ -23522,7 +23527,7 @@
       <c r="CH80" s="24" t="n"/>
       <c r="CI80" s="24" t="n"/>
     </row>
-    <row r="81" hidden="1" s="47">
+    <row r="81" hidden="1" outlineLevel="1" s="47">
       <c r="A81" s="24" t="n">
         <v>77</v>
       </c>
@@ -23805,7 +23810,7 @@
       <c r="CH81" s="24" t="n"/>
       <c r="CI81" s="24" t="n"/>
     </row>
-    <row r="82" hidden="1" s="47">
+    <row r="82" hidden="1" outlineLevel="1" s="47">
       <c r="A82" s="24" t="n">
         <v>78</v>
       </c>
@@ -24084,7 +24089,7 @@
       <c r="CH82" s="24" t="n"/>
       <c r="CI82" s="24" t="n"/>
     </row>
-    <row r="83" hidden="1" s="47">
+    <row r="83" hidden="1" outlineLevel="1" s="47">
       <c r="A83" s="24" t="n">
         <v>79</v>
       </c>
@@ -24355,7 +24360,7 @@
       <c r="CH83" s="24" t="n"/>
       <c r="CI83" s="24" t="n"/>
     </row>
-    <row r="84" hidden="1" s="47">
+    <row r="84" hidden="1" outlineLevel="1" s="47">
       <c r="A84" s="24" t="n">
         <v>80</v>
       </c>
@@ -24624,7 +24629,7 @@
       <c r="CH84" s="24" t="n"/>
       <c r="CI84" s="24" t="n"/>
     </row>
-    <row r="85" hidden="1" s="47">
+    <row r="85" outlineLevel="1" s="47">
       <c r="A85" s="28" t="n">
         <v>81</v>
       </c>
@@ -24732,7 +24737,7 @@
       <c r="W85" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X85" s="24" t="inlineStr">
+      <c r="X85" s="49" t="inlineStr">
         <is>
           <t>1547595-A2-F</t>
         </is>
@@ -24798,15 +24803,15 @@
       <c r="AQ85" s="42" t="n">
         <v>1.3104</v>
       </c>
-      <c r="AR85" s="49">
+      <c r="AR85" s="50">
         <f>VLOOKUP(R85,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS85" s="49">
+      <c r="AS85" s="50">
         <f>VLOOKUP(R85,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT85" s="49">
+      <c r="AT85" s="50">
         <f>VLOOKUP(R85,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -24900,7 +24905,7 @@
       <c r="CH85" s="24" t="n"/>
       <c r="CI85" s="24" t="n"/>
     </row>
-    <row r="86" hidden="1" s="47">
+    <row r="86" outlineLevel="1" s="47">
       <c r="A86" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增</t>
@@ -25010,7 +25015,7 @@
       <c r="W86" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X86" s="24" t="inlineStr">
+      <c r="X86" s="49" t="inlineStr">
         <is>
           <t>1547595-A2-F</t>
         </is>
@@ -25076,15 +25081,15 @@
       <c r="AQ86" s="42" t="n">
         <v>2.2464</v>
       </c>
-      <c r="AR86" s="49">
+      <c r="AR86" s="50">
         <f>VLOOKUP(R86,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS86" s="49">
+      <c r="AS86" s="50">
         <f>VLOOKUP(R86,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT86" s="49">
+      <c r="AT86" s="50">
         <f>VLOOKUP(R86,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -25178,7 +25183,7 @@
       <c r="CH86" s="24" t="n"/>
       <c r="CI86" s="24" t="n"/>
     </row>
-    <row r="87" hidden="1" s="47">
+    <row r="87" hidden="1" outlineLevel="1" s="47">
       <c r="A87" s="24" t="n">
         <v>82</v>
       </c>
@@ -25449,7 +25454,7 @@
       <c r="CH87" s="24" t="n"/>
       <c r="CI87" s="24" t="n"/>
     </row>
-    <row r="88" hidden="1" s="47">
+    <row r="88" hidden="1" outlineLevel="1" s="47">
       <c r="A88" s="24" t="n">
         <v>83</v>
       </c>
@@ -25720,7 +25725,7 @@
       <c r="CH88" s="24" t="n"/>
       <c r="CI88" s="24" t="n"/>
     </row>
-    <row r="89" hidden="1" s="47">
+    <row r="89" hidden="1" outlineLevel="1" s="47">
       <c r="A89" s="24" t="n">
         <v>84</v>
       </c>
@@ -25991,7 +25996,7 @@
       <c r="CH89" s="24" t="n"/>
       <c r="CI89" s="24" t="n"/>
     </row>
-    <row r="90" hidden="1" s="47">
+    <row r="90" hidden="1" outlineLevel="1" s="47">
       <c r="A90" s="24" t="n">
         <v>85</v>
       </c>
@@ -26262,7 +26267,7 @@
       <c r="CH90" s="24" t="n"/>
       <c r="CI90" s="24" t="n"/>
     </row>
-    <row r="91" hidden="1" s="47">
+    <row r="91" hidden="1" outlineLevel="1" s="47">
       <c r="A91" s="24" t="n">
         <v>86</v>
       </c>
@@ -26533,7 +26538,7 @@
       <c r="CH91" s="24" t="n"/>
       <c r="CI91" s="24" t="n"/>
     </row>
-    <row r="92" hidden="1" s="47">
+    <row r="92" hidden="1" outlineLevel="1" s="47">
       <c r="A92" s="24" t="n">
         <v>87</v>
       </c>
@@ -26804,7 +26809,7 @@
       <c r="CH92" s="24" t="n"/>
       <c r="CI92" s="24" t="n"/>
     </row>
-    <row r="93" hidden="1" s="47">
+    <row r="93" hidden="1" outlineLevel="1" s="47">
       <c r="A93" s="24" t="n">
         <v>88</v>
       </c>
@@ -27075,7 +27080,7 @@
       <c r="CH93" s="24" t="n"/>
       <c r="CI93" s="24" t="n"/>
     </row>
-    <row r="94" hidden="1" s="47">
+    <row r="94" hidden="1" outlineLevel="1" s="47">
       <c r="A94" s="24" t="n">
         <v>89</v>
       </c>
@@ -27350,7 +27355,7 @@
       <c r="CH94" s="24" t="n"/>
       <c r="CI94" s="24" t="n"/>
     </row>
-    <row r="95" hidden="1" s="47">
+    <row r="95" hidden="1" outlineLevel="1" s="47">
       <c r="A95" s="24" t="n">
         <v>90</v>
       </c>
@@ -27633,7 +27638,7 @@
       <c r="CH95" s="24" t="n"/>
       <c r="CI95" s="24" t="n"/>
     </row>
-    <row r="96" hidden="1" s="47">
+    <row r="96" hidden="1" outlineLevel="1" s="47">
       <c r="A96" s="24" t="n">
         <v>91</v>
       </c>
@@ -27904,7 +27909,7 @@
       <c r="CH96" s="24" t="n"/>
       <c r="CI96" s="24" t="n"/>
     </row>
-    <row r="97" hidden="1" s="47">
+    <row r="97" hidden="1" outlineLevel="1" s="47">
       <c r="A97" s="24" t="n">
         <v>92</v>
       </c>
@@ -28173,7 +28178,7 @@
       <c r="CH97" s="24" t="n"/>
       <c r="CI97" s="24" t="n"/>
     </row>
-    <row r="98" hidden="1" s="47">
+    <row r="98" outlineLevel="1" s="47">
       <c r="A98" s="24" t="n">
         <v>93</v>
       </c>
@@ -28281,7 +28286,7 @@
       <c r="W98" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X98" s="24" t="inlineStr">
+      <c r="X98" s="49" t="inlineStr">
         <is>
           <t>1752119-03-B</t>
         </is>
@@ -28347,15 +28352,15 @@
       <c r="AQ98" s="42" t="n">
         <v>0.6552</v>
       </c>
-      <c r="AR98" s="49">
+      <c r="AR98" s="50">
         <f>VLOOKUP(R98,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS98" s="49">
+      <c r="AS98" s="50">
         <f>VLOOKUP(R98,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT98" s="49">
+      <c r="AT98" s="50">
         <f>VLOOKUP(R98,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -28449,7 +28454,7 @@
       <c r="CH98" s="24" t="n"/>
       <c r="CI98" s="24" t="n"/>
     </row>
-    <row r="99" hidden="1" s="47">
+    <row r="99" hidden="1" outlineLevel="1" s="47">
       <c r="A99" s="24" t="n">
         <v>94</v>
       </c>
@@ -28720,7 +28725,7 @@
       <c r="CH99" s="24" t="n"/>
       <c r="CI99" s="24" t="n"/>
     </row>
-    <row r="100" hidden="1" s="47">
+    <row r="100" hidden="1" outlineLevel="1" s="47">
       <c r="A100" s="24" t="n">
         <v>95</v>
       </c>
@@ -28991,7 +28996,7 @@
       <c r="CH100" s="24" t="n"/>
       <c r="CI100" s="24" t="n"/>
     </row>
-    <row r="101" hidden="1" s="47">
+    <row r="101" hidden="1" outlineLevel="1" s="47">
       <c r="A101" s="24" t="n">
         <v>96</v>
       </c>
@@ -29262,7 +29267,7 @@
       <c r="CH101" s="24" t="n"/>
       <c r="CI101" s="24" t="n"/>
     </row>
-    <row r="102" hidden="1" s="47">
+    <row r="102" hidden="1" outlineLevel="1" s="47">
       <c r="A102" s="24" t="n">
         <v>97</v>
       </c>
@@ -29529,7 +29534,7 @@
       <c r="CH102" s="24" t="n"/>
       <c r="CI102" s="24" t="n"/>
     </row>
-    <row r="103" hidden="1" s="47">
+    <row r="103" hidden="1" outlineLevel="1" s="47">
       <c r="A103" s="24" t="n">
         <v>98</v>
       </c>
@@ -29798,7 +29803,7 @@
       <c r="CH103" s="24" t="n"/>
       <c r="CI103" s="24" t="n"/>
     </row>
-    <row r="104" hidden="1" customFormat="1" s="38">
+    <row r="104" outlineLevel="1" customFormat="1" s="38">
       <c r="A104" s="36" t="n">
         <v>99</v>
       </c>
@@ -29906,7 +29911,7 @@
       <c r="W104" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="X104" s="37" t="inlineStr">
+      <c r="X104" s="51" t="inlineStr">
         <is>
           <t>1096215-00-C</t>
         </is>
@@ -29984,15 +29989,15 @@
       <c r="AQ104" s="42" t="n">
         <v>1.652</v>
       </c>
-      <c r="AR104" s="49">
+      <c r="AR104" s="50">
         <f>VLOOKUP(R104,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS104" s="49">
+      <c r="AS104" s="50">
         <f>VLOOKUP(R104,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT104" s="49">
+      <c r="AT104" s="50">
         <f>VLOOKUP(R104,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -30086,7 +30091,7 @@
       <c r="CH104" s="36" t="n"/>
       <c r="CI104" s="36" t="n"/>
     </row>
-    <row r="105" hidden="1" s="47">
+    <row r="105" hidden="1" outlineLevel="1" s="47">
       <c r="A105" s="24" t="n">
         <v>100</v>
       </c>
@@ -30355,7 +30360,7 @@
       <c r="CH105" s="24" t="n"/>
       <c r="CI105" s="24" t="n"/>
     </row>
-    <row r="106" hidden="1" s="47">
+    <row r="106" hidden="1" outlineLevel="1" s="47">
       <c r="A106" s="24" t="n">
         <v>101</v>
       </c>
@@ -30626,7 +30631,7 @@
       <c r="CH106" s="24" t="n"/>
       <c r="CI106" s="24" t="n"/>
     </row>
-    <row r="107" hidden="1" s="47">
+    <row r="107" hidden="1" outlineLevel="1" s="47">
       <c r="A107" s="24" t="n">
         <v>102</v>
       </c>
@@ -30895,7 +30900,7 @@
       <c r="CH107" s="24" t="n"/>
       <c r="CI107" s="24" t="n"/>
     </row>
-    <row r="108" hidden="1" s="47">
+    <row r="108" hidden="1" outlineLevel="1" s="47">
       <c r="A108" s="24" t="n">
         <v>103</v>
       </c>
@@ -31176,7 +31181,7 @@
       <c r="CH108" s="24" t="n"/>
       <c r="CI108" s="24" t="n"/>
     </row>
-    <row r="109" hidden="1" s="47">
+    <row r="109" outlineLevel="1" s="47">
       <c r="A109" s="28" t="n">
         <v>104</v>
       </c>
@@ -31282,7 +31287,7 @@
       <c r="W109" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X109" s="24" t="inlineStr">
+      <c r="X109" s="49" t="inlineStr">
         <is>
           <t>1108202-10-M</t>
         </is>
@@ -31360,15 +31365,15 @@
       <c r="AQ109" s="42" t="n">
         <v>8</v>
       </c>
-      <c r="AR109" s="49">
+      <c r="AR109" s="50">
         <f>VLOOKUP(R109,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS109" s="49">
+      <c r="AS109" s="50">
         <f>VLOOKUP(R109,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT109" s="49">
+      <c r="AT109" s="50">
         <f>VLOOKUP(R109,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -31462,7 +31467,7 @@
       <c r="CH109" s="24" t="n"/>
       <c r="CI109" s="24" t="n"/>
     </row>
-    <row r="110" hidden="1" s="47">
+    <row r="110" hidden="1" outlineLevel="1" s="47">
       <c r="A110" s="24" t="n">
         <v>105</v>
       </c>
@@ -31731,7 +31736,7 @@
       <c r="CH110" s="24" t="n"/>
       <c r="CI110" s="24" t="n"/>
     </row>
-    <row r="111" hidden="1" s="47">
+    <row r="111" hidden="1" outlineLevel="1" s="47">
       <c r="A111" s="24" t="n">
         <v>106</v>
       </c>
@@ -32000,7 +32005,7 @@
       <c r="CH111" s="24" t="n"/>
       <c r="CI111" s="24" t="n"/>
     </row>
-    <row r="112" hidden="1" customFormat="1" s="38">
+    <row r="112" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A112" s="36" t="n">
         <v>107</v>
       </c>
@@ -32281,7 +32286,7 @@
       <c r="CH112" s="36" t="n"/>
       <c r="CI112" s="36" t="n"/>
     </row>
-    <row r="113" hidden="1" s="47">
+    <row r="113" hidden="1" outlineLevel="1" s="47">
       <c r="A113" s="24" t="n">
         <v>108</v>
       </c>
@@ -32550,7 +32555,7 @@
       <c r="CH113" s="24" t="n"/>
       <c r="CI113" s="24" t="n"/>
     </row>
-    <row r="114" hidden="1" s="47">
+    <row r="114" hidden="1" outlineLevel="1" s="47">
       <c r="A114" s="24" t="n">
         <v>109</v>
       </c>
@@ -32821,7 +32826,7 @@
       <c r="CH114" s="24" t="n"/>
       <c r="CI114" s="24" t="n"/>
     </row>
-    <row r="115" hidden="1" customFormat="1" s="38">
+    <row r="115" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A115" s="36" t="n">
         <v>110</v>
       </c>
@@ -33090,7 +33095,7 @@
       <c r="CH115" s="36" t="n"/>
       <c r="CI115" s="36" t="n"/>
     </row>
-    <row r="116" hidden="1" s="47">
+    <row r="116" hidden="1" outlineLevel="1" s="47">
       <c r="A116" s="24" t="n">
         <v>111</v>
       </c>
@@ -33359,7 +33364,7 @@
       <c r="CH116" s="24" t="n"/>
       <c r="CI116" s="24" t="n"/>
     </row>
-    <row r="117" hidden="1" customFormat="1" s="38">
+    <row r="117" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A117" s="36" t="n">
         <v>112</v>
       </c>
@@ -33640,7 +33645,7 @@
       <c r="CH117" s="36" t="n"/>
       <c r="CI117" s="36" t="n"/>
     </row>
-    <row r="118" hidden="1" s="47">
+    <row r="118" hidden="1" outlineLevel="1" s="47">
       <c r="A118" s="24" t="n">
         <v>113</v>
       </c>
@@ -33911,7 +33916,7 @@
       <c r="CH118" s="24" t="n"/>
       <c r="CI118" s="24" t="n"/>
     </row>
-    <row r="119" hidden="1" s="47">
+    <row r="119" hidden="1" outlineLevel="1" s="47">
       <c r="A119" s="24" t="n">
         <v>114</v>
       </c>
@@ -34182,7 +34187,7 @@
       <c r="CH119" s="24" t="n"/>
       <c r="CI119" s="24" t="n"/>
     </row>
-    <row r="120" hidden="1" s="47">
+    <row r="120" hidden="1" outlineLevel="1" s="47">
       <c r="A120" s="24" t="n">
         <v>115</v>
       </c>
@@ -34453,7 +34458,7 @@
       <c r="CH120" s="24" t="n"/>
       <c r="CI120" s="24" t="n"/>
     </row>
-    <row r="121" hidden="1" s="47">
+    <row r="121" hidden="1" outlineLevel="1" s="47">
       <c r="A121" s="24" t="n">
         <v>116</v>
       </c>
@@ -34722,7 +34727,7 @@
       <c r="CH121" s="24" t="n"/>
       <c r="CI121" s="24" t="n"/>
     </row>
-    <row r="122" hidden="1" s="47">
+    <row r="122" hidden="1" outlineLevel="1" s="47">
       <c r="A122" s="24" t="n">
         <v>117</v>
       </c>
@@ -34993,7 +34998,7 @@
       <c r="CH122" s="24" t="n"/>
       <c r="CI122" s="24" t="n"/>
     </row>
-    <row r="123" hidden="1" s="47">
+    <row r="123" hidden="1" outlineLevel="1" s="47">
       <c r="A123" s="24" t="n">
         <v>118</v>
       </c>
@@ -35264,7 +35269,7 @@
       <c r="CH123" s="24" t="n"/>
       <c r="CI123" s="24" t="n"/>
     </row>
-    <row r="124" hidden="1" s="47">
+    <row r="124" hidden="1" outlineLevel="1" s="47">
       <c r="A124" s="24" t="n">
         <v>119</v>
       </c>
@@ -35533,7 +35538,7 @@
       <c r="CH124" s="24" t="n"/>
       <c r="CI124" s="24" t="n"/>
     </row>
-    <row r="125" hidden="1" customFormat="1" s="38">
+    <row r="125" outlineLevel="1" customFormat="1" s="38">
       <c r="A125" s="36" t="n">
         <v>120</v>
       </c>
@@ -35641,7 +35646,7 @@
       <c r="W125" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="X125" s="36" t="inlineStr">
+      <c r="X125" s="49" t="inlineStr">
         <is>
           <t>1631640-00-A</t>
         </is>
@@ -35707,7 +35712,7 @@
       <c r="AQ125" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AR125" s="49">
+      <c r="AR125" s="50">
         <f>VLOOKUP(R125,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
@@ -35807,7 +35812,7 @@
       <c r="CH125" s="36" t="n"/>
       <c r="CI125" s="36" t="n"/>
     </row>
-    <row r="126" hidden="1" customFormat="1" s="38">
+    <row r="126" outlineLevel="1" customFormat="1" s="38">
       <c r="A126" s="36" t="n">
         <v>121</v>
       </c>
@@ -35913,7 +35918,7 @@
       <c r="W126" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="X126" s="36" t="inlineStr">
+      <c r="X126" s="49" t="inlineStr">
         <is>
           <t>1631640-00-B</t>
         </is>
@@ -35980,11 +35985,11 @@
       <c r="AR126" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AS126" s="49">
+      <c r="AS126" s="50">
         <f>VLOOKUP(R126,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT126" s="49">
+      <c r="AT126" s="50">
         <f>VLOOKUP(R126,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -36078,7 +36083,7 @@
       <c r="CH126" s="36" t="n"/>
       <c r="CI126" s="36" t="n"/>
     </row>
-    <row r="127" hidden="1" s="47">
+    <row r="127" hidden="1" outlineLevel="1" s="47">
       <c r="A127" s="24" t="n">
         <v>122</v>
       </c>
@@ -36347,7 +36352,7 @@
       <c r="CH127" s="24" t="n"/>
       <c r="CI127" s="24" t="n"/>
     </row>
-    <row r="128" hidden="1" s="47">
+    <row r="128" hidden="1" outlineLevel="1" s="47">
       <c r="A128" s="24" t="n">
         <v>123</v>
       </c>
@@ -36616,7 +36621,7 @@
       <c r="CH128" s="24" t="n"/>
       <c r="CI128" s="24" t="n"/>
     </row>
-    <row r="129" hidden="1" s="47">
+    <row r="129" hidden="1" outlineLevel="1" s="47">
       <c r="A129" s="24" t="n">
         <v>124</v>
       </c>
@@ -36883,7 +36888,7 @@
       <c r="CH129" s="24" t="n"/>
       <c r="CI129" s="24" t="n"/>
     </row>
-    <row r="130" hidden="1" customFormat="1" s="38">
+    <row r="130" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A130" s="36" t="n">
         <v>125</v>
       </c>
@@ -37152,7 +37157,7 @@
       <c r="CH130" s="36" t="n"/>
       <c r="CI130" s="36" t="n"/>
     </row>
-    <row r="131" hidden="1" s="47">
+    <row r="131" outlineLevel="1" s="47">
       <c r="A131" s="24" t="n">
         <v>126</v>
       </c>
@@ -37260,7 +37265,7 @@
       <c r="W131" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X131" s="24" t="inlineStr">
+      <c r="X131" s="49" t="inlineStr">
         <is>
           <t>1657603-01-E</t>
         </is>
@@ -37326,15 +37331,15 @@
       <c r="AQ131" s="42" t="n">
         <v>1.16</v>
       </c>
-      <c r="AR131" s="49">
+      <c r="AR131" s="50">
         <f>VLOOKUP(R131,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS131" s="49">
+      <c r="AS131" s="50">
         <f>VLOOKUP(R131,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT131" s="49">
+      <c r="AT131" s="50">
         <f>VLOOKUP(R131,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -37428,7 +37433,7 @@
       <c r="CH131" s="24" t="n"/>
       <c r="CI131" s="24" t="n"/>
     </row>
-    <row r="132" hidden="1" s="47">
+    <row r="132" hidden="1" outlineLevel="1" s="47">
       <c r="A132" s="24" t="n">
         <v>127</v>
       </c>
@@ -37697,7 +37702,7 @@
       <c r="CH132" s="24" t="n"/>
       <c r="CI132" s="24" t="n"/>
     </row>
-    <row r="133" hidden="1" s="47">
+    <row r="133" hidden="1" outlineLevel="1" s="47">
       <c r="A133" s="24" t="n">
         <v>128</v>
       </c>
@@ -37966,7 +37971,7 @@
       <c r="CH133" s="24" t="n"/>
       <c r="CI133" s="24" t="n"/>
     </row>
-    <row r="134" hidden="1" s="47">
+    <row r="134" hidden="1" outlineLevel="1" s="47">
       <c r="A134" s="24" t="n">
         <v>129</v>
       </c>
@@ -38235,7 +38240,7 @@
       <c r="CH134" s="24" t="n"/>
       <c r="CI134" s="24" t="n"/>
     </row>
-    <row r="135" hidden="1" s="47">
+    <row r="135" hidden="1" outlineLevel="1" s="47">
       <c r="A135" s="24" t="n">
         <v>130</v>
       </c>
@@ -38504,7 +38509,7 @@
       <c r="CH135" s="24" t="n"/>
       <c r="CI135" s="24" t="n"/>
     </row>
-    <row r="136" hidden="1" s="47">
+    <row r="136" hidden="1" outlineLevel="1" s="47">
       <c r="A136" s="24" t="n">
         <v>131</v>
       </c>
@@ -38771,7 +38776,7 @@
       <c r="CH136" s="24" t="n"/>
       <c r="CI136" s="24" t="n"/>
     </row>
-    <row r="137" hidden="1" s="47">
+    <row r="137" outlineLevel="1" s="47">
       <c r="A137" s="24" t="n">
         <v>132</v>
       </c>
@@ -38879,7 +38884,7 @@
       <c r="W137" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X137" s="24" t="inlineStr">
+      <c r="X137" s="49" t="inlineStr">
         <is>
           <t>1693247-20-C</t>
         </is>
@@ -38949,15 +38954,15 @@
       <c r="AQ137" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="AR137" s="49">
+      <c r="AR137" s="50">
         <f>VLOOKUP(R137,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS137" s="49">
+      <c r="AS137" s="50">
         <f>VLOOKUP(R137,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT137" s="49">
+      <c r="AT137" s="50">
         <f>VLOOKUP(R137,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -39051,7 +39056,7 @@
       <c r="CH137" s="24" t="n"/>
       <c r="CI137" s="24" t="n"/>
     </row>
-    <row r="138" hidden="1" s="47">
+    <row r="138" hidden="1" outlineLevel="1" s="47">
       <c r="A138" s="24" t="n">
         <v>133</v>
       </c>
@@ -39324,7 +39329,7 @@
       <c r="CH138" s="24" t="n"/>
       <c r="CI138" s="24" t="n"/>
     </row>
-    <row r="139" hidden="1" s="47">
+    <row r="139" hidden="1" outlineLevel="1" s="47">
       <c r="A139" s="24" t="n">
         <v>134</v>
       </c>
@@ -39593,7 +39598,7 @@
       <c r="CH139" s="24" t="n"/>
       <c r="CI139" s="24" t="n"/>
     </row>
-    <row r="140" hidden="1" s="47">
+    <row r="140" hidden="1" outlineLevel="1" s="47">
       <c r="A140" s="24" t="n">
         <v>135</v>
       </c>
@@ -39862,7 +39867,7 @@
       <c r="CH140" s="24" t="n"/>
       <c r="CI140" s="24" t="n"/>
     </row>
-    <row r="141" hidden="1" s="47">
+    <row r="141" hidden="1" outlineLevel="1" s="47">
       <c r="A141" s="24" t="n">
         <v>136</v>
       </c>
@@ -40135,7 +40140,7 @@
       <c r="CH141" s="24" t="n"/>
       <c r="CI141" s="24" t="n"/>
     </row>
-    <row r="142" hidden="1" s="47">
+    <row r="142" hidden="1" outlineLevel="1" s="47">
       <c r="A142" s="24" t="n">
         <v>137</v>
       </c>
@@ -40404,7 +40409,7 @@
       <c r="CH142" s="24" t="n"/>
       <c r="CI142" s="24" t="n"/>
     </row>
-    <row r="143" hidden="1" s="47">
+    <row r="143" hidden="1" outlineLevel="1" s="47">
       <c r="A143" s="24" t="n">
         <v>138</v>
       </c>
@@ -40677,7 +40682,7 @@
       <c r="CH143" s="24" t="n"/>
       <c r="CI143" s="24" t="n"/>
     </row>
-    <row r="144" hidden="1" s="47">
+    <row r="144" hidden="1" outlineLevel="1" s="47">
       <c r="A144" s="24" t="n">
         <v>139</v>
       </c>
@@ -40946,7 +40951,7 @@
       <c r="CH144" s="24" t="n"/>
       <c r="CI144" s="24" t="n"/>
     </row>
-    <row r="145" hidden="1" customFormat="1" s="38">
+    <row r="145" outlineLevel="1" customFormat="1" s="38">
       <c r="A145" s="36" t="n">
         <v>140</v>
       </c>
@@ -41052,7 +41057,7 @@
       <c r="W145" s="36" t="n">
         <v>0</v>
       </c>
-      <c r="X145" s="36" t="inlineStr">
+      <c r="X145" s="49" t="inlineStr">
         <is>
           <t>1716767-00-A</t>
         </is>
@@ -41116,15 +41121,15 @@
       <c r="AQ145" s="42" t="n">
         <v>8.064</v>
       </c>
-      <c r="AR145" s="49">
+      <c r="AR145" s="50">
         <f>VLOOKUP(R145,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS145" s="49">
+      <c r="AS145" s="50">
         <f>VLOOKUP(R145,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT145" s="49">
+      <c r="AT145" s="50">
         <f>VLOOKUP(R145,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -41218,7 +41223,7 @@
       <c r="CH145" s="36" t="n"/>
       <c r="CI145" s="36" t="n"/>
     </row>
-    <row r="146" hidden="1" s="47">
+    <row r="146" hidden="1" outlineLevel="1" s="47">
       <c r="A146" s="24" t="n">
         <v>141</v>
       </c>
@@ -41487,7 +41492,7 @@
       <c r="CH146" s="24" t="n"/>
       <c r="CI146" s="24" t="n"/>
     </row>
-    <row r="147" hidden="1" s="47">
+    <row r="147" outlineLevel="1" s="47">
       <c r="A147" s="24" t="n">
         <v>142</v>
       </c>
@@ -41595,7 +41600,7 @@
       <c r="W147" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X147" s="24" t="inlineStr">
+      <c r="X147" s="49" t="inlineStr">
         <is>
           <t>1739701-00-B</t>
         </is>
@@ -41665,15 +41670,15 @@
       <c r="AQ147" s="42" t="n">
         <v>0.024</v>
       </c>
-      <c r="AR147" s="49">
+      <c r="AR147" s="50">
         <f>VLOOKUP(R147,'工具sheet_A'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AS147" s="49">
+      <c r="AS147" s="50">
         <f>VLOOKUP(R147,'工具sheet_B'!B:F,4,0)</f>
         <v/>
       </c>
-      <c r="AT147" s="49">
+      <c r="AT147" s="50">
         <f>VLOOKUP(R147,'工具sheet_C'!B:F,4,0)</f>
         <v/>
       </c>
@@ -41767,7 +41772,7 @@
       <c r="CH147" s="24" t="n"/>
       <c r="CI147" s="24" t="n"/>
     </row>
-    <row r="148" hidden="1" s="47">
+    <row r="148" hidden="1" outlineLevel="1" s="47">
       <c r="A148" s="24" t="n">
         <v>143</v>
       </c>
@@ -42036,7 +42041,7 @@
       <c r="CH148" s="24" t="n"/>
       <c r="CI148" s="24" t="n"/>
     </row>
-    <row r="149" hidden="1" s="47">
+    <row r="149" hidden="1" outlineLevel="1" s="47">
       <c r="A149" s="24" t="n">
         <v>144</v>
       </c>
@@ -42305,7 +42310,7 @@
       <c r="CH149" s="24" t="n"/>
       <c r="CI149" s="24" t="n"/>
     </row>
-    <row r="150" hidden="1" s="47">
+    <row r="150" hidden="1" outlineLevel="1" s="47">
       <c r="A150" s="24" t="n">
         <v>145</v>
       </c>
@@ -42574,7 +42579,7 @@
       <c r="CH150" s="24" t="n"/>
       <c r="CI150" s="24" t="n"/>
     </row>
-    <row r="151" hidden="1" s="47">
+    <row r="151" hidden="1" outlineLevel="1" s="47">
       <c r="A151" s="24" t="n">
         <v>146</v>
       </c>
@@ -42843,7 +42848,7 @@
       <c r="CH151" s="24" t="n"/>
       <c r="CI151" s="24" t="n"/>
     </row>
-    <row r="152" hidden="1" s="47">
+    <row r="152" hidden="1" outlineLevel="1" s="47">
       <c r="A152" s="24" t="n">
         <v>147</v>
       </c>
@@ -43112,7 +43117,7 @@
       <c r="CH152" s="24" t="n"/>
       <c r="CI152" s="24" t="n"/>
     </row>
-    <row r="153" hidden="1" s="47">
+    <row r="153" hidden="1" outlineLevel="1" s="47">
       <c r="A153" s="24" t="n">
         <v>148</v>
       </c>
@@ -43381,7 +43386,7 @@
       <c r="CH153" s="24" t="n"/>
       <c r="CI153" s="24" t="n"/>
     </row>
-    <row r="154" hidden="1" s="47">
+    <row r="154" hidden="1" outlineLevel="1" s="47">
       <c r="A154" s="24" t="n">
         <v>149</v>
       </c>
@@ -43650,7 +43655,7 @@
       <c r="CH154" s="24" t="n"/>
       <c r="CI154" s="24" t="n"/>
     </row>
-    <row r="155" hidden="1" s="47">
+    <row r="155" hidden="1" outlineLevel="1" s="47">
       <c r="A155" s="24" t="n">
         <v>150</v>
       </c>
@@ -43919,7 +43924,7 @@
       <c r="CH155" s="24" t="n"/>
       <c r="CI155" s="24" t="n"/>
     </row>
-    <row r="156" hidden="1" s="47">
+    <row r="156" hidden="1" outlineLevel="1" s="47">
       <c r="A156" s="24" t="n">
         <v>151</v>
       </c>
@@ -44186,7 +44191,7 @@
       <c r="CH156" s="24" t="n"/>
       <c r="CI156" s="24" t="n"/>
     </row>
-    <row r="157" hidden="1" s="47">
+    <row r="157" hidden="1" outlineLevel="1" s="47">
       <c r="A157" s="24" t="n">
         <v>152</v>
       </c>
@@ -44453,7 +44458,7 @@
       <c r="CH157" s="24" t="n"/>
       <c r="CI157" s="24" t="n"/>
     </row>
-    <row r="158" hidden="1" s="47">
+    <row r="158" hidden="1" outlineLevel="1" s="47">
       <c r="A158" s="24" t="n">
         <v>153</v>
       </c>
@@ -44720,7 +44725,7 @@
       <c r="CH158" s="24" t="n"/>
       <c r="CI158" s="24" t="n"/>
     </row>
-    <row r="159" hidden="1" s="47">
+    <row r="159" hidden="1" outlineLevel="1" s="47">
       <c r="A159" s="24" t="n">
         <v>154</v>
       </c>
@@ -44987,7 +44992,7 @@
       <c r="CH159" s="24" t="n"/>
       <c r="CI159" s="24" t="n"/>
     </row>
-    <row r="160" hidden="1" s="47">
+    <row r="160" hidden="1" outlineLevel="1" s="47">
       <c r="A160" s="24" t="n">
         <v>155</v>
       </c>
@@ -45254,7 +45259,7 @@
       <c r="CH160" s="24" t="n"/>
       <c r="CI160" s="24" t="n"/>
     </row>
-    <row r="161" hidden="1" s="47">
+    <row r="161" hidden="1" outlineLevel="1" s="47">
       <c r="A161" s="24" t="n">
         <v>156</v>
       </c>
@@ -45521,7 +45526,7 @@
       <c r="CH161" s="24" t="n"/>
       <c r="CI161" s="24" t="n"/>
     </row>
-    <row r="162" hidden="1" s="47">
+    <row r="162" hidden="1" outlineLevel="1" s="47">
       <c r="A162" s="24" t="n">
         <v>157</v>
       </c>
@@ -45788,7 +45793,7 @@
       <c r="CH162" s="24" t="n"/>
       <c r="CI162" s="24" t="n"/>
     </row>
-    <row r="163" hidden="1" s="47">
+    <row r="163" hidden="1" outlineLevel="1" s="47">
       <c r="A163" s="24" t="n">
         <v>158</v>
       </c>
@@ -46055,7 +46060,7 @@
       <c r="CH163" s="24" t="n"/>
       <c r="CI163" s="24" t="n"/>
     </row>
-    <row r="164" hidden="1" s="47">
+    <row r="164" hidden="1" outlineLevel="1" s="47">
       <c r="A164" s="24" t="n">
         <v>159</v>
       </c>
@@ -46322,7 +46327,7 @@
       <c r="CH164" s="24" t="n"/>
       <c r="CI164" s="24" t="n"/>
     </row>
-    <row r="165" hidden="1" s="47">
+    <row r="165" hidden="1" outlineLevel="1" s="47">
       <c r="A165" s="24" t="n">
         <v>160</v>
       </c>
@@ -46589,7 +46594,7 @@
       <c r="CH165" s="24" t="n"/>
       <c r="CI165" s="24" t="n"/>
     </row>
-    <row r="166" hidden="1" s="47">
+    <row r="166" hidden="1" outlineLevel="1" s="47">
       <c r="A166" s="24" t="n">
         <v>161</v>
       </c>
@@ -46856,7 +46861,7 @@
       <c r="CH166" s="24" t="n"/>
       <c r="CI166" s="24" t="n"/>
     </row>
-    <row r="167" hidden="1" s="47">
+    <row r="167" hidden="1" outlineLevel="1" s="47">
       <c r="A167" s="24" t="n">
         <v>162</v>
       </c>
@@ -47123,7 +47128,7 @@
       <c r="CH167" s="24" t="n"/>
       <c r="CI167" s="24" t="n"/>
     </row>
-    <row r="168" hidden="1" s="47">
+    <row r="168" hidden="1" outlineLevel="1" s="47">
       <c r="A168" s="24" t="n">
         <v>163</v>
       </c>
@@ -47390,7 +47395,7 @@
       <c r="CH168" s="24" t="n"/>
       <c r="CI168" s="24" t="n"/>
     </row>
-    <row r="169" hidden="1" s="47">
+    <row r="169" hidden="1" outlineLevel="1" s="47">
       <c r="A169" s="24" t="n">
         <v>164</v>
       </c>
@@ -47661,7 +47666,7 @@
       <c r="CH169" s="24" t="n"/>
       <c r="CI169" s="24" t="n"/>
     </row>
-    <row r="170" hidden="1" s="47">
+    <row r="170" hidden="1" outlineLevel="1" s="47">
       <c r="A170" s="24" t="n">
         <v>165</v>
       </c>
@@ -47940,7 +47945,7 @@
       <c r="CH170" s="24" t="n"/>
       <c r="CI170" s="24" t="n"/>
     </row>
-    <row r="171" hidden="1" s="47">
+    <row r="171" hidden="1" outlineLevel="1" s="47">
       <c r="A171" s="24" t="inlineStr">
         <is>
           <t>客户发展部新增1</t>
@@ -48223,7 +48228,7 @@
       <c r="CH171" s="24" t="n"/>
       <c r="CI171" s="24" t="n"/>
     </row>
-    <row r="172" hidden="1" s="47">
+    <row r="172" hidden="1" outlineLevel="1" s="47">
       <c r="A172" s="28" t="inlineStr">
         <is>
           <t>客户发展部新增2</t>
@@ -48510,7 +48515,7 @@
       <c r="CH172" s="24" t="n"/>
       <c r="CI172" s="24" t="n"/>
     </row>
-    <row r="173" hidden="1" customFormat="1" s="31">
+    <row r="173" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A173" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增3</t>
@@ -48795,7 +48800,7 @@
       <c r="CH173" s="29" t="n"/>
       <c r="CI173" s="29" t="n"/>
     </row>
-    <row r="174" hidden="1" customFormat="1" s="31">
+    <row r="174" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A174" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增4</t>
@@ -49078,7 +49083,7 @@
       <c r="CH174" s="29" t="n"/>
       <c r="CI174" s="29" t="n"/>
     </row>
-    <row r="175" hidden="1" customFormat="1" s="31">
+    <row r="175" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A175" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增5</t>
@@ -49361,7 +49366,7 @@
       <c r="CH175" s="29" t="n"/>
       <c r="CI175" s="29" t="n"/>
     </row>
-    <row r="176" hidden="1" customFormat="1" s="31">
+    <row r="176" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A176" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增6</t>
@@ -49644,7 +49649,7 @@
       <c r="CH176" s="29" t="n"/>
       <c r="CI176" s="29" t="n"/>
     </row>
-    <row r="177" hidden="1" customFormat="1" s="31">
+    <row r="177" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A177" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增7</t>
@@ -49925,7 +49930,7 @@
       <c r="CH177" s="29" t="n"/>
       <c r="CI177" s="29" t="n"/>
     </row>
-    <row r="178" hidden="1" customFormat="1" s="31">
+    <row r="178" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A178" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增8</t>
@@ -50206,7 +50211,7 @@
       <c r="CH178" s="29" t="n"/>
       <c r="CI178" s="29" t="n"/>
     </row>
-    <row r="179" hidden="1" customFormat="1" s="31">
+    <row r="179" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A179" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增9</t>
@@ -50487,7 +50492,7 @@
       <c r="CH179" s="29" t="n"/>
       <c r="CI179" s="29" t="n"/>
     </row>
-    <row r="180" hidden="1" customFormat="1" s="31">
+    <row r="180" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A180" s="32" t="inlineStr">
         <is>
           <t>客户发展部新增10</t>
@@ -50770,7 +50775,7 @@
       <c r="CH180" s="29" t="n"/>
       <c r="CI180" s="29" t="n"/>
     </row>
-    <row r="181" hidden="1" customFormat="1" s="31">
+    <row r="181" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A181" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增11</t>
@@ -51053,7 +51058,7 @@
       <c r="CH181" s="29" t="n"/>
       <c r="CI181" s="29" t="n"/>
     </row>
-    <row r="182" hidden="1" customFormat="1" s="31">
+    <row r="182" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A182" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增12</t>
@@ -51334,7 +51339,7 @@
       <c r="CH182" s="29" t="n"/>
       <c r="CI182" s="29" t="n"/>
     </row>
-    <row r="183" hidden="1" customFormat="1" s="39">
+    <row r="183" hidden="1" outlineLevel="1" customFormat="1" s="39">
       <c r="A183" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增13</t>
@@ -51621,7 +51626,7 @@
       <c r="CH183" s="37" t="n"/>
       <c r="CI183" s="37" t="n"/>
     </row>
-    <row r="184" hidden="1" customFormat="1" s="39">
+    <row r="184" hidden="1" outlineLevel="1" customFormat="1" s="39">
       <c r="A184" s="37" t="inlineStr">
         <is>
           <t>客户发展部新增14</t>
@@ -51902,7 +51907,7 @@
       <c r="CH184" s="37" t="n"/>
       <c r="CI184" s="37" t="n"/>
     </row>
-    <row r="185" hidden="1" customFormat="1" s="31">
+    <row r="185" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A185" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增15</t>
@@ -52183,7 +52188,7 @@
       <c r="CH185" s="29" t="n"/>
       <c r="CI185" s="29" t="n"/>
     </row>
-    <row r="186" hidden="1" customFormat="1" s="31">
+    <row r="186" hidden="1" outlineLevel="1" customFormat="1" s="31">
       <c r="A186" s="29" t="inlineStr">
         <is>
           <t>客户发展部新增16</t>
@@ -52464,7 +52469,7 @@
       <c r="CH186" s="29" t="n"/>
       <c r="CI186" s="29" t="n"/>
     </row>
-    <row r="187" hidden="1" s="47">
+    <row r="187" hidden="1" outlineLevel="1" s="47">
       <c r="A187" s="24" t="n">
         <v>505</v>
       </c>
@@ -52735,7 +52740,7 @@
       <c r="CH187" s="24" t="n"/>
       <c r="CI187" s="24" t="n"/>
     </row>
-    <row r="188" hidden="1" s="47">
+    <row r="188" hidden="1" outlineLevel="1" s="47">
       <c r="A188" s="24" t="n">
         <v>506</v>
       </c>
@@ -53006,7 +53011,7 @@
       <c r="CH188" s="24" t="n"/>
       <c r="CI188" s="24" t="n"/>
     </row>
-    <row r="189" hidden="1" s="47">
+    <row r="189" hidden="1" outlineLevel="1" s="47">
       <c r="A189" s="28" t="n">
         <v>507</v>
       </c>
@@ -53279,7 +53284,7 @@
       <c r="CH189" s="24" t="n"/>
       <c r="CI189" s="24" t="n"/>
     </row>
-    <row r="190" hidden="1" s="47">
+    <row r="190" hidden="1" outlineLevel="1" s="47">
       <c r="A190" s="28" t="n">
         <v>508</v>
       </c>
@@ -53548,7 +53553,7 @@
       <c r="CH190" s="24" t="n"/>
       <c r="CI190" s="24" t="n"/>
     </row>
-    <row r="191" hidden="1" s="47">
+    <row r="191" hidden="1" outlineLevel="1" s="47">
       <c r="A191" s="28" t="n">
         <v>509</v>
       </c>
@@ -53827,7 +53832,7 @@
       <c r="CH191" s="24" t="n"/>
       <c r="CI191" s="24" t="n"/>
     </row>
-    <row r="192" hidden="1" s="47">
+    <row r="192" hidden="1" outlineLevel="1" s="47">
       <c r="A192" s="28" t="n">
         <v>510</v>
       </c>
@@ -54108,7 +54113,7 @@
       <c r="CH192" s="24" t="n"/>
       <c r="CI192" s="24" t="n"/>
     </row>
-    <row r="193" hidden="1" s="47">
+    <row r="193" hidden="1" outlineLevel="1" s="47">
       <c r="A193" s="24" t="n">
         <v>511</v>
       </c>
@@ -54371,7 +54376,7 @@
       <c r="CH193" s="24" t="n"/>
       <c r="CI193" s="24" t="n"/>
     </row>
-    <row r="194" customFormat="1" s="38">
+    <row r="194" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A194" s="27" t="n"/>
       <c r="B194" s="27" t="n"/>
       <c r="C194" s="27" t="n"/>
@@ -54408,7 +54413,7 @@
       <c r="AR194" s="44" t="n"/>
       <c r="AS194" s="44" t="n"/>
     </row>
-    <row r="195" customFormat="1" s="38">
+    <row r="195" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A195" s="27" t="n"/>
       <c r="B195" s="27" t="n"/>
       <c r="C195" s="27" t="n"/>
@@ -54445,7 +54450,7 @@
       <c r="AR195" s="44" t="n"/>
       <c r="AS195" s="44" t="n"/>
     </row>
-    <row r="196" customFormat="1" s="38">
+    <row r="196" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A196" s="27" t="n"/>
       <c r="B196" s="27" t="n"/>
       <c r="C196" s="27" t="n"/>
@@ -54482,7 +54487,7 @@
       <c r="AR196" s="44" t="n"/>
       <c r="AS196" s="44" t="n"/>
     </row>
-    <row r="197" customFormat="1" s="38">
+    <row r="197" hidden="1" outlineLevel="1" customFormat="1" s="38">
       <c r="A197" s="27" t="n"/>
       <c r="B197" s="27" t="n"/>
       <c r="C197" s="27" t="n"/>
@@ -54519,11 +54524,366 @@
       <c r="AR197" s="44" t="n"/>
       <c r="AS197" s="44" t="n"/>
     </row>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200">
+    <row r="198" hidden="1" outlineLevel="1" s="47"/>
+    <row r="199" hidden="1" outlineLevel="1" s="47"/>
+    <row r="200" hidden="1" outlineLevel="1" s="47">
       <c r="AX200" s="35" t="n"/>
     </row>
+    <row r="201" hidden="1" outlineLevel="1" s="47"/>
+    <row r="202" hidden="1" outlineLevel="1" s="47"/>
+    <row r="203" hidden="1" outlineLevel="1" s="47"/>
+    <row r="204" hidden="1" outlineLevel="1" s="47"/>
+    <row r="205" hidden="1" outlineLevel="1" s="47"/>
+    <row r="206" hidden="1" outlineLevel="1" s="47"/>
+    <row r="207" hidden="1" outlineLevel="1" s="47"/>
+    <row r="208" hidden="1" outlineLevel="1" s="47"/>
+    <row r="209" hidden="1" outlineLevel="1" s="47"/>
+    <row r="210" hidden="1" outlineLevel="1" s="47"/>
+    <row r="211" hidden="1" outlineLevel="1" s="47"/>
+    <row r="212" hidden="1" outlineLevel="1" s="47"/>
+    <row r="213" hidden="1" outlineLevel="1" s="47"/>
+    <row r="214" hidden="1" outlineLevel="1" s="47"/>
+    <row r="215" hidden="1" outlineLevel="1" s="47"/>
+    <row r="216" hidden="1" outlineLevel="1" s="47"/>
+    <row r="217" hidden="1" outlineLevel="1" s="47"/>
+    <row r="218" hidden="1" outlineLevel="1" s="47"/>
+    <row r="219" hidden="1" outlineLevel="1" s="47"/>
+    <row r="220" hidden="1" outlineLevel="1" s="47"/>
+    <row r="221" hidden="1" outlineLevel="1" s="47"/>
+    <row r="222" hidden="1" outlineLevel="1" s="47"/>
+    <row r="223" hidden="1" outlineLevel="1" s="47"/>
+    <row r="224" hidden="1" outlineLevel="1" s="47"/>
+    <row r="225" hidden="1" outlineLevel="1" s="47"/>
+    <row r="226" hidden="1" outlineLevel="1" s="47"/>
+    <row r="227" hidden="1" outlineLevel="1" s="47"/>
+    <row r="228" hidden="1" outlineLevel="1" s="47"/>
+    <row r="229" hidden="1" outlineLevel="1" s="47"/>
+    <row r="230" hidden="1" outlineLevel="1" s="47"/>
+    <row r="231" hidden="1" outlineLevel="1" s="47"/>
+    <row r="232" hidden="1" outlineLevel="1" s="47"/>
+    <row r="233" hidden="1" outlineLevel="1" s="47"/>
+    <row r="234" hidden="1" outlineLevel="1" s="47"/>
+    <row r="235" hidden="1" outlineLevel="1" s="47"/>
+    <row r="236" hidden="1" outlineLevel="1" s="47"/>
+    <row r="237" hidden="1" outlineLevel="1" s="47"/>
+    <row r="238" hidden="1" outlineLevel="1" s="47"/>
+    <row r="239" hidden="1" outlineLevel="1" s="47"/>
+    <row r="240" hidden="1" outlineLevel="1" s="47"/>
+    <row r="241" hidden="1" outlineLevel="1" s="47"/>
+    <row r="242" hidden="1" outlineLevel="1" s="47"/>
+    <row r="243" hidden="1" outlineLevel="1" s="47"/>
+    <row r="244" hidden="1" outlineLevel="1" s="47"/>
+    <row r="245" hidden="1" outlineLevel="1" s="47"/>
+    <row r="246" hidden="1" outlineLevel="1" s="47"/>
+    <row r="247" hidden="1" outlineLevel="1" s="47"/>
+    <row r="248" hidden="1" outlineLevel="1" s="47"/>
+    <row r="249" hidden="1" outlineLevel="1" s="47"/>
+    <row r="250" hidden="1" outlineLevel="1" s="47"/>
+    <row r="251" hidden="1" outlineLevel="1" s="47"/>
+    <row r="252" hidden="1" outlineLevel="1" s="47"/>
+    <row r="253" hidden="1" outlineLevel="1" s="47"/>
+    <row r="254" hidden="1" outlineLevel="1" s="47"/>
+    <row r="255" hidden="1" outlineLevel="1" s="47"/>
+    <row r="256" hidden="1" outlineLevel="1" s="47"/>
+    <row r="257" hidden="1" outlineLevel="1" s="47"/>
+    <row r="258" hidden="1" outlineLevel="1" s="47"/>
+    <row r="259" hidden="1" outlineLevel="1" s="47"/>
+    <row r="260" hidden="1" outlineLevel="1" s="47"/>
+    <row r="261" hidden="1" outlineLevel="1" s="47"/>
+    <row r="262" hidden="1" outlineLevel="1" s="47"/>
+    <row r="263" hidden="1" outlineLevel="1" s="47"/>
+    <row r="264" hidden="1" outlineLevel="1" s="47"/>
+    <row r="265" hidden="1" outlineLevel="1" s="47"/>
+    <row r="266" hidden="1" outlineLevel="1" s="47"/>
+    <row r="267" hidden="1" outlineLevel="1" s="47"/>
+    <row r="268" hidden="1" outlineLevel="1" s="47"/>
+    <row r="269" hidden="1" outlineLevel="1" s="47"/>
+    <row r="270" hidden="1" outlineLevel="1" s="47"/>
+    <row r="271" hidden="1" outlineLevel="1" s="47"/>
+    <row r="272" hidden="1" outlineLevel="1" s="47"/>
+    <row r="273" hidden="1" outlineLevel="1" s="47"/>
+    <row r="274" hidden="1" outlineLevel="1" s="47"/>
+    <row r="275" hidden="1" outlineLevel="1" s="47"/>
+    <row r="276" hidden="1" outlineLevel="1" s="47"/>
+    <row r="277" hidden="1" outlineLevel="1" s="47"/>
+    <row r="278" hidden="1" outlineLevel="1" s="47"/>
+    <row r="279" hidden="1" outlineLevel="1" s="47"/>
+    <row r="280" hidden="1" outlineLevel="1" s="47"/>
+    <row r="281" hidden="1" outlineLevel="1" s="47"/>
+    <row r="282" hidden="1" outlineLevel="1" s="47"/>
+    <row r="283" hidden="1" outlineLevel="1" s="47"/>
+    <row r="284" hidden="1" outlineLevel="1" s="47"/>
+    <row r="285" hidden="1" outlineLevel="1" s="47"/>
+    <row r="286" hidden="1" outlineLevel="1" s="47"/>
+    <row r="287" hidden="1" outlineLevel="1" s="47"/>
+    <row r="288" hidden="1" outlineLevel="1" s="47"/>
+    <row r="289" hidden="1" outlineLevel="1" s="47"/>
+    <row r="290" hidden="1" outlineLevel="1" s="47"/>
+    <row r="291" hidden="1" outlineLevel="1" s="47"/>
+    <row r="292" hidden="1" outlineLevel="1" s="47"/>
+    <row r="293" hidden="1" outlineLevel="1" s="47"/>
+    <row r="294" hidden="1" outlineLevel="1" s="47"/>
+    <row r="295" hidden="1" outlineLevel="1" s="47"/>
+    <row r="296" hidden="1" outlineLevel="1" s="47"/>
+    <row r="297" hidden="1" outlineLevel="1" s="47"/>
+    <row r="298" hidden="1" outlineLevel="1" s="47"/>
+    <row r="299" hidden="1" outlineLevel="1" s="47"/>
+    <row r="300" hidden="1" outlineLevel="1" s="47"/>
+    <row r="301" hidden="1" outlineLevel="1" s="47"/>
+    <row r="302" hidden="1" outlineLevel="1" s="47"/>
+    <row r="303" hidden="1" outlineLevel="1" s="47"/>
+    <row r="304" hidden="1" outlineLevel="1" s="47"/>
+    <row r="305" hidden="1" outlineLevel="1" s="47"/>
+    <row r="306" hidden="1" outlineLevel="1" s="47"/>
+    <row r="307" hidden="1" outlineLevel="1" s="47"/>
+    <row r="308" hidden="1" outlineLevel="1" s="47"/>
+    <row r="309" hidden="1" outlineLevel="1" s="47"/>
+    <row r="310" hidden="1" outlineLevel="1" s="47"/>
+    <row r="311" hidden="1" outlineLevel="1" s="47"/>
+    <row r="312" hidden="1" outlineLevel="1" s="47"/>
+    <row r="313" hidden="1" outlineLevel="1" s="47"/>
+    <row r="314" hidden="1" outlineLevel="1" s="47"/>
+    <row r="315" hidden="1" outlineLevel="1" s="47"/>
+    <row r="316" hidden="1" outlineLevel="1" s="47"/>
+    <row r="317" hidden="1" outlineLevel="1" s="47"/>
+    <row r="318" hidden="1" outlineLevel="1" s="47"/>
+    <row r="319" hidden="1" outlineLevel="1" s="47"/>
+    <row r="320" hidden="1" outlineLevel="1" s="47"/>
+    <row r="321" hidden="1" outlineLevel="1" s="47"/>
+    <row r="322" hidden="1" outlineLevel="1" s="47"/>
+    <row r="323" hidden="1" outlineLevel="1" s="47"/>
+    <row r="324" hidden="1" outlineLevel="1" s="47"/>
+    <row r="325" hidden="1" outlineLevel="1" s="47"/>
+    <row r="326" hidden="1" outlineLevel="1" s="47"/>
+    <row r="327" hidden="1" outlineLevel="1" s="47"/>
+    <row r="328" hidden="1" outlineLevel="1" s="47"/>
+    <row r="329" hidden="1" outlineLevel="1" s="47"/>
+    <row r="330" hidden="1" outlineLevel="1" s="47"/>
+    <row r="331" hidden="1" outlineLevel="1" s="47"/>
+    <row r="332" hidden="1" outlineLevel="1" s="47"/>
+    <row r="333" hidden="1" outlineLevel="1" s="47"/>
+    <row r="334" hidden="1" outlineLevel="1" s="47"/>
+    <row r="335" hidden="1" outlineLevel="1" s="47"/>
+    <row r="336" hidden="1" outlineLevel="1" s="47"/>
+    <row r="337" hidden="1" outlineLevel="1" s="47"/>
+    <row r="338" hidden="1" outlineLevel="1" s="47"/>
+    <row r="339" hidden="1" outlineLevel="1" s="47"/>
+    <row r="340" hidden="1" outlineLevel="1" s="47"/>
+    <row r="341" hidden="1" outlineLevel="1" s="47"/>
+    <row r="342" hidden="1" outlineLevel="1" s="47"/>
+    <row r="343" hidden="1" outlineLevel="1" s="47"/>
+    <row r="344" hidden="1" outlineLevel="1" s="47"/>
+    <row r="345" hidden="1" outlineLevel="1" s="47"/>
+    <row r="346" hidden="1" outlineLevel="1" s="47"/>
+    <row r="347" hidden="1" outlineLevel="1" s="47"/>
+    <row r="348" hidden="1" outlineLevel="1" s="47"/>
+    <row r="349" hidden="1" outlineLevel="1" s="47"/>
+    <row r="350" hidden="1" outlineLevel="1" s="47"/>
+    <row r="351" hidden="1" outlineLevel="1" s="47"/>
+    <row r="352" hidden="1" outlineLevel="1" s="47"/>
+    <row r="353" hidden="1" outlineLevel="1" s="47"/>
+    <row r="354" hidden="1" outlineLevel="1" s="47"/>
+    <row r="355" hidden="1" outlineLevel="1" s="47"/>
+    <row r="356" hidden="1" outlineLevel="1" s="47"/>
+    <row r="357" hidden="1" outlineLevel="1" s="47"/>
+    <row r="358" hidden="1" outlineLevel="1" s="47"/>
+    <row r="359" hidden="1" outlineLevel="1" s="47"/>
+    <row r="360" hidden="1" outlineLevel="1" s="47"/>
+    <row r="361" hidden="1" outlineLevel="1" s="47"/>
+    <row r="362" hidden="1" outlineLevel="1" s="47"/>
+    <row r="363" hidden="1" outlineLevel="1" s="47"/>
+    <row r="364" hidden="1" outlineLevel="1" s="47"/>
+    <row r="365" hidden="1" outlineLevel="1" s="47"/>
+    <row r="366" hidden="1" outlineLevel="1" s="47"/>
+    <row r="367" hidden="1" outlineLevel="1" s="47"/>
+    <row r="368" hidden="1" outlineLevel="1" s="47"/>
+    <row r="369" hidden="1" outlineLevel="1" s="47"/>
+    <row r="370" hidden="1" outlineLevel="1" s="47"/>
+    <row r="371" hidden="1" outlineLevel="1" s="47"/>
+    <row r="372" hidden="1" outlineLevel="1" s="47"/>
+    <row r="373" hidden="1" outlineLevel="1" s="47"/>
+    <row r="374" hidden="1" outlineLevel="1" s="47"/>
+    <row r="375" hidden="1" outlineLevel="1" s="47"/>
+    <row r="376" hidden="1" outlineLevel="1" s="47"/>
+    <row r="377" hidden="1" outlineLevel="1" s="47"/>
+    <row r="378" hidden="1" outlineLevel="1" s="47"/>
+    <row r="379" hidden="1" outlineLevel="1" s="47"/>
+    <row r="380" hidden="1" outlineLevel="1" s="47"/>
+    <row r="381" hidden="1" outlineLevel="1" s="47"/>
+    <row r="382" hidden="1" outlineLevel="1" s="47"/>
+    <row r="383" hidden="1" outlineLevel="1" s="47"/>
+    <row r="384" hidden="1" outlineLevel="1" s="47"/>
+    <row r="385" hidden="1" outlineLevel="1" s="47"/>
+    <row r="386" hidden="1" outlineLevel="1" s="47"/>
+    <row r="387" hidden="1" outlineLevel="1" s="47"/>
+    <row r="388" hidden="1" outlineLevel="1" s="47"/>
+    <row r="389" hidden="1" outlineLevel="1" s="47"/>
+    <row r="390" hidden="1" outlineLevel="1" s="47"/>
+    <row r="391" hidden="1" outlineLevel="1" s="47"/>
+    <row r="392" hidden="1" outlineLevel="1" s="47"/>
+    <row r="393" hidden="1" outlineLevel="1" s="47"/>
+    <row r="394" hidden="1" outlineLevel="1" s="47"/>
+    <row r="395" hidden="1" outlineLevel="1" s="47"/>
+    <row r="396" hidden="1" outlineLevel="1" s="47"/>
+    <row r="397" hidden="1" outlineLevel="1" s="47"/>
+    <row r="398" hidden="1" outlineLevel="1" s="47"/>
+    <row r="399" hidden="1" outlineLevel="1" s="47"/>
+    <row r="400" hidden="1" outlineLevel="1" s="47"/>
+    <row r="401" hidden="1" outlineLevel="1" s="47"/>
+    <row r="402" hidden="1" outlineLevel="1" s="47"/>
+    <row r="403" hidden="1" outlineLevel="1" s="47"/>
+    <row r="404" hidden="1" outlineLevel="1" s="47"/>
+    <row r="405" hidden="1" outlineLevel="1" s="47"/>
+    <row r="406" hidden="1" outlineLevel="1" s="47"/>
+    <row r="407" hidden="1" outlineLevel="1" s="47"/>
+    <row r="408" hidden="1" outlineLevel="1" s="47"/>
+    <row r="409" hidden="1" outlineLevel="1" s="47"/>
+    <row r="410" hidden="1" outlineLevel="1" s="47"/>
+    <row r="411" hidden="1" outlineLevel="1" s="47"/>
+    <row r="412" hidden="1" outlineLevel="1" s="47"/>
+    <row r="413" hidden="1" outlineLevel="1" s="47"/>
+    <row r="414" hidden="1" outlineLevel="1" s="47"/>
+    <row r="415" hidden="1" outlineLevel="1" s="47"/>
+    <row r="416" hidden="1" outlineLevel="1" s="47"/>
+    <row r="417" hidden="1" outlineLevel="1" s="47"/>
+    <row r="418" hidden="1" outlineLevel="1" s="47"/>
+    <row r="419" hidden="1" outlineLevel="1" s="47"/>
+    <row r="420" hidden="1" outlineLevel="1" s="47"/>
+    <row r="421" hidden="1" outlineLevel="1" s="47"/>
+    <row r="422" hidden="1" outlineLevel="1" s="47"/>
+    <row r="423" hidden="1" outlineLevel="1" s="47"/>
+    <row r="424" hidden="1" outlineLevel="1" s="47"/>
+    <row r="425" hidden="1" outlineLevel="1" s="47"/>
+    <row r="426" hidden="1" outlineLevel="1" s="47"/>
+    <row r="427" hidden="1" outlineLevel="1" s="47"/>
+    <row r="428" hidden="1" outlineLevel="1" s="47"/>
+    <row r="429" hidden="1" outlineLevel="1" s="47"/>
+    <row r="430" hidden="1" outlineLevel="1" s="47"/>
+    <row r="431" hidden="1" outlineLevel="1" s="47"/>
+    <row r="432" hidden="1" outlineLevel="1" s="47"/>
+    <row r="433" hidden="1" outlineLevel="1" s="47"/>
+    <row r="434" hidden="1" outlineLevel="1" s="47"/>
+    <row r="435" hidden="1" outlineLevel="1" s="47"/>
+    <row r="436" hidden="1" outlineLevel="1" s="47"/>
+    <row r="437" hidden="1" outlineLevel="1" s="47"/>
+    <row r="438" hidden="1" outlineLevel="1" s="47"/>
+    <row r="439" hidden="1" outlineLevel="1" s="47"/>
+    <row r="440" hidden="1" outlineLevel="1" s="47"/>
+    <row r="441" hidden="1" outlineLevel="1" s="47"/>
+    <row r="442" hidden="1" outlineLevel="1" s="47"/>
+    <row r="443" hidden="1" outlineLevel="1" s="47"/>
+    <row r="444" hidden="1" outlineLevel="1" s="47"/>
+    <row r="445" hidden="1" outlineLevel="1" s="47"/>
+    <row r="446" hidden="1" outlineLevel="1" s="47"/>
+    <row r="447" hidden="1" outlineLevel="1" s="47"/>
+    <row r="448" hidden="1" outlineLevel="1" s="47"/>
+    <row r="449" hidden="1" outlineLevel="1" s="47"/>
+    <row r="450" hidden="1" outlineLevel="1" s="47"/>
+    <row r="451" hidden="1" outlineLevel="1" s="47"/>
+    <row r="452" hidden="1" outlineLevel="1" s="47"/>
+    <row r="453" hidden="1" outlineLevel="1" s="47"/>
+    <row r="454" hidden="1" outlineLevel="1" s="47"/>
+    <row r="455" hidden="1" outlineLevel="1" s="47"/>
+    <row r="456" hidden="1" outlineLevel="1" s="47"/>
+    <row r="457" hidden="1" outlineLevel="1" s="47"/>
+    <row r="458" hidden="1" outlineLevel="1" s="47"/>
+    <row r="459" hidden="1" outlineLevel="1" s="47"/>
+    <row r="460" hidden="1" outlineLevel="1" s="47"/>
+    <row r="461" hidden="1" outlineLevel="1" s="47"/>
+    <row r="462" hidden="1" outlineLevel="1" s="47"/>
+    <row r="463" hidden="1" outlineLevel="1" s="47"/>
+    <row r="464" hidden="1" outlineLevel="1" s="47"/>
+    <row r="465" hidden="1" outlineLevel="1" s="47"/>
+    <row r="466" hidden="1" outlineLevel="1" s="47"/>
+    <row r="467" hidden="1" outlineLevel="1" s="47"/>
+    <row r="468" hidden="1" outlineLevel="1" s="47"/>
+    <row r="469" hidden="1" outlineLevel="1" s="47"/>
+    <row r="470" hidden="1" outlineLevel="1" s="47"/>
+    <row r="471" hidden="1" outlineLevel="1" s="47"/>
+    <row r="472" hidden="1" outlineLevel="1" s="47"/>
+    <row r="473" hidden="1" outlineLevel="1" s="47"/>
+    <row r="474" hidden="1" outlineLevel="1" s="47"/>
+    <row r="475" hidden="1" outlineLevel="1" s="47"/>
+    <row r="476" hidden="1" outlineLevel="1" s="47"/>
+    <row r="477" hidden="1" outlineLevel="1" s="47"/>
+    <row r="478" hidden="1" outlineLevel="1" s="47"/>
+    <row r="479" hidden="1" outlineLevel="1" s="47"/>
+    <row r="480" hidden="1" outlineLevel="1" s="47"/>
+    <row r="481" hidden="1" outlineLevel="1" s="47"/>
+    <row r="482" hidden="1" outlineLevel="1" s="47"/>
+    <row r="483" hidden="1" outlineLevel="1" s="47"/>
+    <row r="484" hidden="1" outlineLevel="1" s="47"/>
+    <row r="485" hidden="1" outlineLevel="1" s="47"/>
+    <row r="486" hidden="1" outlineLevel="1" s="47"/>
+    <row r="487" hidden="1" outlineLevel="1" s="47"/>
+    <row r="488" hidden="1" outlineLevel="1" s="47"/>
+    <row r="489" hidden="1" outlineLevel="1" s="47"/>
+    <row r="490" hidden="1" outlineLevel="1" s="47"/>
+    <row r="491" hidden="1" outlineLevel="1" s="47"/>
+    <row r="492" hidden="1" outlineLevel="1" s="47"/>
+    <row r="493" hidden="1" outlineLevel="1" s="47"/>
+    <row r="494" hidden="1" outlineLevel="1" s="47"/>
+    <row r="495" hidden="1" outlineLevel="1" s="47"/>
+    <row r="496" hidden="1" outlineLevel="1" s="47"/>
+    <row r="497" hidden="1" outlineLevel="1" s="47"/>
+    <row r="498" hidden="1" outlineLevel="1" s="47"/>
+    <row r="499" hidden="1" outlineLevel="1" s="47"/>
+    <row r="500" hidden="1" outlineLevel="1" s="47"/>
+    <row r="501" hidden="1" outlineLevel="1" s="47"/>
+    <row r="502" hidden="1" outlineLevel="1" s="47"/>
+    <row r="503" hidden="1" outlineLevel="1" s="47"/>
+    <row r="504" hidden="1" outlineLevel="1" s="47"/>
+    <row r="505" hidden="1" outlineLevel="1" s="47"/>
+    <row r="506" hidden="1" outlineLevel="1" s="47"/>
+    <row r="507" hidden="1" outlineLevel="1" s="47"/>
+    <row r="508" hidden="1" outlineLevel="1" s="47"/>
+    <row r="509" hidden="1" outlineLevel="1" s="47"/>
+    <row r="510" hidden="1" outlineLevel="1" s="47"/>
+    <row r="511" hidden="1" outlineLevel="1" s="47"/>
+    <row r="512" hidden="1" outlineLevel="1" s="47"/>
+    <row r="513" hidden="1" outlineLevel="1" s="47"/>
+    <row r="514" hidden="1" outlineLevel="1" s="47"/>
+    <row r="515" hidden="1" outlineLevel="1" s="47"/>
+    <row r="516" hidden="1" outlineLevel="1" s="47"/>
+    <row r="517" hidden="1" outlineLevel="1" s="47"/>
+    <row r="518" hidden="1" outlineLevel="1" s="47"/>
+    <row r="519" hidden="1" outlineLevel="1" s="47"/>
+    <row r="520" hidden="1" outlineLevel="1" s="47"/>
+    <row r="521" hidden="1" outlineLevel="1" s="47"/>
+    <row r="522" hidden="1" outlineLevel="1" s="47"/>
+    <row r="523" hidden="1" outlineLevel="1" s="47"/>
+    <row r="524" hidden="1" outlineLevel="1" s="47"/>
+    <row r="525" hidden="1" outlineLevel="1" s="47"/>
+    <row r="526" hidden="1" outlineLevel="1" s="47"/>
+    <row r="527" hidden="1" outlineLevel="1" s="47"/>
+    <row r="528" hidden="1" outlineLevel="1" s="47"/>
+    <row r="529" hidden="1" outlineLevel="1" s="47"/>
+    <row r="530" hidden="1" outlineLevel="1" s="47"/>
+    <row r="531" hidden="1" outlineLevel="1" s="47"/>
+    <row r="532" hidden="1" outlineLevel="1" s="47"/>
+    <row r="533" hidden="1" outlineLevel="1" s="47"/>
+    <row r="534" hidden="1" outlineLevel="1" s="47"/>
+    <row r="535" hidden="1" outlineLevel="1" s="47"/>
+    <row r="536" hidden="1" outlineLevel="1" s="47"/>
+    <row r="537" hidden="1" outlineLevel="1" s="47"/>
+    <row r="538" hidden="1" outlineLevel="1" s="47"/>
+    <row r="539" hidden="1" outlineLevel="1" s="47"/>
+    <row r="540" hidden="1" outlineLevel="1" s="47"/>
+    <row r="541" hidden="1" outlineLevel="1" s="47"/>
+    <row r="542" hidden="1" outlineLevel="1" s="47"/>
+    <row r="543" hidden="1" outlineLevel="1" s="47"/>
+    <row r="544" hidden="1" outlineLevel="1" s="47"/>
+    <row r="545" hidden="1" outlineLevel="1" s="47"/>
+    <row r="546" hidden="1" outlineLevel="1" s="47"/>
+    <row r="547" hidden="1" outlineLevel="1" s="47"/>
+    <row r="548" hidden="1" outlineLevel="1" s="47"/>
+    <row r="549" hidden="1" outlineLevel="1" s="47"/>
+    <row r="550" hidden="1" outlineLevel="1" s="47"/>
+    <row r="551" hidden="1" outlineLevel="1" s="47"/>
+    <row r="552" hidden="1" outlineLevel="1" s="47"/>
+    <row r="553" hidden="1" outlineLevel="1" s="47"/>
+    <row r="554" hidden="1" outlineLevel="1" s="47"/>
+    <row r="555" hidden="1" outlineLevel="1" s="47"/>
   </sheetData>
   <autoFilter ref="A1:CI193">
     <filterColumn colId="8">
@@ -54588,7 +54948,7 @@
     <row r="1">
       <c r="B1" s="48" t="inlineStr">
         <is>
-          <t>fill_in</t>
+          <t>wuliao_code</t>
         </is>
       </c>
       <c r="C1" s="48" t="inlineStr">
@@ -54678,7 +55038,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7700013617</v>
@@ -54702,7 +55062,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7700015582</v>
@@ -54846,7 +55206,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3.744</v>
+        <v>7.488</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7700010069</v>
@@ -54870,7 +55230,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>3.744</v>
+        <v>7.488</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7700015845</v>
@@ -55090,7 +55450,7 @@
     <row r="1">
       <c r="B1" s="48" t="inlineStr">
         <is>
-          <t>fill_in</t>
+          <t>wuliao_code</t>
         </is>
       </c>
       <c r="C1" s="48" t="inlineStr">
@@ -55180,7 +55540,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>9.48</v>
+        <v>18.96</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7700013617</v>
@@ -55204,7 +55564,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>9.48</v>
+        <v>18.96</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7700015582</v>
@@ -55372,7 +55732,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>3.5568</v>
+        <v>7.1136</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7700010069</v>
@@ -55396,7 +55756,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>3.5568</v>
+        <v>7.1136</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7700015845</v>
@@ -55616,7 +55976,7 @@
     <row r="1">
       <c r="B1" s="48" t="inlineStr">
         <is>
-          <t>fill_in</t>
+          <t>wuliao_code</t>
         </is>
       </c>
       <c r="C1" s="48" t="inlineStr">
@@ -55706,7 +56066,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3.84</v>
+        <v>7.68</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>7700013617</v>
@@ -55730,7 +56090,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3.84</v>
+        <v>7.68</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7700015582</v>
@@ -55898,7 +56258,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>4.1184</v>
+        <v>8.236800000000001</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7700010069</v>
@@ -55922,7 +56282,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>4.1184</v>
+        <v>8.236800000000001</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7700015845</v>
@@ -56142,7 +56502,7 @@
     <row r="1">
       <c r="B1" s="48" t="inlineStr">
         <is>
-          <t>fill_in</t>
+          <t>wuliao_code</t>
         </is>
       </c>
       <c r="C1" s="48" t="inlineStr">
@@ -56328,7 +56688,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7700013617</v>
@@ -56352,7 +56712,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>7700015582</v>
@@ -56376,7 +56736,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>9.48</v>
+        <v>18.96</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7700013617</v>
@@ -56400,7 +56760,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>9.48</v>
+        <v>18.96</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>7700015582</v>
@@ -56424,7 +56784,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>3.84</v>
+        <v>7.68</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7700013617</v>
@@ -56448,7 +56808,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>3.84</v>
+        <v>7.68</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7700015582</v>
@@ -56880,7 +57240,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>3.744</v>
+        <v>7.488</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>7700010069</v>
@@ -56904,7 +57264,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>3.744</v>
+        <v>7.488</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>7700015845</v>
@@ -56928,7 +57288,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>3.5568</v>
+        <v>7.1136</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>7700010069</v>
@@ -56952,7 +57312,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>3.5568</v>
+        <v>7.1136</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>7700015845</v>
@@ -56976,7 +57336,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>4.1184</v>
+        <v>8.236800000000001</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>7700010069</v>
@@ -57000,7 +57360,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>4.1184</v>
+        <v>8.236800000000001</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>7700015845</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -21,7 +21,7 @@
     <numFmt numFmtId="166" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -103,6 +103,9 @@
       <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -221,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,6 +388,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -22383,7 +22389,7 @@
       <c r="W65" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X65" s="48" t="inlineStr">
+      <c r="X65" s="51" t="inlineStr">
         <is>
           <t>1455773-00-F</t>
         </is>
@@ -22719,7 +22725,7 @@
       <c r="W66" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X66" s="48" t="inlineStr">
+      <c r="X66" s="51" t="inlineStr">
         <is>
           <t>1478201-00-B</t>
         </is>
@@ -22796,10 +22802,10 @@
         <v>0.828</v>
       </c>
       <c r="AR66" s="49" t="n">
-        <v>0.54</v>
+        <v>0.504</v>
       </c>
       <c r="AS66" s="49" t="n">
-        <v>0.792</v>
+        <v>0.828</v>
       </c>
       <c r="AT66" s="49" t="n">
         <v>0.324</v>
@@ -23051,7 +23057,7 @@
       <c r="W67" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X67" s="48" t="inlineStr">
+      <c r="X67" s="51" t="inlineStr">
         <is>
           <t>1592843-00-A</t>
         </is>
@@ -24031,7 +24037,7 @@
       <c r="W70" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X70" s="48" t="inlineStr">
+      <c r="X70" s="51" t="inlineStr">
         <is>
           <t>1083849-00-E</t>
         </is>
@@ -29008,7 +29014,7 @@
         <v>1.3104</v>
       </c>
       <c r="AR85" s="49" t="n">
-        <v>1.3104</v>
+        <v>1.2168</v>
       </c>
       <c r="AS85" s="49" t="n">
         <v>1.5912</v>
@@ -29334,13 +29340,13 @@
         <v>2.2464</v>
       </c>
       <c r="AR86" s="49" t="n">
-        <v>3.7908</v>
+        <v>3.2292</v>
       </c>
       <c r="AS86" s="49" t="n">
-        <v>4.0662</v>
+        <v>3.9978</v>
       </c>
       <c r="AT86" s="49" t="n">
-        <v>4.563</v>
+        <v>4.6044</v>
       </c>
       <c r="AU86" s="24" t="n">
         <v>4.004416641876232</v>
@@ -33214,13 +33220,13 @@
         <v>0.6552</v>
       </c>
       <c r="AR98" s="49" t="n">
-        <v>0.5616</v>
+        <v>0.3777</v>
       </c>
       <c r="AS98" s="49" t="n">
-        <v>0.7488</v>
+        <v>0.7494000000000001</v>
       </c>
       <c r="AT98" s="49" t="n">
-        <v>0.7488</v>
+        <v>0.7532000000000001</v>
       </c>
       <c r="AU98" s="24" t="n">
         <v>0.76</v>
@@ -35154,13 +35160,13 @@
         <v>1.652</v>
       </c>
       <c r="AR104" s="49" t="n">
-        <v>0.9239999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="AS104" s="49" t="n">
         <v>1.904</v>
       </c>
       <c r="AT104" s="49" t="n">
-        <v>1.232</v>
+        <v>1.288</v>
       </c>
       <c r="AU104" s="24" t="n">
         <v>6.34</v>
@@ -36782,13 +36788,13 @@
         <v>8</v>
       </c>
       <c r="AR109" s="49" t="n">
-        <v>7.764</v>
+        <v>8.208</v>
       </c>
       <c r="AS109" s="49" t="n">
-        <v>14.556</v>
+        <v>14.724</v>
       </c>
       <c r="AT109" s="49" t="n">
-        <v>12.552</v>
+        <v>11.292</v>
       </c>
       <c r="AU109" s="24" t="n">
         <v>8.44</v>
@@ -41942,7 +41948,7 @@
         <v>0</v>
       </c>
       <c r="AR125" s="49" t="n">
-        <v>1.68</v>
+        <v>2.0832</v>
       </c>
       <c r="AS125" s="49" t="n">
         <v>0</v>
@@ -42265,10 +42271,10 @@
         <v>0</v>
       </c>
       <c r="AS126" s="49" t="n">
-        <v>3.024</v>
+        <v>3.0576</v>
       </c>
       <c r="AT126" s="49" t="n">
-        <v>1.5792</v>
+        <v>1.6464</v>
       </c>
       <c r="AU126" s="24" t="n">
         <v>0</v>
@@ -43797,7 +43803,7 @@
       <c r="W131" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X131" s="48" t="inlineStr">
+      <c r="X131" s="51" t="inlineStr">
         <is>
           <t>1657603-01-E</t>
         </is>
@@ -43864,13 +43870,13 @@
         <v>1.16</v>
       </c>
       <c r="AR131" s="49" t="n">
-        <v>2.1312</v>
+        <v>2.6208</v>
       </c>
       <c r="AS131" s="49" t="n">
-        <v>2.304</v>
+        <v>1.9584</v>
       </c>
       <c r="AT131" s="49" t="n">
-        <v>1.152</v>
+        <v>1.0368</v>
       </c>
       <c r="AU131" s="24" t="n">
         <v>1.6</v>
@@ -45719,7 +45725,7 @@
       <c r="W137" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X137" s="48" t="inlineStr">
+      <c r="X137" s="51" t="inlineStr">
         <is>
           <t>1693247-47-D + 1693247-27-D</t>
         </is>
@@ -48297,7 +48303,7 @@
       <c r="W145" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="X145" s="48" t="inlineStr">
+      <c r="X145" s="51" t="inlineStr">
         <is>
           <t>1716767-00-A</t>
         </is>
@@ -48362,13 +48368,13 @@
         <v>8.064</v>
       </c>
       <c r="AR145" s="49" t="n">
+        <v>5.236</v>
+      </c>
+      <c r="AS145" s="49" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="AT145" s="49" t="n">
         <v>5.18</v>
-      </c>
-      <c r="AS145" s="49" t="n">
-        <v>10.668</v>
-      </c>
-      <c r="AT145" s="49" t="n">
-        <v>5.32</v>
       </c>
       <c r="AU145" s="24" t="n">
         <v>0</v>
@@ -48939,7 +48945,7 @@
       <c r="W147" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X147" s="48" t="inlineStr">
+      <c r="X147" s="51" t="inlineStr">
         <is>
           <t>1739701-00-B</t>
         </is>
@@ -49010,7 +49016,7 @@
         <v>0.024</v>
       </c>
       <c r="AR147" s="49" t="n">
-        <v>0.0288</v>
+        <v>0.0226</v>
       </c>
       <c r="AS147" s="49" t="n">
         <v>0.0372</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -24037,7 +24037,7 @@
       <c r="W70" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X70" s="51" t="inlineStr">
+      <c r="X70" s="48" t="inlineStr">
         <is>
           <t>1083849-00-E</t>
         </is>
@@ -26409,7 +26409,7 @@
         <v>1.2024</v>
       </c>
       <c r="AS77" s="49" t="n">
-        <v>1.0368</v>
+        <v>1.1952</v>
       </c>
       <c r="AT77" s="49" t="n">
         <v>1.1304</v>
@@ -33220,7 +33220,7 @@
         <v>0.6552</v>
       </c>
       <c r="AR98" s="49" t="n">
-        <v>0.3777</v>
+        <v>0.3776</v>
       </c>
       <c r="AS98" s="49" t="n">
         <v>0.7494000000000001</v>
@@ -43803,7 +43803,7 @@
       <c r="W131" s="24" t="n">
         <v>0</v>
       </c>
-      <c r="X131" s="51" t="inlineStr">
+      <c r="X131" s="48" t="inlineStr">
         <is>
           <t>1657603-01-E</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3580" yWindow="500" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="查看销售金额2022.11-2023.1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'查看销售金额2022.11-2023.1'!$A$1:$CI$193</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -822,13 +824,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:CI200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AO1" sqref="AO1"/>
       <selection pane="bottomLeft" activeCell="AV198" sqref="AV198"/>
@@ -851,9 +853,6 @@
     <col hidden="1" width="13" customWidth="1" style="46" min="27" max="43"/>
     <col hidden="1" width="13" customWidth="1" style="46" min="47" max="60"/>
     <col hidden="1" width="13" customWidth="1" style="46" min="71" max="77"/>
-    <col width="8.83203125" customWidth="1" style="46" min="78" max="88"/>
-    <col width="8.83203125" customWidth="1" style="27" min="89" max="89"/>
-    <col width="8.83203125" customWidth="1" style="27" min="90" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="1" ht="42.5" customFormat="1" customHeight="1" s="18">
@@ -65069,6 +65068,13 @@
     <row r="999" hidden="1" outlineLevel="1" s="46"/>
     <row r="1000" hidden="1" outlineLevel="1" s="46"/>
   </sheetData>
+  <autoFilter ref="A1:CI193">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="宁波拓普集团股份有限公司"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="S1">
     <cfRule type="duplicateValues" priority="29" dxfId="0"/>
   </conditionalFormatting>

--- a/output.xlsx
+++ b/output.xlsx
@@ -3,14 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3580" yWindow="500" windowWidth="21820" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="查看销售金额2022.11-2023.1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'查看销售金额2022.11-2023.1'!$A$1:$CI$193</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -824,16 +822,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:CI200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AO1" sqref="AO1"/>
-      <selection pane="bottomLeft" activeCell="AV198" sqref="AV198"/>
+      <selection pane="bottomLeft" activeCell="X147" sqref="X147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelRow="1"/>
@@ -853,6 +851,9 @@
     <col hidden="1" width="13" customWidth="1" style="46" min="27" max="43"/>
     <col hidden="1" width="13" customWidth="1" style="46" min="47" max="60"/>
     <col hidden="1" width="13" customWidth="1" style="46" min="71" max="77"/>
+    <col width="8.83203125" customWidth="1" style="46" min="78" max="88"/>
+    <col width="8.83203125" customWidth="1" style="27" min="89" max="89"/>
+    <col width="8.83203125" customWidth="1" style="27" min="90" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" outlineLevel="1" ht="42.5" customFormat="1" customHeight="1" s="18">
@@ -22801,13 +22802,13 @@
         <v>0.828</v>
       </c>
       <c r="AR66" s="49" t="n">
-        <v>0.504</v>
+        <v>0.252</v>
       </c>
       <c r="AS66" s="49" t="n">
-        <v>0.828</v>
+        <v>0.9</v>
       </c>
       <c r="AT66" s="49" t="n">
-        <v>0.324</v>
+        <v>0.432</v>
       </c>
       <c r="AU66" s="24" t="n">
         <v>0</v>
@@ -23133,13 +23134,13 @@
         <v>0.4032</v>
       </c>
       <c r="AR67" s="49" t="n">
-        <v>0.2352</v>
+        <v>0.4368</v>
       </c>
       <c r="AS67" s="49" t="n">
-        <v>0.3696</v>
+        <v>0.6048</v>
       </c>
       <c r="AT67" s="49" t="n">
-        <v>0.2016</v>
+        <v>0.1008</v>
       </c>
       <c r="AU67" s="24" t="n">
         <v>0</v>
@@ -35159,13 +35160,13 @@
         <v>1.652</v>
       </c>
       <c r="AR104" s="49" t="n">
-        <v>0.28</v>
+        <v>0.364</v>
       </c>
       <c r="AS104" s="49" t="n">
         <v>1.904</v>
       </c>
       <c r="AT104" s="49" t="n">
-        <v>1.288</v>
+        <v>1.232</v>
       </c>
       <c r="AU104" s="24" t="n">
         <v>6.34</v>
@@ -36787,13 +36788,13 @@
         <v>8</v>
       </c>
       <c r="AR109" s="49" t="n">
-        <v>8.208</v>
+        <v>8.304</v>
       </c>
       <c r="AS109" s="49" t="n">
-        <v>14.724</v>
+        <v>14.964</v>
       </c>
       <c r="AT109" s="49" t="n">
-        <v>11.292</v>
+        <v>11.196</v>
       </c>
       <c r="AU109" s="24" t="n">
         <v>8.44</v>
@@ -41947,7 +41948,7 @@
         <v>0</v>
       </c>
       <c r="AR125" s="49" t="n">
-        <v>2.0832</v>
+        <v>1.2432</v>
       </c>
       <c r="AS125" s="49" t="n">
         <v>0</v>
@@ -42270,10 +42271,10 @@
         <v>0</v>
       </c>
       <c r="AS126" s="49" t="n">
-        <v>3.0576</v>
+        <v>3.1248</v>
       </c>
       <c r="AT126" s="49" t="n">
-        <v>1.6464</v>
+        <v>1.5792</v>
       </c>
       <c r="AU126" s="24" t="n">
         <v>0</v>
@@ -48367,13 +48368,13 @@
         <v>8.064</v>
       </c>
       <c r="AR145" s="49" t="n">
-        <v>5.236</v>
+        <v>4.956</v>
       </c>
       <c r="AS145" s="49" t="n">
-        <v>10.64</v>
+        <v>10.248</v>
       </c>
       <c r="AT145" s="49" t="n">
-        <v>5.18</v>
+        <v>5.124000000000001</v>
       </c>
       <c r="AU145" s="24" t="n">
         <v>0</v>
@@ -48836,173 +48837,173 @@
         <v/>
       </c>
     </row>
-    <row r="147" outlineLevel="1" s="46">
-      <c r="A147" s="24" t="n">
+    <row r="147" outlineLevel="1" customFormat="1" s="43">
+      <c r="A147" s="41" t="n">
         <v>142</v>
       </c>
-      <c r="B147" s="24" t="inlineStr">
+      <c r="B147" s="41" t="inlineStr">
         <is>
           <t>出口/Export</t>
         </is>
       </c>
-      <c r="C147" s="24" t="inlineStr">
+      <c r="C147" s="41" t="inlineStr">
         <is>
           <t>SHI</t>
         </is>
       </c>
-      <c r="D147" s="24" t="inlineStr">
+      <c r="D147" s="41" t="inlineStr">
         <is>
           <t>客户发展部</t>
         </is>
       </c>
-      <c r="E147" s="24" t="inlineStr">
+      <c r="E147" s="41" t="inlineStr">
         <is>
           <t>HC18所</t>
         </is>
       </c>
-      <c r="F147" s="24" t="inlineStr">
+      <c r="F147" s="41" t="inlineStr">
         <is>
           <t>廖剑涛/Kirk Kralapp/Joana</t>
         </is>
       </c>
-      <c r="G147" s="24" t="inlineStr">
+      <c r="G147" s="41" t="inlineStr">
         <is>
           <t>TLA100</t>
         </is>
       </c>
-      <c r="H147" s="24" t="inlineStr">
+      <c r="H147" s="41" t="inlineStr">
         <is>
           <t>TESLA, Inc</t>
         </is>
       </c>
-      <c r="I147" s="24" t="inlineStr">
+      <c r="I147" s="41" t="inlineStr">
         <is>
           <t>HC18</t>
         </is>
       </c>
-      <c r="J147" s="24" t="inlineStr">
+      <c r="J147" s="41" t="inlineStr">
         <is>
           <t>美洲</t>
         </is>
       </c>
-      <c r="K147" s="24" t="inlineStr">
+      <c r="K147" s="41" t="inlineStr">
         <is>
           <t>HC18</t>
         </is>
       </c>
-      <c r="L147" s="24" t="inlineStr">
+      <c r="L147" s="41" t="inlineStr">
         <is>
           <t>OEM</t>
         </is>
       </c>
-      <c r="M147" s="24" t="inlineStr">
+      <c r="M147" s="41" t="inlineStr">
         <is>
           <t>批量/SOP</t>
         </is>
       </c>
-      <c r="N147" s="24" t="inlineStr">
+      <c r="N147" s="41" t="inlineStr">
         <is>
           <t>集成模块/Integrated Module</t>
         </is>
       </c>
-      <c r="O147" s="24" t="inlineStr">
+      <c r="O147" s="41" t="inlineStr">
         <is>
           <t>新能源产品</t>
         </is>
       </c>
-      <c r="P147" s="24" t="inlineStr">
+      <c r="P147" s="41" t="inlineStr">
         <is>
           <t>事业五部</t>
         </is>
       </c>
-      <c r="Q147" s="24" t="inlineStr">
+      <c r="Q147" s="41" t="inlineStr">
         <is>
           <t>绍兴工厂</t>
         </is>
       </c>
-      <c r="R147" s="24" t="inlineStr">
+      <c r="R147" s="41" t="inlineStr">
         <is>
           <t>S/C/1739701-00-B/#/#</t>
         </is>
       </c>
-      <c r="S147" s="24" t="inlineStr">
+      <c r="S147" s="41" t="inlineStr">
         <is>
           <t>01320100090</t>
         </is>
       </c>
-      <c r="T147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V147" s="24" t="inlineStr">
+      <c r="T147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" s="41" t="inlineStr">
         <is>
           <t>ASY,RAPTOR,TC,MP2XL</t>
         </is>
       </c>
-      <c r="W147" s="24" t="n">
+      <c r="W147" s="41" t="n">
         <v>0</v>
       </c>
       <c r="X147" s="51" t="inlineStr">
         <is>
-          <t>1739701-00-B</t>
-        </is>
-      </c>
-      <c r="Y147" s="24" t="inlineStr">
+          <t>1739701-50-B</t>
+        </is>
+      </c>
+      <c r="Y147" s="41" t="inlineStr">
         <is>
           <t>批量SOP</t>
         </is>
       </c>
-      <c r="Z147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC147" s="24" t="inlineStr">
+      <c r="Z147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="41" t="inlineStr">
         <is>
           <t>HC18（储能）</t>
         </is>
       </c>
-      <c r="AD147" s="24" t="inlineStr">
+      <c r="AD147" s="41" t="inlineStr">
         <is>
           <t>Raptor</t>
         </is>
       </c>
-      <c r="AE147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI147" s="24" t="inlineStr">
+      <c r="AE147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="41" t="inlineStr">
         <is>
           <t>美元/USD</t>
         </is>
       </c>
-      <c r="AJ147" s="24" t="n">
+      <c r="AJ147" s="41" t="n">
         <v>6.8</v>
       </c>
-      <c r="AK147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM147" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN147" s="24" t="n">
+      <c r="AK147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN147" s="41" t="n">
         <v>0</v>
       </c>
       <c r="AO147" s="41" t="n">
@@ -49023,143 +49024,143 @@
       <c r="AT147" s="49" t="n">
         <v>0.0392</v>
       </c>
-      <c r="AU147" s="24" t="n">
+      <c r="AU147" s="41" t="n">
         <v>0.028</v>
       </c>
-      <c r="AV147" s="24" t="n">
+      <c r="AV147" s="41" t="n">
         <v>0.032</v>
       </c>
-      <c r="AW147" s="24" t="n">
+      <c r="AW147" s="41" t="n">
         <v>0.032</v>
       </c>
-      <c r="AX147" s="24" t="n">
+      <c r="AX147" s="41" t="n">
         <v>0.032</v>
       </c>
-      <c r="AY147" s="24" t="n">
+      <c r="AY147" s="41" t="n">
         <v>0.036</v>
       </c>
-      <c r="AZ147" s="24" t="n">
+      <c r="AZ147" s="41" t="n">
         <v>0.036</v>
       </c>
-      <c r="BA147" s="24" t="n">
+      <c r="BA147" s="41" t="n">
         <v>0.036</v>
       </c>
-      <c r="BB147" s="24" t="n">
+      <c r="BB147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BC147" s="24" t="n">
+      <c r="BC147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BD147" s="24" t="n">
+      <c r="BD147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BE147" s="24" t="n">
+      <c r="BE147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BF147" s="24" t="n">
+      <c r="BF147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BG147" s="24" t="n">
+      <c r="BG147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BH147" s="24" t="n">
+      <c r="BH147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BI147" s="24" t="n">
+      <c r="BI147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BJ147" s="24" t="n">
+      <c r="BJ147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BK147" s="24" t="n">
+      <c r="BK147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BL147" s="24" t="n">
+      <c r="BL147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BM147" s="24" t="n">
+      <c r="BM147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BN147" s="24" t="n">
+      <c r="BN147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BO147" s="24" t="n">
+      <c r="BO147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BP147" s="24" t="n">
+      <c r="BP147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BQ147" s="24" t="n">
+      <c r="BQ147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BR147" s="24" t="n">
+      <c r="BR147" s="41" t="n">
         <v>1250</v>
       </c>
-      <c r="BS147" s="24">
+      <c r="BS147" s="41">
         <f>BB147*AK147*$AJ147</f>
         <v/>
       </c>
-      <c r="BT147" s="24">
+      <c r="BT147" s="41">
         <f>BC147*AL147*$AJ147</f>
         <v/>
       </c>
-      <c r="BU147" s="24">
+      <c r="BU147" s="41">
         <f>BD147*AM147*$AJ147</f>
         <v/>
       </c>
-      <c r="BV147" s="26">
+      <c r="BV147" s="41">
         <f>BE147*AN147*$AJ147</f>
         <v/>
       </c>
-      <c r="BW147" s="26">
+      <c r="BW147" s="41">
         <f>BF147*AO147*$AJ147</f>
         <v/>
       </c>
-      <c r="BX147" s="26">
+      <c r="BX147" s="41">
         <f>AP147*BG147*$AJ147</f>
         <v/>
       </c>
-      <c r="BY147" s="24">
+      <c r="BY147" s="41">
         <f>AQ147*BH147*$AJ147</f>
         <v/>
       </c>
-      <c r="BZ147" s="24">
+      <c r="BZ147" s="41">
         <f>AR147*BI147*$AJ147</f>
         <v/>
       </c>
-      <c r="CA147" s="24">
+      <c r="CA147" s="41">
         <f>AS147*BJ147*$AJ147</f>
         <v/>
       </c>
-      <c r="CB147" s="24">
+      <c r="CB147" s="41">
         <f>AT147*BK147*$AJ147</f>
         <v/>
       </c>
-      <c r="CC147" s="24">
+      <c r="CC147" s="41">
         <f>AU147*BL147*$AJ147</f>
         <v/>
       </c>
-      <c r="CD147" s="24">
+      <c r="CD147" s="41">
         <f>AV147*BM147*$AJ147</f>
         <v/>
       </c>
-      <c r="CE147" s="24">
+      <c r="CE147" s="41">
         <f>AW147*BN147*$AJ147</f>
         <v/>
       </c>
-      <c r="CF147" s="24">
+      <c r="CF147" s="41">
         <f>AX147*BO147*$AJ147</f>
         <v/>
       </c>
-      <c r="CG147" s="24">
+      <c r="CG147" s="41">
         <f>AY147*BP147*$AJ147</f>
         <v/>
       </c>
-      <c r="CH147" s="24">
+      <c r="CH147" s="41">
         <f>AZ147*BQ147*$AJ147</f>
         <v/>
       </c>
-      <c r="CI147" s="24">
+      <c r="CI147" s="41">
         <f>BA147*BR147*$AJ147</f>
         <v/>
       </c>
@@ -65068,13 +65069,6 @@
     <row r="999" hidden="1" outlineLevel="1" s="46"/>
     <row r="1000" hidden="1" outlineLevel="1" s="46"/>
   </sheetData>
-  <autoFilter ref="A1:CI193">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="宁波拓普集团股份有限公司"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="S1">
     <cfRule type="duplicateValues" priority="29" dxfId="0"/>
   </conditionalFormatting>
